--- a/excel-pivotby-demo.xlsx
+++ b/excel-pivotby-demo.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27809"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA311A70-AD49-4067-BEE9-A6538A9BDDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF2E7C6-2253-4915-AB28-33179A004ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{9CD546EA-A036-42F8-B904-3ACF933C367C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -208,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -216,16 +219,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7301,7 +7311,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F6EE0D9-F26D-4CAC-9D1C-86A980634C93}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F6EE0D9-F26D-4CAC-9D1C-86A980634C93}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7370,11 +7380,11 @@
     <tableColumn id="5" xr3:uid="{A7991B6A-F299-4F62-B8A9-00AB8D7AA87F}" name="category"/>
     <tableColumn id="6" xr3:uid="{4A969527-2D2B-4914-86E4-F878432C968C}" name="unit_price"/>
     <tableColumn id="7" xr3:uid="{D5E7D4E1-3A74-477F-A860-D841F26CAA7F}" name="quantity"/>
-    <tableColumn id="12" xr3:uid="{2F44EDD5-910D-40F3-AB02-5F0667E1DA2D}" name="sales" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{8F235AA4-9C66-4548-826D-A41C4FA6E4E1}" name="order_date" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{2F44EDD5-910D-40F3-AB02-5F0667E1DA2D}" name="sales" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{8F235AA4-9C66-4548-826D-A41C4FA6E4E1}" name="order_date" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{0F74B8ED-48BE-4E67-9A42-2DC142D4639E}" name="customer_age"/>
+    <tableColumn id="11" xr3:uid="{DCD9C988-ACF0-46ED-BB36-1F3B539A8A2C}" name="country"/>
     <tableColumn id="10" xr3:uid="{83D12B8A-8E3F-4B85-9AF4-F66023B01063}" name="customer_gender"/>
-    <tableColumn id="11" xr3:uid="{DCD9C988-ACF0-46ED-BB36-1F3B539A8A2C}" name="country"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7699,13 +7709,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAB2E26-42FF-4AD5-85D6-4F60B137C7D0}">
   <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H501"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.2890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.5390625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.7">
@@ -7740,10 +7769,10 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.7">
@@ -7778,10 +7807,10 @@
         <v>62</v>
       </c>
       <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.7">
@@ -7816,10 +7845,10 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.7">
@@ -7854,10 +7883,10 @@
         <v>54</v>
       </c>
       <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
         <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.7">
@@ -7892,10 +7921,10 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
         <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.7">
@@ -7930,10 +7959,10 @@
         <v>39</v>
       </c>
       <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
         <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.7">
@@ -7968,10 +7997,10 @@
         <v>38</v>
       </c>
       <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
         <v>13</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.7">
@@ -8006,10 +8035,10 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
         <v>13</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.7">
@@ -8044,10 +8073,10 @@
         <v>23</v>
       </c>
       <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
         <v>13</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.7">
@@ -8082,10 +8111,10 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
         <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.7">
@@ -8120,10 +8149,10 @@
         <v>47</v>
       </c>
       <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
         <v>16</v>
-      </c>
-      <c r="L11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.7">
@@ -8158,10 +8187,10 @@
         <v>28</v>
       </c>
       <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
         <v>13</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.7">
@@ -8196,10 +8225,10 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
         <v>16</v>
-      </c>
-      <c r="L13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.7">
@@ -8234,10 +8263,10 @@
         <v>48</v>
       </c>
       <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
         <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.7">
@@ -8272,10 +8301,10 @@
         <v>41</v>
       </c>
       <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
         <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.7">
@@ -8310,10 +8339,10 @@
         <v>26</v>
       </c>
       <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
         <v>16</v>
-      </c>
-      <c r="L16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.7">
@@ -8348,10 +8377,10 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
         <v>16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.7">
@@ -8386,10 +8415,10 @@
         <v>48</v>
       </c>
       <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
         <v>13</v>
-      </c>
-      <c r="L18" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.7">
@@ -8424,10 +8453,10 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
         <v>13</v>
-      </c>
-      <c r="L19" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.7">
@@ -8462,10 +8491,10 @@
         <v>54</v>
       </c>
       <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
         <v>13</v>
-      </c>
-      <c r="L20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.7">
@@ -8500,10 +8529,10 @@
         <v>53</v>
       </c>
       <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
         <v>13</v>
-      </c>
-      <c r="L21" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.7">
@@ -8538,10 +8567,10 @@
         <v>41</v>
       </c>
       <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
         <v>16</v>
-      </c>
-      <c r="L22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.7">
@@ -8576,10 +8605,10 @@
         <v>48</v>
       </c>
       <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" t="s">
         <v>13</v>
-      </c>
-      <c r="L23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.7">
@@ -8614,10 +8643,10 @@
         <v>23</v>
       </c>
       <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
         <v>16</v>
-      </c>
-      <c r="L24" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.7">
@@ -8652,10 +8681,10 @@
         <v>19</v>
       </c>
       <c r="K25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" t="s">
         <v>13</v>
-      </c>
-      <c r="L25" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.7">
@@ -8690,10 +8719,10 @@
         <v>37</v>
       </c>
       <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
         <v>16</v>
-      </c>
-      <c r="L26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.7">
@@ -8728,10 +8757,10 @@
         <v>45</v>
       </c>
       <c r="K27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" t="s">
         <v>16</v>
-      </c>
-      <c r="L27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.7">
@@ -8766,10 +8795,10 @@
         <v>28</v>
       </c>
       <c r="K28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" t="s">
         <v>13</v>
-      </c>
-      <c r="L28" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.7">
@@ -8804,10 +8833,10 @@
         <v>21</v>
       </c>
       <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
         <v>16</v>
-      </c>
-      <c r="L29" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.7">
@@ -8842,10 +8871,10 @@
         <v>32</v>
       </c>
       <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
         <v>16</v>
-      </c>
-      <c r="L30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.7">
@@ -8880,10 +8909,10 @@
         <v>23</v>
       </c>
       <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
         <v>13</v>
-      </c>
-      <c r="L31" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.7">
@@ -8918,10 +8947,10 @@
         <v>47</v>
       </c>
       <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" t="s">
         <v>16</v>
-      </c>
-      <c r="L32" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.7">
@@ -8956,10 +8985,10 @@
         <v>55</v>
       </c>
       <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
         <v>13</v>
-      </c>
-      <c r="L33" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.7">
@@ -8994,10 +9023,10 @@
         <v>19</v>
       </c>
       <c r="K34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" t="s">
         <v>13</v>
-      </c>
-      <c r="L34" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.7">
@@ -9032,10 +9061,10 @@
         <v>32</v>
       </c>
       <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
         <v>13</v>
-      </c>
-      <c r="L35" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.7">
@@ -9070,10 +9099,10 @@
         <v>28</v>
       </c>
       <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
         <v>16</v>
-      </c>
-      <c r="L36" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.7">
@@ -9108,10 +9137,10 @@
         <v>25</v>
       </c>
       <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
         <v>16</v>
-      </c>
-      <c r="L37" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.7">
@@ -9146,10 +9175,10 @@
         <v>43</v>
       </c>
       <c r="K38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" t="s">
         <v>16</v>
-      </c>
-      <c r="L38" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.7">
@@ -9184,10 +9213,10 @@
         <v>62</v>
       </c>
       <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
         <v>13</v>
-      </c>
-      <c r="L39" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.7">
@@ -9222,10 +9251,10 @@
         <v>61</v>
       </c>
       <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
         <v>16</v>
-      </c>
-      <c r="L40" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.7">
@@ -9260,10 +9289,10 @@
         <v>22</v>
       </c>
       <c r="K41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" t="s">
         <v>13</v>
-      </c>
-      <c r="L41" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.7">
@@ -9298,10 +9327,10 @@
         <v>23</v>
       </c>
       <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
         <v>13</v>
-      </c>
-      <c r="L42" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.7">
@@ -9336,10 +9365,10 @@
         <v>43</v>
       </c>
       <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
         <v>16</v>
-      </c>
-      <c r="L43" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.7">
@@ -9374,10 +9403,10 @@
         <v>21</v>
       </c>
       <c r="K44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" t="s">
         <v>13</v>
-      </c>
-      <c r="L44" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.7">
@@ -9412,10 +9441,10 @@
         <v>36</v>
       </c>
       <c r="K45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" t="s">
         <v>16</v>
-      </c>
-      <c r="L45" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.7">
@@ -9450,10 +9479,10 @@
         <v>37</v>
       </c>
       <c r="K46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" t="s">
         <v>16</v>
-      </c>
-      <c r="L46" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.7">
@@ -9488,10 +9517,10 @@
         <v>50</v>
       </c>
       <c r="K47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" t="s">
         <v>16</v>
-      </c>
-      <c r="L47" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.7">
@@ -9526,10 +9555,10 @@
         <v>37</v>
       </c>
       <c r="K48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" t="s">
         <v>16</v>
-      </c>
-      <c r="L48" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.7">
@@ -9564,10 +9593,10 @@
         <v>29</v>
       </c>
       <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" t="s">
         <v>16</v>
-      </c>
-      <c r="L49" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.7">
@@ -9602,10 +9631,10 @@
         <v>64</v>
       </c>
       <c r="K50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" t="s">
         <v>13</v>
-      </c>
-      <c r="L50" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.7">
@@ -9640,10 +9669,10 @@
         <v>18</v>
       </c>
       <c r="K51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" t="s">
         <v>13</v>
-      </c>
-      <c r="L51" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.7">
@@ -9678,10 +9707,10 @@
         <v>43</v>
       </c>
       <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" t="s">
         <v>13</v>
-      </c>
-      <c r="L52" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.7">
@@ -9716,10 +9745,10 @@
         <v>31</v>
       </c>
       <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" t="s">
         <v>16</v>
-      </c>
-      <c r="L53" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.7">
@@ -9754,10 +9783,10 @@
         <v>55</v>
       </c>
       <c r="K54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" t="s">
         <v>16</v>
-      </c>
-      <c r="L54" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.7">
@@ -9792,10 +9821,10 @@
         <v>54</v>
       </c>
       <c r="K55" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" t="s">
         <v>16</v>
-      </c>
-      <c r="L55" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.7">
@@ -9830,10 +9859,10 @@
         <v>28</v>
       </c>
       <c r="K56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" t="s">
         <v>13</v>
-      </c>
-      <c r="L56" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.7">
@@ -9868,10 +9897,10 @@
         <v>53</v>
       </c>
       <c r="K57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" t="s">
         <v>16</v>
-      </c>
-      <c r="L57" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.7">
@@ -9906,10 +9935,10 @@
         <v>30</v>
       </c>
       <c r="K58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" t="s">
         <v>13</v>
-      </c>
-      <c r="L58" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.7">
@@ -9944,10 +9973,10 @@
         <v>60</v>
       </c>
       <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
         <v>13</v>
-      </c>
-      <c r="L59" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.7">
@@ -9982,10 +10011,10 @@
         <v>20</v>
       </c>
       <c r="K60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" t="s">
         <v>16</v>
-      </c>
-      <c r="L60" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.7">
@@ -10020,10 +10049,10 @@
         <v>50</v>
       </c>
       <c r="K61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" t="s">
         <v>16</v>
-      </c>
-      <c r="L61" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.7">
@@ -10058,10 +10087,10 @@
         <v>23</v>
       </c>
       <c r="K62" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" t="s">
         <v>13</v>
-      </c>
-      <c r="L62" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.7">
@@ -10096,10 +10125,10 @@
         <v>27</v>
       </c>
       <c r="K63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" t="s">
         <v>16</v>
-      </c>
-      <c r="L63" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.7">
@@ -10134,10 +10163,10 @@
         <v>22</v>
       </c>
       <c r="K64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" t="s">
         <v>13</v>
-      </c>
-      <c r="L64" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.7">
@@ -10172,10 +10201,10 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" t="s">
         <v>16</v>
-      </c>
-      <c r="L65" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.7">
@@ -10210,10 +10239,10 @@
         <v>27</v>
       </c>
       <c r="K66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" t="s">
         <v>16</v>
-      </c>
-      <c r="L66" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.7">
@@ -10248,10 +10277,10 @@
         <v>61</v>
       </c>
       <c r="K67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" t="s">
         <v>13</v>
-      </c>
-      <c r="L67" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.7">
@@ -10286,10 +10315,10 @@
         <v>19</v>
       </c>
       <c r="K68" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" t="s">
         <v>16</v>
-      </c>
-      <c r="L68" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.7">
@@ -10324,10 +10353,10 @@
         <v>30</v>
       </c>
       <c r="K69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" t="s">
         <v>13</v>
-      </c>
-      <c r="L69" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.7">
@@ -10362,10 +10391,10 @@
         <v>57</v>
       </c>
       <c r="K70" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" t="s">
         <v>16</v>
-      </c>
-      <c r="L70" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.7">
@@ -10400,10 +10429,10 @@
         <v>19</v>
       </c>
       <c r="K71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" t="s">
         <v>13</v>
-      </c>
-      <c r="L71" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.7">
@@ -10438,10 +10467,10 @@
         <v>37</v>
       </c>
       <c r="K72" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" t="s">
         <v>13</v>
-      </c>
-      <c r="L72" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.7">
@@ -10476,10 +10505,10 @@
         <v>18</v>
       </c>
       <c r="K73" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" t="s">
         <v>16</v>
-      </c>
-      <c r="L73" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.7">
@@ -10514,10 +10543,10 @@
         <v>54</v>
       </c>
       <c r="K74" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" t="s">
         <v>13</v>
-      </c>
-      <c r="L74" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.7">
@@ -10552,10 +10581,10 @@
         <v>26</v>
       </c>
       <c r="K75" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" t="s">
         <v>16</v>
-      </c>
-      <c r="L75" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.7">
@@ -10590,10 +10619,10 @@
         <v>34</v>
       </c>
       <c r="K76" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" t="s">
         <v>16</v>
-      </c>
-      <c r="L76" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.7">
@@ -10628,10 +10657,10 @@
         <v>26</v>
       </c>
       <c r="K77" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" t="s">
         <v>16</v>
-      </c>
-      <c r="L77" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.7">
@@ -10666,10 +10695,10 @@
         <v>28</v>
       </c>
       <c r="K78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" t="s">
         <v>13</v>
-      </c>
-      <c r="L78" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.7">
@@ -10704,10 +10733,10 @@
         <v>32</v>
       </c>
       <c r="K79" t="s">
+        <v>30</v>
+      </c>
+      <c r="L79" t="s">
         <v>13</v>
-      </c>
-      <c r="L79" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.7">
@@ -10742,10 +10771,10 @@
         <v>41</v>
       </c>
       <c r="K80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" t="s">
         <v>16</v>
-      </c>
-      <c r="L80" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.7">
@@ -10780,10 +10809,10 @@
         <v>55</v>
       </c>
       <c r="K81" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" t="s">
         <v>16</v>
-      </c>
-      <c r="L81" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.7">
@@ -10818,10 +10847,10 @@
         <v>52</v>
       </c>
       <c r="K82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" t="s">
         <v>13</v>
-      </c>
-      <c r="L82" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.7">
@@ -10856,10 +10885,10 @@
         <v>47</v>
       </c>
       <c r="K83" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" t="s">
         <v>16</v>
-      </c>
-      <c r="L83" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.7">
@@ -10894,10 +10923,10 @@
         <v>48</v>
       </c>
       <c r="K84" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" t="s">
         <v>16</v>
-      </c>
-      <c r="L84" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.7">
@@ -10932,10 +10961,10 @@
         <v>22</v>
       </c>
       <c r="K85" t="s">
+        <v>24</v>
+      </c>
+      <c r="L85" t="s">
         <v>13</v>
-      </c>
-      <c r="L85" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.7">
@@ -10970,10 +10999,10 @@
         <v>61</v>
       </c>
       <c r="K86" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86" t="s">
         <v>16</v>
-      </c>
-      <c r="L86" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.7">
@@ -11008,10 +11037,10 @@
         <v>31</v>
       </c>
       <c r="K87" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" t="s">
         <v>13</v>
-      </c>
-      <c r="L87" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.7">
@@ -11046,10 +11075,10 @@
         <v>28</v>
       </c>
       <c r="K88" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" t="s">
         <v>16</v>
-      </c>
-      <c r="L88" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.7">
@@ -11084,10 +11113,10 @@
         <v>26</v>
       </c>
       <c r="K89" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" t="s">
         <v>13</v>
-      </c>
-      <c r="L89" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.7">
@@ -11122,10 +11151,10 @@
         <v>51</v>
       </c>
       <c r="K90" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" t="s">
         <v>16</v>
-      </c>
-      <c r="L90" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.7">
@@ -11160,10 +11189,10 @@
         <v>29</v>
       </c>
       <c r="K91" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" t="s">
         <v>16</v>
-      </c>
-      <c r="L91" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.7">
@@ -11198,10 +11227,10 @@
         <v>52</v>
       </c>
       <c r="K92" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" t="s">
         <v>13</v>
-      </c>
-      <c r="L92" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.7">
@@ -11236,10 +11265,10 @@
         <v>52</v>
       </c>
       <c r="K93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" t="s">
         <v>16</v>
-      </c>
-      <c r="L93" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.7">
@@ -11274,10 +11303,10 @@
         <v>18</v>
       </c>
       <c r="K94" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94" t="s">
         <v>13</v>
-      </c>
-      <c r="L94" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.7">
@@ -11312,10 +11341,10 @@
         <v>57</v>
       </c>
       <c r="K95" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95" t="s">
         <v>16</v>
-      </c>
-      <c r="L95" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.7">
@@ -11350,10 +11379,10 @@
         <v>39</v>
       </c>
       <c r="K96" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" t="s">
         <v>13</v>
-      </c>
-      <c r="L96" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.7">
@@ -11388,10 +11417,10 @@
         <v>46</v>
       </c>
       <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
         <v>13</v>
-      </c>
-      <c r="L97" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.7">
@@ -11426,10 +11455,10 @@
         <v>25</v>
       </c>
       <c r="K98" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" t="s">
         <v>13</v>
-      </c>
-      <c r="L98" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.7">
@@ -11464,10 +11493,10 @@
         <v>28</v>
       </c>
       <c r="K99" t="s">
+        <v>17</v>
+      </c>
+      <c r="L99" t="s">
         <v>13</v>
-      </c>
-      <c r="L99" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.7">
@@ -11502,10 +11531,10 @@
         <v>58</v>
       </c>
       <c r="K100" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" t="s">
         <v>16</v>
-      </c>
-      <c r="L100" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.7">
@@ -11540,10 +11569,10 @@
         <v>54</v>
       </c>
       <c r="K101" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" t="s">
         <v>16</v>
-      </c>
-      <c r="L101" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.7">
@@ -11578,10 +11607,10 @@
         <v>31</v>
       </c>
       <c r="K102" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" t="s">
         <v>13</v>
-      </c>
-      <c r="L102" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.7">
@@ -11616,10 +11645,10 @@
         <v>47</v>
       </c>
       <c r="K103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L103" t="s">
         <v>13</v>
-      </c>
-      <c r="L103" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.7">
@@ -11654,10 +11683,10 @@
         <v>52</v>
       </c>
       <c r="K104" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" t="s">
         <v>13</v>
-      </c>
-      <c r="L104" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.7">
@@ -11692,10 +11721,10 @@
         <v>38</v>
       </c>
       <c r="K105" t="s">
+        <v>17</v>
+      </c>
+      <c r="L105" t="s">
         <v>16</v>
-      </c>
-      <c r="L105" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.7">
@@ -11730,10 +11759,10 @@
         <v>54</v>
       </c>
       <c r="K106" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" t="s">
         <v>16</v>
-      </c>
-      <c r="L106" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.7">
@@ -11768,10 +11797,10 @@
         <v>22</v>
       </c>
       <c r="K107" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" t="s">
         <v>16</v>
-      </c>
-      <c r="L107" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.7">
@@ -11806,10 +11835,10 @@
         <v>36</v>
       </c>
       <c r="K108" t="s">
+        <v>17</v>
+      </c>
+      <c r="L108" t="s">
         <v>16</v>
-      </c>
-      <c r="L108" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.7">
@@ -11844,10 +11873,10 @@
         <v>31</v>
       </c>
       <c r="K109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L109" t="s">
         <v>13</v>
-      </c>
-      <c r="L109" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.7">
@@ -11882,10 +11911,10 @@
         <v>43</v>
       </c>
       <c r="K110" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" t="s">
         <v>13</v>
-      </c>
-      <c r="L110" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.7">
@@ -11920,10 +11949,10 @@
         <v>21</v>
       </c>
       <c r="K111" t="s">
+        <v>14</v>
+      </c>
+      <c r="L111" t="s">
         <v>13</v>
-      </c>
-      <c r="L111" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.7">
@@ -11958,10 +11987,10 @@
         <v>42</v>
       </c>
       <c r="K112" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" t="s">
         <v>16</v>
-      </c>
-      <c r="L112" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.7">
@@ -11996,10 +12025,10 @@
         <v>62</v>
       </c>
       <c r="K113" t="s">
+        <v>24</v>
+      </c>
+      <c r="L113" t="s">
         <v>16</v>
-      </c>
-      <c r="L113" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.7">
@@ -12034,10 +12063,10 @@
         <v>59</v>
       </c>
       <c r="K114" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" t="s">
         <v>16</v>
-      </c>
-      <c r="L114" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.7">
@@ -12072,10 +12101,10 @@
         <v>42</v>
       </c>
       <c r="K115" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115" t="s">
         <v>13</v>
-      </c>
-      <c r="L115" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.7">
@@ -12110,10 +12139,10 @@
         <v>35</v>
       </c>
       <c r="K116" t="s">
+        <v>17</v>
+      </c>
+      <c r="L116" t="s">
         <v>13</v>
-      </c>
-      <c r="L116" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.7">
@@ -12148,10 +12177,10 @@
         <v>57</v>
       </c>
       <c r="K117" t="s">
+        <v>20</v>
+      </c>
+      <c r="L117" t="s">
         <v>16</v>
-      </c>
-      <c r="L117" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.7">
@@ -12186,10 +12215,10 @@
         <v>25</v>
       </c>
       <c r="K118" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118" t="s">
         <v>13</v>
-      </c>
-      <c r="L118" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.7">
@@ -12224,10 +12253,10 @@
         <v>56</v>
       </c>
       <c r="K119" t="s">
+        <v>14</v>
+      </c>
+      <c r="L119" t="s">
         <v>16</v>
-      </c>
-      <c r="L119" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.7">
@@ -12262,10 +12291,10 @@
         <v>57</v>
       </c>
       <c r="K120" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" t="s">
         <v>16</v>
-      </c>
-      <c r="L120" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.7">
@@ -12300,10 +12329,10 @@
         <v>31</v>
       </c>
       <c r="K121" t="s">
+        <v>30</v>
+      </c>
+      <c r="L121" t="s">
         <v>13</v>
-      </c>
-      <c r="L121" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.7">
@@ -12338,10 +12367,10 @@
         <v>49</v>
       </c>
       <c r="K122" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" t="s">
         <v>16</v>
-      </c>
-      <c r="L122" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.7">
@@ -12376,10 +12405,10 @@
         <v>55</v>
       </c>
       <c r="K123" t="s">
+        <v>20</v>
+      </c>
+      <c r="L123" t="s">
         <v>13</v>
-      </c>
-      <c r="L123" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.7">
@@ -12414,10 +12443,10 @@
         <v>50</v>
       </c>
       <c r="K124" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" t="s">
         <v>16</v>
-      </c>
-      <c r="L124" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.7">
@@ -12452,10 +12481,10 @@
         <v>40</v>
       </c>
       <c r="K125" t="s">
+        <v>17</v>
+      </c>
+      <c r="L125" t="s">
         <v>13</v>
-      </c>
-      <c r="L125" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.7">
@@ -12490,10 +12519,10 @@
         <v>32</v>
       </c>
       <c r="K126" t="s">
+        <v>22</v>
+      </c>
+      <c r="L126" t="s">
         <v>13</v>
-      </c>
-      <c r="L126" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.7">
@@ -12528,10 +12557,10 @@
         <v>50</v>
       </c>
       <c r="K127" t="s">
+        <v>17</v>
+      </c>
+      <c r="L127" t="s">
         <v>13</v>
-      </c>
-      <c r="L127" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.7">
@@ -12566,10 +12595,10 @@
         <v>42</v>
       </c>
       <c r="K128" t="s">
+        <v>20</v>
+      </c>
+      <c r="L128" t="s">
         <v>16</v>
-      </c>
-      <c r="L128" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.7">
@@ -12604,10 +12633,10 @@
         <v>34</v>
       </c>
       <c r="K129" t="s">
+        <v>22</v>
+      </c>
+      <c r="L129" t="s">
         <v>16</v>
-      </c>
-      <c r="L129" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.7">
@@ -12642,10 +12671,10 @@
         <v>50</v>
       </c>
       <c r="K130" t="s">
+        <v>30</v>
+      </c>
+      <c r="L130" t="s">
         <v>13</v>
-      </c>
-      <c r="L130" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.7">
@@ -12680,10 +12709,10 @@
         <v>64</v>
       </c>
       <c r="K131" t="s">
+        <v>24</v>
+      </c>
+      <c r="L131" t="s">
         <v>13</v>
-      </c>
-      <c r="L131" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.7">
@@ -12718,10 +12747,10 @@
         <v>19</v>
       </c>
       <c r="K132" t="s">
+        <v>20</v>
+      </c>
+      <c r="L132" t="s">
         <v>16</v>
-      </c>
-      <c r="L132" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.7">
@@ -12756,10 +12785,10 @@
         <v>31</v>
       </c>
       <c r="K133" t="s">
+        <v>20</v>
+      </c>
+      <c r="L133" t="s">
         <v>16</v>
-      </c>
-      <c r="L133" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.7">
@@ -12794,10 +12823,10 @@
         <v>57</v>
       </c>
       <c r="K134" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" t="s">
         <v>16</v>
-      </c>
-      <c r="L134" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.7">
@@ -12832,10 +12861,10 @@
         <v>57</v>
       </c>
       <c r="K135" t="s">
+        <v>17</v>
+      </c>
+      <c r="L135" t="s">
         <v>13</v>
-      </c>
-      <c r="L135" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.7">
@@ -12870,10 +12899,10 @@
         <v>56</v>
       </c>
       <c r="K136" t="s">
+        <v>20</v>
+      </c>
+      <c r="L136" t="s">
         <v>16</v>
-      </c>
-      <c r="L136" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.7">
@@ -12908,10 +12937,10 @@
         <v>23</v>
       </c>
       <c r="K137" t="s">
+        <v>20</v>
+      </c>
+      <c r="L137" t="s">
         <v>16</v>
-      </c>
-      <c r="L137" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.7">
@@ -12946,10 +12975,10 @@
         <v>23</v>
       </c>
       <c r="K138" t="s">
+        <v>30</v>
+      </c>
+      <c r="L138" t="s">
         <v>13</v>
-      </c>
-      <c r="L138" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.7">
@@ -12984,10 +13013,10 @@
         <v>20</v>
       </c>
       <c r="K139" t="s">
+        <v>30</v>
+      </c>
+      <c r="L139" t="s">
         <v>16</v>
-      </c>
-      <c r="L139" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.7">
@@ -13022,10 +13051,10 @@
         <v>24</v>
       </c>
       <c r="K140" t="s">
+        <v>22</v>
+      </c>
+      <c r="L140" t="s">
         <v>16</v>
-      </c>
-      <c r="L140" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.7">
@@ -13060,10 +13089,10 @@
         <v>25</v>
       </c>
       <c r="K141" t="s">
+        <v>24</v>
+      </c>
+      <c r="L141" t="s">
         <v>16</v>
-      </c>
-      <c r="L141" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.7">
@@ -13098,10 +13127,10 @@
         <v>59</v>
       </c>
       <c r="K142" t="s">
+        <v>14</v>
+      </c>
+      <c r="L142" t="s">
         <v>13</v>
-      </c>
-      <c r="L142" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.7">
@@ -13136,10 +13165,10 @@
         <v>32</v>
       </c>
       <c r="K143" t="s">
+        <v>24</v>
+      </c>
+      <c r="L143" t="s">
         <v>13</v>
-      </c>
-      <c r="L143" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.7">
@@ -13174,10 +13203,10 @@
         <v>64</v>
       </c>
       <c r="K144" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144" t="s">
         <v>13</v>
-      </c>
-      <c r="L144" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.7">
@@ -13212,10 +13241,10 @@
         <v>46</v>
       </c>
       <c r="K145" t="s">
+        <v>30</v>
+      </c>
+      <c r="L145" t="s">
         <v>13</v>
-      </c>
-      <c r="L145" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.7">
@@ -13250,10 +13279,10 @@
         <v>50</v>
       </c>
       <c r="K146" t="s">
+        <v>17</v>
+      </c>
+      <c r="L146" t="s">
         <v>13</v>
-      </c>
-      <c r="L146" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.7">
@@ -13288,10 +13317,10 @@
         <v>47</v>
       </c>
       <c r="K147" t="s">
+        <v>30</v>
+      </c>
+      <c r="L147" t="s">
         <v>13</v>
-      </c>
-      <c r="L147" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.7">
@@ -13326,10 +13355,10 @@
         <v>56</v>
       </c>
       <c r="K148" t="s">
+        <v>14</v>
+      </c>
+      <c r="L148" t="s">
         <v>13</v>
-      </c>
-      <c r="L148" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.7">
@@ -13364,10 +13393,10 @@
         <v>44</v>
       </c>
       <c r="K149" t="s">
+        <v>30</v>
+      </c>
+      <c r="L149" t="s">
         <v>16</v>
-      </c>
-      <c r="L149" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.7">
@@ -13402,10 +13431,10 @@
         <v>53</v>
       </c>
       <c r="K150" t="s">
+        <v>14</v>
+      </c>
+      <c r="L150" t="s">
         <v>16</v>
-      </c>
-      <c r="L150" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.7">
@@ -13440,10 +13469,10 @@
         <v>46</v>
       </c>
       <c r="K151" t="s">
+        <v>14</v>
+      </c>
+      <c r="L151" t="s">
         <v>13</v>
-      </c>
-      <c r="L151" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.7">
@@ -13478,10 +13507,10 @@
         <v>55</v>
       </c>
       <c r="K152" t="s">
+        <v>14</v>
+      </c>
+      <c r="L152" t="s">
         <v>16</v>
-      </c>
-      <c r="L152" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.7">
@@ -13516,10 +13545,10 @@
         <v>50</v>
       </c>
       <c r="K153" t="s">
+        <v>22</v>
+      </c>
+      <c r="L153" t="s">
         <v>16</v>
-      </c>
-      <c r="L153" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.7">
@@ -13554,10 +13583,10 @@
         <v>54</v>
       </c>
       <c r="K154" t="s">
+        <v>14</v>
+      </c>
+      <c r="L154" t="s">
         <v>13</v>
-      </c>
-      <c r="L154" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.7">
@@ -13592,10 +13621,10 @@
         <v>44</v>
       </c>
       <c r="K155" t="s">
+        <v>14</v>
+      </c>
+      <c r="L155" t="s">
         <v>16</v>
-      </c>
-      <c r="L155" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.7">
@@ -13630,10 +13659,10 @@
         <v>50</v>
       </c>
       <c r="K156" t="s">
+        <v>17</v>
+      </c>
+      <c r="L156" t="s">
         <v>16</v>
-      </c>
-      <c r="L156" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.7">
@@ -13668,10 +13697,10 @@
         <v>21</v>
       </c>
       <c r="K157" t="s">
+        <v>24</v>
+      </c>
+      <c r="L157" t="s">
         <v>16</v>
-      </c>
-      <c r="L157" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.7">
@@ -13706,10 +13735,10 @@
         <v>39</v>
       </c>
       <c r="K158" t="s">
+        <v>20</v>
+      </c>
+      <c r="L158" t="s">
         <v>16</v>
-      </c>
-      <c r="L158" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.7">
@@ -13744,10 +13773,10 @@
         <v>19</v>
       </c>
       <c r="K159" t="s">
+        <v>24</v>
+      </c>
+      <c r="L159" t="s">
         <v>16</v>
-      </c>
-      <c r="L159" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.7">
@@ -13782,10 +13811,10 @@
         <v>27</v>
       </c>
       <c r="K160" t="s">
+        <v>14</v>
+      </c>
+      <c r="L160" t="s">
         <v>13</v>
-      </c>
-      <c r="L160" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.7">
@@ -13820,10 +13849,10 @@
         <v>22</v>
       </c>
       <c r="K161" t="s">
+        <v>17</v>
+      </c>
+      <c r="L161" t="s">
         <v>13</v>
-      </c>
-      <c r="L161" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.7">
@@ -13858,10 +13887,10 @@
         <v>27</v>
       </c>
       <c r="K162" t="s">
+        <v>30</v>
+      </c>
+      <c r="L162" t="s">
         <v>13</v>
-      </c>
-      <c r="L162" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.7">
@@ -13896,10 +13925,10 @@
         <v>50</v>
       </c>
       <c r="K163" t="s">
+        <v>17</v>
+      </c>
+      <c r="L163" t="s">
         <v>16</v>
-      </c>
-      <c r="L163" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.7">
@@ -13934,10 +13963,10 @@
         <v>55</v>
       </c>
       <c r="K164" t="s">
+        <v>14</v>
+      </c>
+      <c r="L164" t="s">
         <v>13</v>
-      </c>
-      <c r="L164" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.7">
@@ -13972,10 +14001,10 @@
         <v>30</v>
       </c>
       <c r="K165" t="s">
+        <v>17</v>
+      </c>
+      <c r="L165" t="s">
         <v>16</v>
-      </c>
-      <c r="L165" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.7">
@@ -14010,10 +14039,10 @@
         <v>48</v>
       </c>
       <c r="K166" t="s">
+        <v>17</v>
+      </c>
+      <c r="L166" t="s">
         <v>16</v>
-      </c>
-      <c r="L166" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.7">
@@ -14048,10 +14077,10 @@
         <v>64</v>
       </c>
       <c r="K167" t="s">
+        <v>14</v>
+      </c>
+      <c r="L167" t="s">
         <v>16</v>
-      </c>
-      <c r="L167" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.7">
@@ -14086,10 +14115,10 @@
         <v>53</v>
       </c>
       <c r="K168" t="s">
+        <v>22</v>
+      </c>
+      <c r="L168" t="s">
         <v>16</v>
-      </c>
-      <c r="L168" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.7">
@@ -14124,10 +14153,10 @@
         <v>62</v>
       </c>
       <c r="K169" t="s">
+        <v>17</v>
+      </c>
+      <c r="L169" t="s">
         <v>13</v>
-      </c>
-      <c r="L169" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.7">
@@ -14162,10 +14191,10 @@
         <v>41</v>
       </c>
       <c r="K170" t="s">
+        <v>20</v>
+      </c>
+      <c r="L170" t="s">
         <v>13</v>
-      </c>
-      <c r="L170" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.7">
@@ -14200,10 +14229,10 @@
         <v>32</v>
       </c>
       <c r="K171" t="s">
+        <v>20</v>
+      </c>
+      <c r="L171" t="s">
         <v>16</v>
-      </c>
-      <c r="L171" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.7">
@@ -14238,10 +14267,10 @@
         <v>46</v>
       </c>
       <c r="K172" t="s">
+        <v>17</v>
+      </c>
+      <c r="L172" t="s">
         <v>13</v>
-      </c>
-      <c r="L172" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.7">
@@ -14276,10 +14305,10 @@
         <v>25</v>
       </c>
       <c r="K173" t="s">
+        <v>22</v>
+      </c>
+      <c r="L173" t="s">
         <v>16</v>
-      </c>
-      <c r="L173" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.7">
@@ -14314,10 +14343,10 @@
         <v>22</v>
       </c>
       <c r="K174" t="s">
+        <v>30</v>
+      </c>
+      <c r="L174" t="s">
         <v>13</v>
-      </c>
-      <c r="L174" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.7">
@@ -14352,10 +14381,10 @@
         <v>46</v>
       </c>
       <c r="K175" t="s">
+        <v>14</v>
+      </c>
+      <c r="L175" t="s">
         <v>13</v>
-      </c>
-      <c r="L175" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.7">
@@ -14390,10 +14419,10 @@
         <v>64</v>
       </c>
       <c r="K176" t="s">
+        <v>20</v>
+      </c>
+      <c r="L176" t="s">
         <v>16</v>
-      </c>
-      <c r="L176" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.7">
@@ -14428,10 +14457,10 @@
         <v>21</v>
       </c>
       <c r="K177" t="s">
+        <v>30</v>
+      </c>
+      <c r="L177" t="s">
         <v>13</v>
-      </c>
-      <c r="L177" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.7">
@@ -14466,10 +14495,10 @@
         <v>29</v>
       </c>
       <c r="K178" t="s">
+        <v>17</v>
+      </c>
+      <c r="L178" t="s">
         <v>16</v>
-      </c>
-      <c r="L178" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.7">
@@ -14504,10 +14533,10 @@
         <v>62</v>
       </c>
       <c r="K179" t="s">
+        <v>30</v>
+      </c>
+      <c r="L179" t="s">
         <v>13</v>
-      </c>
-      <c r="L179" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.7">
@@ -14542,10 +14571,10 @@
         <v>19</v>
       </c>
       <c r="K180" t="s">
+        <v>24</v>
+      </c>
+      <c r="L180" t="s">
         <v>16</v>
-      </c>
-      <c r="L180" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.7">
@@ -14580,10 +14609,10 @@
         <v>44</v>
       </c>
       <c r="K181" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" t="s">
         <v>16</v>
-      </c>
-      <c r="L181" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.7">
@@ -14618,10 +14647,10 @@
         <v>48</v>
       </c>
       <c r="K182" t="s">
+        <v>17</v>
+      </c>
+      <c r="L182" t="s">
         <v>13</v>
-      </c>
-      <c r="L182" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.7">
@@ -14656,10 +14685,10 @@
         <v>53</v>
       </c>
       <c r="K183" t="s">
+        <v>14</v>
+      </c>
+      <c r="L183" t="s">
         <v>13</v>
-      </c>
-      <c r="L183" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.7">
@@ -14694,10 +14723,10 @@
         <v>53</v>
       </c>
       <c r="K184" t="s">
+        <v>22</v>
+      </c>
+      <c r="L184" t="s">
         <v>16</v>
-      </c>
-      <c r="L184" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.7">
@@ -14732,10 +14761,10 @@
         <v>43</v>
       </c>
       <c r="K185" t="s">
+        <v>17</v>
+      </c>
+      <c r="L185" t="s">
         <v>13</v>
-      </c>
-      <c r="L185" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.7">
@@ -14770,10 +14799,10 @@
         <v>60</v>
       </c>
       <c r="K186" t="s">
+        <v>14</v>
+      </c>
+      <c r="L186" t="s">
         <v>13</v>
-      </c>
-      <c r="L186" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.7">
@@ -14808,10 +14837,10 @@
         <v>44</v>
       </c>
       <c r="K187" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" t="s">
         <v>16</v>
-      </c>
-      <c r="L187" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.7">
@@ -14846,10 +14875,10 @@
         <v>22</v>
       </c>
       <c r="K188" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" t="s">
         <v>16</v>
-      </c>
-      <c r="L188" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.7">
@@ -14884,10 +14913,10 @@
         <v>37</v>
       </c>
       <c r="K189" t="s">
+        <v>17</v>
+      </c>
+      <c r="L189" t="s">
         <v>13</v>
-      </c>
-      <c r="L189" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.7">
@@ -14922,10 +14951,10 @@
         <v>28</v>
       </c>
       <c r="K190" t="s">
+        <v>30</v>
+      </c>
+      <c r="L190" t="s">
         <v>16</v>
-      </c>
-      <c r="L190" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.7">
@@ -14960,10 +14989,10 @@
         <v>27</v>
       </c>
       <c r="K191" t="s">
+        <v>30</v>
+      </c>
+      <c r="L191" t="s">
         <v>16</v>
-      </c>
-      <c r="L191" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.7">
@@ -14998,10 +15027,10 @@
         <v>57</v>
       </c>
       <c r="K192" t="s">
+        <v>22</v>
+      </c>
+      <c r="L192" t="s">
         <v>16</v>
-      </c>
-      <c r="L192" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.7">
@@ -15036,10 +15065,10 @@
         <v>55</v>
       </c>
       <c r="K193" t="s">
+        <v>30</v>
+      </c>
+      <c r="L193" t="s">
         <v>13</v>
-      </c>
-      <c r="L193" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.7">
@@ -15074,10 +15103,10 @@
         <v>23</v>
       </c>
       <c r="K194" t="s">
+        <v>24</v>
+      </c>
+      <c r="L194" t="s">
         <v>13</v>
-      </c>
-      <c r="L194" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.7">
@@ -15112,10 +15141,10 @@
         <v>25</v>
       </c>
       <c r="K195" t="s">
+        <v>22</v>
+      </c>
+      <c r="L195" t="s">
         <v>16</v>
-      </c>
-      <c r="L195" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.7">
@@ -15150,10 +15179,10 @@
         <v>40</v>
       </c>
       <c r="K196" t="s">
+        <v>22</v>
+      </c>
+      <c r="L196" t="s">
         <v>13</v>
-      </c>
-      <c r="L196" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.7">
@@ -15188,10 +15217,10 @@
         <v>64</v>
       </c>
       <c r="K197" t="s">
+        <v>14</v>
+      </c>
+      <c r="L197" t="s">
         <v>16</v>
-      </c>
-      <c r="L197" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.7">
@@ -15226,10 +15255,10 @@
         <v>43</v>
       </c>
       <c r="K198" t="s">
+        <v>30</v>
+      </c>
+      <c r="L198" t="s">
         <v>13</v>
-      </c>
-      <c r="L198" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.7">
@@ -15264,10 +15293,10 @@
         <v>63</v>
       </c>
       <c r="K199" t="s">
+        <v>22</v>
+      </c>
+      <c r="L199" t="s">
         <v>16</v>
-      </c>
-      <c r="L199" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.7">
@@ -15302,10 +15331,10 @@
         <v>60</v>
       </c>
       <c r="K200" t="s">
+        <v>24</v>
+      </c>
+      <c r="L200" t="s">
         <v>16</v>
-      </c>
-      <c r="L200" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.7">
@@ -15340,10 +15369,10 @@
         <v>29</v>
       </c>
       <c r="K201" t="s">
+        <v>14</v>
+      </c>
+      <c r="L201" t="s">
         <v>13</v>
-      </c>
-      <c r="L201" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.7">
@@ -15378,10 +15407,10 @@
         <v>43</v>
       </c>
       <c r="K202" t="s">
+        <v>17</v>
+      </c>
+      <c r="L202" t="s">
         <v>16</v>
-      </c>
-      <c r="L202" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.7">
@@ -15416,10 +15445,10 @@
         <v>30</v>
       </c>
       <c r="K203" t="s">
+        <v>22</v>
+      </c>
+      <c r="L203" t="s">
         <v>13</v>
-      </c>
-      <c r="L203" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.7">
@@ -15454,10 +15483,10 @@
         <v>57</v>
       </c>
       <c r="K204" t="s">
+        <v>24</v>
+      </c>
+      <c r="L204" t="s">
         <v>13</v>
-      </c>
-      <c r="L204" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.7">
@@ -15492,10 +15521,10 @@
         <v>35</v>
       </c>
       <c r="K205" t="s">
+        <v>20</v>
+      </c>
+      <c r="L205" t="s">
         <v>16</v>
-      </c>
-      <c r="L205" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.7">
@@ -15530,10 +15559,10 @@
         <v>42</v>
       </c>
       <c r="K206" t="s">
+        <v>24</v>
+      </c>
+      <c r="L206" t="s">
         <v>16</v>
-      </c>
-      <c r="L206" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.7">
@@ -15568,10 +15597,10 @@
         <v>50</v>
       </c>
       <c r="K207" t="s">
+        <v>24</v>
+      </c>
+      <c r="L207" t="s">
         <v>13</v>
-      </c>
-      <c r="L207" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.7">
@@ -15606,10 +15635,10 @@
         <v>64</v>
       </c>
       <c r="K208" t="s">
+        <v>14</v>
+      </c>
+      <c r="L208" t="s">
         <v>16</v>
-      </c>
-      <c r="L208" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.7">
@@ -15644,10 +15673,10 @@
         <v>57</v>
       </c>
       <c r="K209" t="s">
+        <v>17</v>
+      </c>
+      <c r="L209" t="s">
         <v>16</v>
-      </c>
-      <c r="L209" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.7">
@@ -15682,10 +15711,10 @@
         <v>60</v>
       </c>
       <c r="K210" t="s">
+        <v>20</v>
+      </c>
+      <c r="L210" t="s">
         <v>16</v>
-      </c>
-      <c r="L210" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.7">
@@ -15720,10 +15749,10 @@
         <v>29</v>
       </c>
       <c r="K211" t="s">
+        <v>30</v>
+      </c>
+      <c r="L211" t="s">
         <v>16</v>
-      </c>
-      <c r="L211" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.7">
@@ -15758,10 +15787,10 @@
         <v>61</v>
       </c>
       <c r="K212" t="s">
+        <v>30</v>
+      </c>
+      <c r="L212" t="s">
         <v>16</v>
-      </c>
-      <c r="L212" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.7">
@@ -15796,10 +15825,10 @@
         <v>53</v>
       </c>
       <c r="K213" t="s">
+        <v>24</v>
+      </c>
+      <c r="L213" t="s">
         <v>13</v>
-      </c>
-      <c r="L213" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.7">
@@ -15834,10 +15863,10 @@
         <v>21</v>
       </c>
       <c r="K214" t="s">
+        <v>14</v>
+      </c>
+      <c r="L214" t="s">
         <v>13</v>
-      </c>
-      <c r="L214" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.7">
@@ -15872,10 +15901,10 @@
         <v>22</v>
       </c>
       <c r="K215" t="s">
+        <v>14</v>
+      </c>
+      <c r="L215" t="s">
         <v>16</v>
-      </c>
-      <c r="L215" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.7">
@@ -15910,10 +15939,10 @@
         <v>54</v>
       </c>
       <c r="K216" t="s">
+        <v>30</v>
+      </c>
+      <c r="L216" t="s">
         <v>16</v>
-      </c>
-      <c r="L216" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.7">
@@ -15948,10 +15977,10 @@
         <v>25</v>
       </c>
       <c r="K217" t="s">
+        <v>20</v>
+      </c>
+      <c r="L217" t="s">
         <v>16</v>
-      </c>
-      <c r="L217" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.7">
@@ -15986,10 +16015,10 @@
         <v>59</v>
       </c>
       <c r="K218" t="s">
+        <v>17</v>
+      </c>
+      <c r="L218" t="s">
         <v>13</v>
-      </c>
-      <c r="L218" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.7">
@@ -16024,10 +16053,10 @@
         <v>45</v>
       </c>
       <c r="K219" t="s">
+        <v>20</v>
+      </c>
+      <c r="L219" t="s">
         <v>16</v>
-      </c>
-      <c r="L219" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.7">
@@ -16062,10 +16091,10 @@
         <v>48</v>
       </c>
       <c r="K220" t="s">
+        <v>22</v>
+      </c>
+      <c r="L220" t="s">
         <v>13</v>
-      </c>
-      <c r="L220" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.7">
@@ -16100,10 +16129,10 @@
         <v>26</v>
       </c>
       <c r="K221" t="s">
+        <v>22</v>
+      </c>
+      <c r="L221" t="s">
         <v>13</v>
-      </c>
-      <c r="L221" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.7">
@@ -16138,10 +16167,10 @@
         <v>46</v>
       </c>
       <c r="K222" t="s">
+        <v>17</v>
+      </c>
+      <c r="L222" t="s">
         <v>13</v>
-      </c>
-      <c r="L222" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.7">
@@ -16176,10 +16205,10 @@
         <v>31</v>
       </c>
       <c r="K223" t="s">
+        <v>30</v>
+      </c>
+      <c r="L223" t="s">
         <v>16</v>
-      </c>
-      <c r="L223" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.7">
@@ -16214,10 +16243,10 @@
         <v>57</v>
       </c>
       <c r="K224" t="s">
+        <v>17</v>
+      </c>
+      <c r="L224" t="s">
         <v>13</v>
-      </c>
-      <c r="L224" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.7">
@@ -16252,10 +16281,10 @@
         <v>58</v>
       </c>
       <c r="K225" t="s">
+        <v>14</v>
+      </c>
+      <c r="L225" t="s">
         <v>16</v>
-      </c>
-      <c r="L225" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.7">
@@ -16290,10 +16319,10 @@
         <v>39</v>
       </c>
       <c r="K226" t="s">
+        <v>22</v>
+      </c>
+      <c r="L226" t="s">
         <v>13</v>
-      </c>
-      <c r="L226" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.7">
@@ -16328,10 +16357,10 @@
         <v>28</v>
       </c>
       <c r="K227" t="s">
+        <v>24</v>
+      </c>
+      <c r="L227" t="s">
         <v>16</v>
-      </c>
-      <c r="L227" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.7">
@@ -16366,10 +16395,10 @@
         <v>40</v>
       </c>
       <c r="K228" t="s">
+        <v>24</v>
+      </c>
+      <c r="L228" t="s">
         <v>13</v>
-      </c>
-      <c r="L228" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.7">
@@ -16404,10 +16433,10 @@
         <v>18</v>
       </c>
       <c r="K229" t="s">
+        <v>30</v>
+      </c>
+      <c r="L229" t="s">
         <v>16</v>
-      </c>
-      <c r="L229" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.7">
@@ -16442,10 +16471,10 @@
         <v>63</v>
       </c>
       <c r="K230" t="s">
+        <v>14</v>
+      </c>
+      <c r="L230" t="s">
         <v>13</v>
-      </c>
-      <c r="L230" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.7">
@@ -16480,10 +16509,10 @@
         <v>54</v>
       </c>
       <c r="K231" t="s">
+        <v>20</v>
+      </c>
+      <c r="L231" t="s">
         <v>16</v>
-      </c>
-      <c r="L231" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.7">
@@ -16518,10 +16547,10 @@
         <v>38</v>
       </c>
       <c r="K232" t="s">
+        <v>14</v>
+      </c>
+      <c r="L232" t="s">
         <v>16</v>
-      </c>
-      <c r="L232" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.7">
@@ -16556,10 +16585,10 @@
         <v>43</v>
       </c>
       <c r="K233" t="s">
+        <v>24</v>
+      </c>
+      <c r="L233" t="s">
         <v>16</v>
-      </c>
-      <c r="L233" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.7">
@@ -16594,10 +16623,10 @@
         <v>63</v>
       </c>
       <c r="K234" t="s">
+        <v>24</v>
+      </c>
+      <c r="L234" t="s">
         <v>16</v>
-      </c>
-      <c r="L234" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.7">
@@ -16632,10 +16661,10 @@
         <v>53</v>
       </c>
       <c r="K235" t="s">
+        <v>22</v>
+      </c>
+      <c r="L235" t="s">
         <v>13</v>
-      </c>
-      <c r="L235" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.7">
@@ -16670,10 +16699,10 @@
         <v>40</v>
       </c>
       <c r="K236" t="s">
+        <v>14</v>
+      </c>
+      <c r="L236" t="s">
         <v>13</v>
-      </c>
-      <c r="L236" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.7">
@@ -16708,10 +16737,10 @@
         <v>18</v>
       </c>
       <c r="K237" t="s">
+        <v>14</v>
+      </c>
+      <c r="L237" t="s">
         <v>16</v>
-      </c>
-      <c r="L237" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.7">
@@ -16746,10 +16775,10 @@
         <v>57</v>
       </c>
       <c r="K238" t="s">
+        <v>24</v>
+      </c>
+      <c r="L238" t="s">
         <v>13</v>
-      </c>
-      <c r="L238" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.7">
@@ -16784,10 +16813,10 @@
         <v>32</v>
       </c>
       <c r="K239" t="s">
+        <v>20</v>
+      </c>
+      <c r="L239" t="s">
         <v>16</v>
-      </c>
-      <c r="L239" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.7">
@@ -16822,10 +16851,10 @@
         <v>38</v>
       </c>
       <c r="K240" t="s">
+        <v>30</v>
+      </c>
+      <c r="L240" t="s">
         <v>16</v>
-      </c>
-      <c r="L240" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.7">
@@ -16860,10 +16889,10 @@
         <v>64</v>
       </c>
       <c r="K241" t="s">
+        <v>30</v>
+      </c>
+      <c r="L241" t="s">
         <v>13</v>
-      </c>
-      <c r="L241" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.7">
@@ -16898,10 +16927,10 @@
         <v>26</v>
       </c>
       <c r="K242" t="s">
+        <v>14</v>
+      </c>
+      <c r="L242" t="s">
         <v>16</v>
-      </c>
-      <c r="L242" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.7">
@@ -16936,10 +16965,10 @@
         <v>26</v>
       </c>
       <c r="K243" t="s">
+        <v>30</v>
+      </c>
+      <c r="L243" t="s">
         <v>16</v>
-      </c>
-      <c r="L243" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.7">
@@ -16974,10 +17003,10 @@
         <v>27</v>
       </c>
       <c r="K244" t="s">
+        <v>24</v>
+      </c>
+      <c r="L244" t="s">
         <v>13</v>
-      </c>
-      <c r="L244" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.7">
@@ -17012,10 +17041,10 @@
         <v>43</v>
       </c>
       <c r="K245" t="s">
+        <v>24</v>
+      </c>
+      <c r="L245" t="s">
         <v>16</v>
-      </c>
-      <c r="L245" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.7">
@@ -17050,10 +17079,10 @@
         <v>58</v>
       </c>
       <c r="K246" t="s">
+        <v>14</v>
+      </c>
+      <c r="L246" t="s">
         <v>16</v>
-      </c>
-      <c r="L246" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.7">
@@ -17088,10 +17117,10 @@
         <v>52</v>
       </c>
       <c r="K247" t="s">
+        <v>14</v>
+      </c>
+      <c r="L247" t="s">
         <v>16</v>
-      </c>
-      <c r="L247" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.7">
@@ -17126,10 +17155,10 @@
         <v>42</v>
       </c>
       <c r="K248" t="s">
+        <v>22</v>
+      </c>
+      <c r="L248" t="s">
         <v>16</v>
-      </c>
-      <c r="L248" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.7">
@@ -17164,10 +17193,10 @@
         <v>43</v>
       </c>
       <c r="K249" t="s">
+        <v>14</v>
+      </c>
+      <c r="L249" t="s">
         <v>13</v>
-      </c>
-      <c r="L249" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.7">
@@ -17202,10 +17231,10 @@
         <v>28</v>
       </c>
       <c r="K250" t="s">
+        <v>20</v>
+      </c>
+      <c r="L250" t="s">
         <v>13</v>
-      </c>
-      <c r="L250" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.7">
@@ -17240,10 +17269,10 @@
         <v>55</v>
       </c>
       <c r="K251" t="s">
+        <v>30</v>
+      </c>
+      <c r="L251" t="s">
         <v>13</v>
-      </c>
-      <c r="L251" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.7">
@@ -17278,10 +17307,10 @@
         <v>19</v>
       </c>
       <c r="K252" t="s">
+        <v>14</v>
+      </c>
+      <c r="L252" t="s">
         <v>16</v>
-      </c>
-      <c r="L252" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.7">
@@ -17316,10 +17345,10 @@
         <v>24</v>
       </c>
       <c r="K253" t="s">
+        <v>17</v>
+      </c>
+      <c r="L253" t="s">
         <v>16</v>
-      </c>
-      <c r="L253" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.7">
@@ -17354,10 +17383,10 @@
         <v>35</v>
       </c>
       <c r="K254" t="s">
+        <v>22</v>
+      </c>
+      <c r="L254" t="s">
         <v>13</v>
-      </c>
-      <c r="L254" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.7">
@@ -17392,10 +17421,10 @@
         <v>44</v>
       </c>
       <c r="K255" t="s">
+        <v>17</v>
+      </c>
+      <c r="L255" t="s">
         <v>16</v>
-      </c>
-      <c r="L255" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.7">
@@ -17430,10 +17459,10 @@
         <v>51</v>
       </c>
       <c r="K256" t="s">
+        <v>24</v>
+      </c>
+      <c r="L256" t="s">
         <v>16</v>
-      </c>
-      <c r="L256" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.7">
@@ -17468,10 +17497,10 @@
         <v>44</v>
       </c>
       <c r="K257" t="s">
+        <v>30</v>
+      </c>
+      <c r="L257" t="s">
         <v>16</v>
-      </c>
-      <c r="L257" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.7">
@@ -17506,10 +17535,10 @@
         <v>34</v>
       </c>
       <c r="K258" t="s">
+        <v>14</v>
+      </c>
+      <c r="L258" t="s">
         <v>16</v>
-      </c>
-      <c r="L258" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.7">
@@ -17544,10 +17573,10 @@
         <v>60</v>
       </c>
       <c r="K259" t="s">
+        <v>17</v>
+      </c>
+      <c r="L259" t="s">
         <v>13</v>
-      </c>
-      <c r="L259" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.7">
@@ -17582,10 +17611,10 @@
         <v>61</v>
       </c>
       <c r="K260" t="s">
+        <v>30</v>
+      </c>
+      <c r="L260" t="s">
         <v>13</v>
-      </c>
-      <c r="L260" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.7">
@@ -17620,10 +17649,10 @@
         <v>41</v>
       </c>
       <c r="K261" t="s">
+        <v>24</v>
+      </c>
+      <c r="L261" t="s">
         <v>13</v>
-      </c>
-      <c r="L261" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.7">
@@ -17658,10 +17687,10 @@
         <v>42</v>
       </c>
       <c r="K262" t="s">
+        <v>20</v>
+      </c>
+      <c r="L262" t="s">
         <v>16</v>
-      </c>
-      <c r="L262" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.7">
@@ -17696,10 +17725,10 @@
         <v>24</v>
       </c>
       <c r="K263" t="s">
+        <v>22</v>
+      </c>
+      <c r="L263" t="s">
         <v>13</v>
-      </c>
-      <c r="L263" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.7">
@@ -17734,10 +17763,10 @@
         <v>23</v>
       </c>
       <c r="K264" t="s">
+        <v>30</v>
+      </c>
+      <c r="L264" t="s">
         <v>13</v>
-      </c>
-      <c r="L264" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.7">
@@ -17772,10 +17801,10 @@
         <v>41</v>
       </c>
       <c r="K265" t="s">
+        <v>30</v>
+      </c>
+      <c r="L265" t="s">
         <v>16</v>
-      </c>
-      <c r="L265" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.7">
@@ -17810,10 +17839,10 @@
         <v>50</v>
       </c>
       <c r="K266" t="s">
+        <v>20</v>
+      </c>
+      <c r="L266" t="s">
         <v>16</v>
-      </c>
-      <c r="L266" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.7">
@@ -17848,10 +17877,10 @@
         <v>46</v>
       </c>
       <c r="K267" t="s">
+        <v>30</v>
+      </c>
+      <c r="L267" t="s">
         <v>13</v>
-      </c>
-      <c r="L267" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.7">
@@ -17886,10 +17915,10 @@
         <v>60</v>
       </c>
       <c r="K268" t="s">
+        <v>24</v>
+      </c>
+      <c r="L268" t="s">
         <v>13</v>
-      </c>
-      <c r="L268" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.7">
@@ -17924,10 +17953,10 @@
         <v>39</v>
       </c>
       <c r="K269" t="s">
+        <v>24</v>
+      </c>
+      <c r="L269" t="s">
         <v>13</v>
-      </c>
-      <c r="L269" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.7">
@@ -17962,10 +17991,10 @@
         <v>43</v>
       </c>
       <c r="K270" t="s">
+        <v>20</v>
+      </c>
+      <c r="L270" t="s">
         <v>13</v>
-      </c>
-      <c r="L270" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.7">
@@ -18000,10 +18029,10 @@
         <v>45</v>
       </c>
       <c r="K271" t="s">
+        <v>22</v>
+      </c>
+      <c r="L271" t="s">
         <v>16</v>
-      </c>
-      <c r="L271" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.7">
@@ -18038,10 +18067,10 @@
         <v>38</v>
       </c>
       <c r="K272" t="s">
+        <v>14</v>
+      </c>
+      <c r="L272" t="s">
         <v>13</v>
-      </c>
-      <c r="L272" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.7">
@@ -18076,10 +18105,10 @@
         <v>24</v>
       </c>
       <c r="K273" t="s">
+        <v>17</v>
+      </c>
+      <c r="L273" t="s">
         <v>13</v>
-      </c>
-      <c r="L273" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.7">
@@ -18114,10 +18143,10 @@
         <v>34</v>
       </c>
       <c r="K274" t="s">
+        <v>14</v>
+      </c>
+      <c r="L274" t="s">
         <v>16</v>
-      </c>
-      <c r="L274" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.7">
@@ -18152,10 +18181,10 @@
         <v>37</v>
       </c>
       <c r="K275" t="s">
+        <v>30</v>
+      </c>
+      <c r="L275" t="s">
         <v>13</v>
-      </c>
-      <c r="L275" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.7">
@@ -18190,10 +18219,10 @@
         <v>58</v>
       </c>
       <c r="K276" t="s">
+        <v>17</v>
+      </c>
+      <c r="L276" t="s">
         <v>16</v>
-      </c>
-      <c r="L276" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.7">
@@ -18228,10 +18257,10 @@
         <v>37</v>
       </c>
       <c r="K277" t="s">
+        <v>20</v>
+      </c>
+      <c r="L277" t="s">
         <v>16</v>
-      </c>
-      <c r="L277" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.7">
@@ -18266,10 +18295,10 @@
         <v>39</v>
       </c>
       <c r="K278" t="s">
+        <v>20</v>
+      </c>
+      <c r="L278" t="s">
         <v>16</v>
-      </c>
-      <c r="L278" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.7">
@@ -18304,10 +18333,10 @@
         <v>45</v>
       </c>
       <c r="K279" t="s">
+        <v>22</v>
+      </c>
+      <c r="L279" t="s">
         <v>13</v>
-      </c>
-      <c r="L279" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.7">
@@ -18342,10 +18371,10 @@
         <v>57</v>
       </c>
       <c r="K280" t="s">
+        <v>17</v>
+      </c>
+      <c r="L280" t="s">
         <v>13</v>
-      </c>
-      <c r="L280" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.7">
@@ -18380,10 +18409,10 @@
         <v>24</v>
       </c>
       <c r="K281" t="s">
+        <v>24</v>
+      </c>
+      <c r="L281" t="s">
         <v>16</v>
-      </c>
-      <c r="L281" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.7">
@@ -18418,10 +18447,10 @@
         <v>18</v>
       </c>
       <c r="K282" t="s">
+        <v>17</v>
+      </c>
+      <c r="L282" t="s">
         <v>13</v>
-      </c>
-      <c r="L282" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.7">
@@ -18456,10 +18485,10 @@
         <v>49</v>
       </c>
       <c r="K283" t="s">
+        <v>30</v>
+      </c>
+      <c r="L283" t="s">
         <v>13</v>
-      </c>
-      <c r="L283" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.7">
@@ -18494,10 +18523,10 @@
         <v>30</v>
       </c>
       <c r="K284" t="s">
+        <v>24</v>
+      </c>
+      <c r="L284" t="s">
         <v>16</v>
-      </c>
-      <c r="L284" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.7">
@@ -18532,10 +18561,10 @@
         <v>47</v>
       </c>
       <c r="K285" t="s">
+        <v>20</v>
+      </c>
+      <c r="L285" t="s">
         <v>16</v>
-      </c>
-      <c r="L285" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.7">
@@ -18570,10 +18599,10 @@
         <v>40</v>
       </c>
       <c r="K286" t="s">
+        <v>17</v>
+      </c>
+      <c r="L286" t="s">
         <v>13</v>
-      </c>
-      <c r="L286" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.7">
@@ -18608,10 +18637,10 @@
         <v>36</v>
       </c>
       <c r="K287" t="s">
+        <v>14</v>
+      </c>
+      <c r="L287" t="s">
         <v>16</v>
-      </c>
-      <c r="L287" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.7">
@@ -18646,10 +18675,10 @@
         <v>49</v>
       </c>
       <c r="K288" t="s">
+        <v>22</v>
+      </c>
+      <c r="L288" t="s">
         <v>13</v>
-      </c>
-      <c r="L288" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.7">
@@ -18684,10 +18713,10 @@
         <v>47</v>
       </c>
       <c r="K289" t="s">
+        <v>14</v>
+      </c>
+      <c r="L289" t="s">
         <v>13</v>
-      </c>
-      <c r="L289" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.7">
@@ -18722,10 +18751,10 @@
         <v>46</v>
       </c>
       <c r="K290" t="s">
+        <v>22</v>
+      </c>
+      <c r="L290" t="s">
         <v>13</v>
-      </c>
-      <c r="L290" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.7">
@@ -18760,10 +18789,10 @@
         <v>62</v>
       </c>
       <c r="K291" t="s">
+        <v>30</v>
+      </c>
+      <c r="L291" t="s">
         <v>13</v>
-      </c>
-      <c r="L291" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.7">
@@ -18798,10 +18827,10 @@
         <v>46</v>
       </c>
       <c r="K292" t="s">
+        <v>14</v>
+      </c>
+      <c r="L292" t="s">
         <v>16</v>
-      </c>
-      <c r="L292" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.7">
@@ -18836,10 +18865,10 @@
         <v>47</v>
       </c>
       <c r="K293" t="s">
+        <v>17</v>
+      </c>
+      <c r="L293" t="s">
         <v>16</v>
-      </c>
-      <c r="L293" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.7">
@@ -18874,10 +18903,10 @@
         <v>33</v>
       </c>
       <c r="K294" t="s">
+        <v>17</v>
+      </c>
+      <c r="L294" t="s">
         <v>16</v>
-      </c>
-      <c r="L294" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.7">
@@ -18912,10 +18941,10 @@
         <v>57</v>
       </c>
       <c r="K295" t="s">
+        <v>14</v>
+      </c>
+      <c r="L295" t="s">
         <v>16</v>
-      </c>
-      <c r="L295" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.7">
@@ -18950,10 +18979,10 @@
         <v>36</v>
       </c>
       <c r="K296" t="s">
+        <v>17</v>
+      </c>
+      <c r="L296" t="s">
         <v>13</v>
-      </c>
-      <c r="L296" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.7">
@@ -18988,10 +19017,10 @@
         <v>35</v>
       </c>
       <c r="K297" t="s">
+        <v>30</v>
+      </c>
+      <c r="L297" t="s">
         <v>13</v>
-      </c>
-      <c r="L297" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.7">
@@ -19026,10 +19055,10 @@
         <v>18</v>
       </c>
       <c r="K298" t="s">
+        <v>24</v>
+      </c>
+      <c r="L298" t="s">
         <v>16</v>
-      </c>
-      <c r="L298" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.7">
@@ -19064,10 +19093,10 @@
         <v>31</v>
       </c>
       <c r="K299" t="s">
+        <v>30</v>
+      </c>
+      <c r="L299" t="s">
         <v>13</v>
-      </c>
-      <c r="L299" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.7">
@@ -19102,10 +19131,10 @@
         <v>64</v>
       </c>
       <c r="K300" t="s">
+        <v>22</v>
+      </c>
+      <c r="L300" t="s">
         <v>13</v>
-      </c>
-      <c r="L300" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.7">
@@ -19140,10 +19169,10 @@
         <v>19</v>
       </c>
       <c r="K301" t="s">
+        <v>30</v>
+      </c>
+      <c r="L301" t="s">
         <v>13</v>
-      </c>
-      <c r="L301" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.7">
@@ -19178,10 +19207,10 @@
         <v>45</v>
       </c>
       <c r="K302" t="s">
+        <v>22</v>
+      </c>
+      <c r="L302" t="s">
         <v>16</v>
-      </c>
-      <c r="L302" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.7">
@@ -19216,10 +19245,10 @@
         <v>47</v>
       </c>
       <c r="K303" t="s">
+        <v>17</v>
+      </c>
+      <c r="L303" t="s">
         <v>16</v>
-      </c>
-      <c r="L303" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.7">
@@ -19254,10 +19283,10 @@
         <v>55</v>
       </c>
       <c r="K304" t="s">
+        <v>24</v>
+      </c>
+      <c r="L304" t="s">
         <v>16</v>
-      </c>
-      <c r="L304" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.7">
@@ -19292,10 +19321,10 @@
         <v>21</v>
       </c>
       <c r="K305" t="s">
+        <v>17</v>
+      </c>
+      <c r="L305" t="s">
         <v>13</v>
-      </c>
-      <c r="L305" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.7">
@@ -19330,10 +19359,10 @@
         <v>18</v>
       </c>
       <c r="K306" t="s">
+        <v>20</v>
+      </c>
+      <c r="L306" t="s">
         <v>16</v>
-      </c>
-      <c r="L306" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.7">
@@ -19368,10 +19397,10 @@
         <v>25</v>
       </c>
       <c r="K307" t="s">
+        <v>17</v>
+      </c>
+      <c r="L307" t="s">
         <v>16</v>
-      </c>
-      <c r="L307" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.7">
@@ -19406,10 +19435,10 @@
         <v>46</v>
       </c>
       <c r="K308" t="s">
+        <v>22</v>
+      </c>
+      <c r="L308" t="s">
         <v>16</v>
-      </c>
-      <c r="L308" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.7">
@@ -19444,10 +19473,10 @@
         <v>56</v>
       </c>
       <c r="K309" t="s">
+        <v>17</v>
+      </c>
+      <c r="L309" t="s">
         <v>16</v>
-      </c>
-      <c r="L309" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.7">
@@ -19482,10 +19511,10 @@
         <v>20</v>
       </c>
       <c r="K310" t="s">
+        <v>17</v>
+      </c>
+      <c r="L310" t="s">
         <v>16</v>
-      </c>
-      <c r="L310" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.7">
@@ -19520,10 +19549,10 @@
         <v>49</v>
       </c>
       <c r="K311" t="s">
+        <v>24</v>
+      </c>
+      <c r="L311" t="s">
         <v>16</v>
-      </c>
-      <c r="L311" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.7">
@@ -19558,10 +19587,10 @@
         <v>27</v>
       </c>
       <c r="K312" t="s">
+        <v>17</v>
+      </c>
+      <c r="L312" t="s">
         <v>13</v>
-      </c>
-      <c r="L312" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.7">
@@ -19596,10 +19625,10 @@
         <v>27</v>
       </c>
       <c r="K313" t="s">
+        <v>24</v>
+      </c>
+      <c r="L313" t="s">
         <v>13</v>
-      </c>
-      <c r="L313" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.7">
@@ -19634,10 +19663,10 @@
         <v>36</v>
       </c>
       <c r="K314" t="s">
+        <v>14</v>
+      </c>
+      <c r="L314" t="s">
         <v>16</v>
-      </c>
-      <c r="L314" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.7">
@@ -19672,10 +19701,10 @@
         <v>63</v>
       </c>
       <c r="K315" t="s">
+        <v>20</v>
+      </c>
+      <c r="L315" t="s">
         <v>16</v>
-      </c>
-      <c r="L315" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.7">
@@ -19710,10 +19739,10 @@
         <v>51</v>
       </c>
       <c r="K316" t="s">
+        <v>24</v>
+      </c>
+      <c r="L316" t="s">
         <v>13</v>
-      </c>
-      <c r="L316" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.7">
@@ -19748,10 +19777,10 @@
         <v>50</v>
       </c>
       <c r="K317" t="s">
+        <v>22</v>
+      </c>
+      <c r="L317" t="s">
         <v>13</v>
-      </c>
-      <c r="L317" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.7">
@@ -19786,10 +19815,10 @@
         <v>40</v>
       </c>
       <c r="K318" t="s">
+        <v>14</v>
+      </c>
+      <c r="L318" t="s">
         <v>16</v>
-      </c>
-      <c r="L318" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.7">
@@ -19824,10 +19853,10 @@
         <v>45</v>
       </c>
       <c r="K319" t="s">
+        <v>24</v>
+      </c>
+      <c r="L319" t="s">
         <v>16</v>
-      </c>
-      <c r="L319" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.7">
@@ -19862,10 +19891,10 @@
         <v>49</v>
       </c>
       <c r="K320" t="s">
+        <v>24</v>
+      </c>
+      <c r="L320" t="s">
         <v>16</v>
-      </c>
-      <c r="L320" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.7">
@@ -19900,10 +19929,10 @@
         <v>24</v>
       </c>
       <c r="K321" t="s">
+        <v>20</v>
+      </c>
+      <c r="L321" t="s">
         <v>16</v>
-      </c>
-      <c r="L321" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.7">
@@ -19938,10 +19967,10 @@
         <v>46</v>
       </c>
       <c r="K322" t="s">
+        <v>22</v>
+      </c>
+      <c r="L322" t="s">
         <v>13</v>
-      </c>
-      <c r="L322" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.7">
@@ -19976,10 +20005,10 @@
         <v>25</v>
       </c>
       <c r="K323" t="s">
+        <v>30</v>
+      </c>
+      <c r="L323" t="s">
         <v>16</v>
-      </c>
-      <c r="L323" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.7">
@@ -20014,10 +20043,10 @@
         <v>18</v>
       </c>
       <c r="K324" t="s">
+        <v>30</v>
+      </c>
+      <c r="L324" t="s">
         <v>16</v>
-      </c>
-      <c r="L324" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.7">
@@ -20052,10 +20081,10 @@
         <v>20</v>
       </c>
       <c r="K325" t="s">
+        <v>24</v>
+      </c>
+      <c r="L325" t="s">
         <v>16</v>
-      </c>
-      <c r="L325" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.7">
@@ -20090,10 +20119,10 @@
         <v>41</v>
       </c>
       <c r="K326" t="s">
+        <v>17</v>
+      </c>
+      <c r="L326" t="s">
         <v>16</v>
-      </c>
-      <c r="L326" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.7">
@@ -20128,10 +20157,10 @@
         <v>40</v>
       </c>
       <c r="K327" t="s">
+        <v>22</v>
+      </c>
+      <c r="L327" t="s">
         <v>13</v>
-      </c>
-      <c r="L327" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.7">
@@ -20166,10 +20195,10 @@
         <v>25</v>
       </c>
       <c r="K328" t="s">
+        <v>14</v>
+      </c>
+      <c r="L328" t="s">
         <v>13</v>
-      </c>
-      <c r="L328" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.7">
@@ -20204,10 +20233,10 @@
         <v>64</v>
       </c>
       <c r="K329" t="s">
+        <v>17</v>
+      </c>
+      <c r="L329" t="s">
         <v>13</v>
-      </c>
-      <c r="L329" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.7">
@@ -20242,10 +20271,10 @@
         <v>54</v>
       </c>
       <c r="K330" t="s">
+        <v>17</v>
+      </c>
+      <c r="L330" t="s">
         <v>16</v>
-      </c>
-      <c r="L330" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.7">
@@ -20280,10 +20309,10 @@
         <v>20</v>
       </c>
       <c r="K331" t="s">
+        <v>22</v>
+      </c>
+      <c r="L331" t="s">
         <v>16</v>
-      </c>
-      <c r="L331" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.7">
@@ -20318,10 +20347,10 @@
         <v>50</v>
       </c>
       <c r="K332" t="s">
+        <v>24</v>
+      </c>
+      <c r="L332" t="s">
         <v>13</v>
-      </c>
-      <c r="L332" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.7">
@@ -20356,10 +20385,10 @@
         <v>45</v>
       </c>
       <c r="K333" t="s">
+        <v>24</v>
+      </c>
+      <c r="L333" t="s">
         <v>16</v>
-      </c>
-      <c r="L333" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.7">
@@ -20394,10 +20423,10 @@
         <v>64</v>
       </c>
       <c r="K334" t="s">
+        <v>24</v>
+      </c>
+      <c r="L334" t="s">
         <v>16</v>
-      </c>
-      <c r="L334" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.7">
@@ -20432,10 +20461,10 @@
         <v>25</v>
       </c>
       <c r="K335" t="s">
+        <v>24</v>
+      </c>
+      <c r="L335" t="s">
         <v>13</v>
-      </c>
-      <c r="L335" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.7">
@@ -20470,10 +20499,10 @@
         <v>51</v>
       </c>
       <c r="K336" t="s">
+        <v>30</v>
+      </c>
+      <c r="L336" t="s">
         <v>13</v>
-      </c>
-      <c r="L336" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.7">
@@ -20508,10 +20537,10 @@
         <v>52</v>
       </c>
       <c r="K337" t="s">
+        <v>24</v>
+      </c>
+      <c r="L337" t="s">
         <v>13</v>
-      </c>
-      <c r="L337" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.7">
@@ -20546,10 +20575,10 @@
         <v>49</v>
       </c>
       <c r="K338" t="s">
+        <v>30</v>
+      </c>
+      <c r="L338" t="s">
         <v>13</v>
-      </c>
-      <c r="L338" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.7">
@@ -20584,10 +20613,10 @@
         <v>41</v>
       </c>
       <c r="K339" t="s">
+        <v>30</v>
+      </c>
+      <c r="L339" t="s">
         <v>16</v>
-      </c>
-      <c r="L339" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.7">
@@ -20622,10 +20651,10 @@
         <v>31</v>
       </c>
       <c r="K340" t="s">
+        <v>24</v>
+      </c>
+      <c r="L340" t="s">
         <v>16</v>
-      </c>
-      <c r="L340" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.7">
@@ -20660,10 +20689,10 @@
         <v>49</v>
       </c>
       <c r="K341" t="s">
+        <v>20</v>
+      </c>
+      <c r="L341" t="s">
         <v>13</v>
-      </c>
-      <c r="L341" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.7">
@@ -20698,10 +20727,10 @@
         <v>63</v>
       </c>
       <c r="K342" t="s">
+        <v>14</v>
+      </c>
+      <c r="L342" t="s">
         <v>16</v>
-      </c>
-      <c r="L342" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.7">
@@ -20736,10 +20765,10 @@
         <v>60</v>
       </c>
       <c r="K343" t="s">
+        <v>17</v>
+      </c>
+      <c r="L343" t="s">
         <v>13</v>
-      </c>
-      <c r="L343" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.7">
@@ -20774,10 +20803,10 @@
         <v>33</v>
       </c>
       <c r="K344" t="s">
+        <v>30</v>
+      </c>
+      <c r="L344" t="s">
         <v>13</v>
-      </c>
-      <c r="L344" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.7">
@@ -20812,10 +20841,10 @@
         <v>21</v>
       </c>
       <c r="K345" t="s">
+        <v>22</v>
+      </c>
+      <c r="L345" t="s">
         <v>16</v>
-      </c>
-      <c r="L345" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.7">
@@ -20850,10 +20879,10 @@
         <v>54</v>
       </c>
       <c r="K346" t="s">
+        <v>22</v>
+      </c>
+      <c r="L346" t="s">
         <v>13</v>
-      </c>
-      <c r="L346" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.7">
@@ -20888,10 +20917,10 @@
         <v>38</v>
       </c>
       <c r="K347" t="s">
+        <v>14</v>
+      </c>
+      <c r="L347" t="s">
         <v>16</v>
-      </c>
-      <c r="L347" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.7">
@@ -20926,10 +20955,10 @@
         <v>31</v>
       </c>
       <c r="K348" t="s">
+        <v>22</v>
+      </c>
+      <c r="L348" t="s">
         <v>16</v>
-      </c>
-      <c r="L348" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.7">
@@ -20964,10 +20993,10 @@
         <v>48</v>
       </c>
       <c r="K349" t="s">
+        <v>20</v>
+      </c>
+      <c r="L349" t="s">
         <v>16</v>
-      </c>
-      <c r="L349" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.7">
@@ -21002,10 +21031,10 @@
         <v>35</v>
       </c>
       <c r="K350" t="s">
+        <v>22</v>
+      </c>
+      <c r="L350" t="s">
         <v>16</v>
-      </c>
-      <c r="L350" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.7">
@@ -21040,10 +21069,10 @@
         <v>24</v>
       </c>
       <c r="K351" t="s">
+        <v>17</v>
+      </c>
+      <c r="L351" t="s">
         <v>13</v>
-      </c>
-      <c r="L351" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.7">
@@ -21078,10 +21107,10 @@
         <v>27</v>
       </c>
       <c r="K352" t="s">
+        <v>17</v>
+      </c>
+      <c r="L352" t="s">
         <v>16</v>
-      </c>
-      <c r="L352" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.7">
@@ -21116,10 +21145,10 @@
         <v>24</v>
       </c>
       <c r="K353" t="s">
+        <v>30</v>
+      </c>
+      <c r="L353" t="s">
         <v>13</v>
-      </c>
-      <c r="L353" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.7">
@@ -21154,10 +21183,10 @@
         <v>50</v>
       </c>
       <c r="K354" t="s">
+        <v>24</v>
+      </c>
+      <c r="L354" t="s">
         <v>13</v>
-      </c>
-      <c r="L354" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.7">
@@ -21192,10 +21221,10 @@
         <v>40</v>
       </c>
       <c r="K355" t="s">
+        <v>20</v>
+      </c>
+      <c r="L355" t="s">
         <v>13</v>
-      </c>
-      <c r="L355" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.7">
@@ -21230,10 +21259,10 @@
         <v>38</v>
       </c>
       <c r="K356" t="s">
+        <v>30</v>
+      </c>
+      <c r="L356" t="s">
         <v>13</v>
-      </c>
-      <c r="L356" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.7">
@@ -21268,10 +21297,10 @@
         <v>36</v>
       </c>
       <c r="K357" t="s">
+        <v>20</v>
+      </c>
+      <c r="L357" t="s">
         <v>16</v>
-      </c>
-      <c r="L357" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.7">
@@ -21306,10 +21335,10 @@
         <v>36</v>
       </c>
       <c r="K358" t="s">
+        <v>24</v>
+      </c>
+      <c r="L358" t="s">
         <v>16</v>
-      </c>
-      <c r="L358" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.7">
@@ -21344,10 +21373,10 @@
         <v>53</v>
       </c>
       <c r="K359" t="s">
+        <v>22</v>
+      </c>
+      <c r="L359" t="s">
         <v>13</v>
-      </c>
-      <c r="L359" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.7">
@@ -21382,10 +21411,10 @@
         <v>46</v>
       </c>
       <c r="K360" t="s">
+        <v>22</v>
+      </c>
+      <c r="L360" t="s">
         <v>13</v>
-      </c>
-      <c r="L360" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.7">
@@ -21420,10 +21449,10 @@
         <v>35</v>
       </c>
       <c r="K361" t="s">
+        <v>24</v>
+      </c>
+      <c r="L361" t="s">
         <v>16</v>
-      </c>
-      <c r="L361" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.7">
@@ -21458,10 +21487,10 @@
         <v>19</v>
       </c>
       <c r="K362" t="s">
+        <v>30</v>
+      </c>
+      <c r="L362" t="s">
         <v>13</v>
-      </c>
-      <c r="L362" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.7">
@@ -21496,10 +21525,10 @@
         <v>18</v>
       </c>
       <c r="K363" t="s">
+        <v>24</v>
+      </c>
+      <c r="L363" t="s">
         <v>16</v>
-      </c>
-      <c r="L363" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.7">
@@ -21534,10 +21563,10 @@
         <v>64</v>
       </c>
       <c r="K364" t="s">
+        <v>14</v>
+      </c>
+      <c r="L364" t="s">
         <v>13</v>
-      </c>
-      <c r="L364" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.7">
@@ -21572,10 +21601,10 @@
         <v>22</v>
       </c>
       <c r="K365" t="s">
+        <v>17</v>
+      </c>
+      <c r="L365" t="s">
         <v>16</v>
-      </c>
-      <c r="L365" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.7">
@@ -21610,10 +21639,10 @@
         <v>37</v>
       </c>
       <c r="K366" t="s">
+        <v>30</v>
+      </c>
+      <c r="L366" t="s">
         <v>13</v>
-      </c>
-      <c r="L366" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.7">
@@ -21648,10 +21677,10 @@
         <v>28</v>
       </c>
       <c r="K367" t="s">
+        <v>20</v>
+      </c>
+      <c r="L367" t="s">
         <v>13</v>
-      </c>
-      <c r="L367" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.7">
@@ -21686,10 +21715,10 @@
         <v>59</v>
       </c>
       <c r="K368" t="s">
+        <v>14</v>
+      </c>
+      <c r="L368" t="s">
         <v>16</v>
-      </c>
-      <c r="L368" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.7">
@@ -21724,10 +21753,10 @@
         <v>19</v>
       </c>
       <c r="K369" t="s">
+        <v>30</v>
+      </c>
+      <c r="L369" t="s">
         <v>13</v>
-      </c>
-      <c r="L369" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.7">
@@ -21762,10 +21791,10 @@
         <v>20</v>
       </c>
       <c r="K370" t="s">
+        <v>24</v>
+      </c>
+      <c r="L370" t="s">
         <v>13</v>
-      </c>
-      <c r="L370" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.7">
@@ -21800,10 +21829,10 @@
         <v>40</v>
       </c>
       <c r="K371" t="s">
+        <v>24</v>
+      </c>
+      <c r="L371" t="s">
         <v>16</v>
-      </c>
-      <c r="L371" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.7">
@@ -21838,10 +21867,10 @@
         <v>29</v>
       </c>
       <c r="K372" t="s">
+        <v>24</v>
+      </c>
+      <c r="L372" t="s">
         <v>13</v>
-      </c>
-      <c r="L372" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.7">
@@ -21876,10 +21905,10 @@
         <v>37</v>
       </c>
       <c r="K373" t="s">
+        <v>24</v>
+      </c>
+      <c r="L373" t="s">
         <v>16</v>
-      </c>
-      <c r="L373" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.7">
@@ -21914,10 +21943,10 @@
         <v>22</v>
       </c>
       <c r="K374" t="s">
+        <v>20</v>
+      </c>
+      <c r="L374" t="s">
         <v>16</v>
-      </c>
-      <c r="L374" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.7">
@@ -21952,10 +21981,10 @@
         <v>54</v>
       </c>
       <c r="K375" t="s">
+        <v>14</v>
+      </c>
+      <c r="L375" t="s">
         <v>13</v>
-      </c>
-      <c r="L375" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.7">
@@ -21990,10 +22019,10 @@
         <v>55</v>
       </c>
       <c r="K376" t="s">
+        <v>22</v>
+      </c>
+      <c r="L376" t="s">
         <v>13</v>
-      </c>
-      <c r="L376" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.7">
@@ -22028,10 +22057,10 @@
         <v>47</v>
       </c>
       <c r="K377" t="s">
+        <v>17</v>
+      </c>
+      <c r="L377" t="s">
         <v>13</v>
-      </c>
-      <c r="L377" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.7">
@@ -22066,10 +22095,10 @@
         <v>26</v>
       </c>
       <c r="K378" t="s">
+        <v>20</v>
+      </c>
+      <c r="L378" t="s">
         <v>13</v>
-      </c>
-      <c r="L378" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.7">
@@ -22104,10 +22133,10 @@
         <v>51</v>
       </c>
       <c r="K379" t="s">
+        <v>20</v>
+      </c>
+      <c r="L379" t="s">
         <v>13</v>
-      </c>
-      <c r="L379" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.7">
@@ -22142,10 +22171,10 @@
         <v>61</v>
       </c>
       <c r="K380" t="s">
+        <v>22</v>
+      </c>
+      <c r="L380" t="s">
         <v>13</v>
-      </c>
-      <c r="L380" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.7">
@@ -22180,10 +22209,10 @@
         <v>52</v>
       </c>
       <c r="K381" t="s">
+        <v>22</v>
+      </c>
+      <c r="L381" t="s">
         <v>13</v>
-      </c>
-      <c r="L381" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.7">
@@ -22218,10 +22247,10 @@
         <v>39</v>
       </c>
       <c r="K382" t="s">
+        <v>17</v>
+      </c>
+      <c r="L382" t="s">
         <v>16</v>
-      </c>
-      <c r="L382" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.7">
@@ -22256,10 +22285,10 @@
         <v>61</v>
       </c>
       <c r="K383" t="s">
+        <v>17</v>
+      </c>
+      <c r="L383" t="s">
         <v>13</v>
-      </c>
-      <c r="L383" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.7">
@@ -22294,10 +22323,10 @@
         <v>41</v>
       </c>
       <c r="K384" t="s">
+        <v>22</v>
+      </c>
+      <c r="L384" t="s">
         <v>16</v>
-      </c>
-      <c r="L384" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.7">
@@ -22332,10 +22361,10 @@
         <v>34</v>
       </c>
       <c r="K385" t="s">
+        <v>24</v>
+      </c>
+      <c r="L385" t="s">
         <v>13</v>
-      </c>
-      <c r="L385" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.7">
@@ -22370,10 +22399,10 @@
         <v>27</v>
       </c>
       <c r="K386" t="s">
+        <v>20</v>
+      </c>
+      <c r="L386" t="s">
         <v>13</v>
-      </c>
-      <c r="L386" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.7">
@@ -22408,10 +22437,10 @@
         <v>47</v>
       </c>
       <c r="K387" t="s">
+        <v>30</v>
+      </c>
+      <c r="L387" t="s">
         <v>16</v>
-      </c>
-      <c r="L387" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.7">
@@ -22446,10 +22475,10 @@
         <v>63</v>
       </c>
       <c r="K388" t="s">
+        <v>17</v>
+      </c>
+      <c r="L388" t="s">
         <v>13</v>
-      </c>
-      <c r="L388" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.7">
@@ -22484,10 +22513,10 @@
         <v>40</v>
       </c>
       <c r="K389" t="s">
+        <v>17</v>
+      </c>
+      <c r="L389" t="s">
         <v>13</v>
-      </c>
-      <c r="L389" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.7">
@@ -22522,10 +22551,10 @@
         <v>49</v>
       </c>
       <c r="K390" t="s">
+        <v>22</v>
+      </c>
+      <c r="L390" t="s">
         <v>16</v>
-      </c>
-      <c r="L390" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.7">
@@ -22560,10 +22589,10 @@
         <v>34</v>
       </c>
       <c r="K391" t="s">
+        <v>14</v>
+      </c>
+      <c r="L391" t="s">
         <v>13</v>
-      </c>
-      <c r="L391" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.7">
@@ -22598,10 +22627,10 @@
         <v>34</v>
       </c>
       <c r="K392" t="s">
+        <v>30</v>
+      </c>
+      <c r="L392" t="s">
         <v>13</v>
-      </c>
-      <c r="L392" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.7">
@@ -22636,10 +22665,10 @@
         <v>31</v>
       </c>
       <c r="K393" t="s">
+        <v>30</v>
+      </c>
+      <c r="L393" t="s">
         <v>13</v>
-      </c>
-      <c r="L393" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.7">
@@ -22674,10 +22703,10 @@
         <v>26</v>
       </c>
       <c r="K394" t="s">
+        <v>17</v>
+      </c>
+      <c r="L394" t="s">
         <v>16</v>
-      </c>
-      <c r="L394" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.7">
@@ -22712,10 +22741,10 @@
         <v>57</v>
       </c>
       <c r="K395" t="s">
+        <v>24</v>
+      </c>
+      <c r="L395" t="s">
         <v>13</v>
-      </c>
-      <c r="L395" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.7">
@@ -22750,10 +22779,10 @@
         <v>19</v>
       </c>
       <c r="K396" t="s">
+        <v>14</v>
+      </c>
+      <c r="L396" t="s">
         <v>13</v>
-      </c>
-      <c r="L396" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.7">
@@ -22788,10 +22817,10 @@
         <v>62</v>
       </c>
       <c r="K397" t="s">
+        <v>30</v>
+      </c>
+      <c r="L397" t="s">
         <v>13</v>
-      </c>
-      <c r="L397" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.7">
@@ -22826,10 +22855,10 @@
         <v>42</v>
       </c>
       <c r="K398" t="s">
+        <v>17</v>
+      </c>
+      <c r="L398" t="s">
         <v>13</v>
-      </c>
-      <c r="L398" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.7">
@@ -22864,10 +22893,10 @@
         <v>56</v>
       </c>
       <c r="K399" t="s">
+        <v>30</v>
+      </c>
+      <c r="L399" t="s">
         <v>16</v>
-      </c>
-      <c r="L399" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.7">
@@ -22902,10 +22931,10 @@
         <v>26</v>
       </c>
       <c r="K400" t="s">
+        <v>14</v>
+      </c>
+      <c r="L400" t="s">
         <v>16</v>
-      </c>
-      <c r="L400" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.7">
@@ -22940,10 +22969,10 @@
         <v>39</v>
       </c>
       <c r="K401" t="s">
+        <v>14</v>
+      </c>
+      <c r="L401" t="s">
         <v>13</v>
-      </c>
-      <c r="L401" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.7">
@@ -22978,10 +23007,10 @@
         <v>60</v>
       </c>
       <c r="K402" t="s">
+        <v>20</v>
+      </c>
+      <c r="L402" t="s">
         <v>13</v>
-      </c>
-      <c r="L402" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.7">
@@ -23016,10 +23045,10 @@
         <v>63</v>
       </c>
       <c r="K403" t="s">
+        <v>22</v>
+      </c>
+      <c r="L403" t="s">
         <v>16</v>
-      </c>
-      <c r="L403" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.7">
@@ -23054,10 +23083,10 @@
         <v>21</v>
       </c>
       <c r="K404" t="s">
+        <v>22</v>
+      </c>
+      <c r="L404" t="s">
         <v>16</v>
-      </c>
-      <c r="L404" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.7">
@@ -23092,10 +23121,10 @@
         <v>43</v>
       </c>
       <c r="K405" t="s">
+        <v>17</v>
+      </c>
+      <c r="L405" t="s">
         <v>13</v>
-      </c>
-      <c r="L405" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.7">
@@ -23130,10 +23159,10 @@
         <v>46</v>
       </c>
       <c r="K406" t="s">
+        <v>14</v>
+      </c>
+      <c r="L406" t="s">
         <v>16</v>
-      </c>
-      <c r="L406" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.7">
@@ -23168,10 +23197,10 @@
         <v>62</v>
       </c>
       <c r="K407" t="s">
+        <v>20</v>
+      </c>
+      <c r="L407" t="s">
         <v>13</v>
-      </c>
-      <c r="L407" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.7">
@@ -23206,10 +23235,10 @@
         <v>51</v>
       </c>
       <c r="K408" t="s">
+        <v>20</v>
+      </c>
+      <c r="L408" t="s">
         <v>16</v>
-      </c>
-      <c r="L408" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.7">
@@ -23244,10 +23273,10 @@
         <v>40</v>
       </c>
       <c r="K409" t="s">
+        <v>30</v>
+      </c>
+      <c r="L409" t="s">
         <v>16</v>
-      </c>
-      <c r="L409" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.7">
@@ -23282,10 +23311,10 @@
         <v>54</v>
       </c>
       <c r="K410" t="s">
+        <v>30</v>
+      </c>
+      <c r="L410" t="s">
         <v>16</v>
-      </c>
-      <c r="L410" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.7">
@@ -23320,10 +23349,10 @@
         <v>28</v>
       </c>
       <c r="K411" t="s">
+        <v>20</v>
+      </c>
+      <c r="L411" t="s">
         <v>16</v>
-      </c>
-      <c r="L411" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.7">
@@ -23358,10 +23387,10 @@
         <v>23</v>
       </c>
       <c r="K412" t="s">
+        <v>30</v>
+      </c>
+      <c r="L412" t="s">
         <v>13</v>
-      </c>
-      <c r="L412" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.7">
@@ -23396,10 +23425,10 @@
         <v>35</v>
       </c>
       <c r="K413" t="s">
+        <v>14</v>
+      </c>
+      <c r="L413" t="s">
         <v>16</v>
-      </c>
-      <c r="L413" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.7">
@@ -23434,10 +23463,10 @@
         <v>38</v>
       </c>
       <c r="K414" t="s">
+        <v>24</v>
+      </c>
+      <c r="L414" t="s">
         <v>16</v>
-      </c>
-      <c r="L414" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.7">
@@ -23472,10 +23501,10 @@
         <v>59</v>
       </c>
       <c r="K415" t="s">
+        <v>14</v>
+      </c>
+      <c r="L415" t="s">
         <v>13</v>
-      </c>
-      <c r="L415" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.7">
@@ -23510,10 +23539,10 @@
         <v>53</v>
       </c>
       <c r="K416" t="s">
+        <v>20</v>
+      </c>
+      <c r="L416" t="s">
         <v>16</v>
-      </c>
-      <c r="L416" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.7">
@@ -23548,10 +23577,10 @@
         <v>58</v>
       </c>
       <c r="K417" t="s">
+        <v>20</v>
+      </c>
+      <c r="L417" t="s">
         <v>16</v>
-      </c>
-      <c r="L417" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.7">
@@ -23586,10 +23615,10 @@
         <v>55</v>
       </c>
       <c r="K418" t="s">
+        <v>14</v>
+      </c>
+      <c r="L418" t="s">
         <v>13</v>
-      </c>
-      <c r="L418" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.7">
@@ -23624,10 +23653,10 @@
         <v>51</v>
       </c>
       <c r="K419" t="s">
+        <v>30</v>
+      </c>
+      <c r="L419" t="s">
         <v>16</v>
-      </c>
-      <c r="L419" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.7">
@@ -23662,10 +23691,10 @@
         <v>34</v>
       </c>
       <c r="K420" t="s">
+        <v>30</v>
+      </c>
+      <c r="L420" t="s">
         <v>13</v>
-      </c>
-      <c r="L420" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.7">
@@ -23700,10 +23729,10 @@
         <v>54</v>
       </c>
       <c r="K421" t="s">
+        <v>22</v>
+      </c>
+      <c r="L421" t="s">
         <v>13</v>
-      </c>
-      <c r="L421" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.7">
@@ -23738,10 +23767,10 @@
         <v>42</v>
       </c>
       <c r="K422" t="s">
+        <v>20</v>
+      </c>
+      <c r="L422" t="s">
         <v>13</v>
-      </c>
-      <c r="L422" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.7">
@@ -23776,10 +23805,10 @@
         <v>55</v>
       </c>
       <c r="K423" t="s">
+        <v>17</v>
+      </c>
+      <c r="L423" t="s">
         <v>13</v>
-      </c>
-      <c r="L423" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.7">
@@ -23814,10 +23843,10 @@
         <v>29</v>
       </c>
       <c r="K424" t="s">
+        <v>22</v>
+      </c>
+      <c r="L424" t="s">
         <v>16</v>
-      </c>
-      <c r="L424" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.7">
@@ -23852,10 +23881,10 @@
         <v>40</v>
       </c>
       <c r="K425" t="s">
+        <v>30</v>
+      </c>
+      <c r="L425" t="s">
         <v>13</v>
-      </c>
-      <c r="L425" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.7">
@@ -23890,10 +23919,10 @@
         <v>59</v>
       </c>
       <c r="K426" t="s">
+        <v>14</v>
+      </c>
+      <c r="L426" t="s">
         <v>16</v>
-      </c>
-      <c r="L426" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.7">
@@ -23928,10 +23957,10 @@
         <v>39</v>
       </c>
       <c r="K427" t="s">
+        <v>30</v>
+      </c>
+      <c r="L427" t="s">
         <v>16</v>
-      </c>
-      <c r="L427" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.7">
@@ -23966,10 +23995,10 @@
         <v>38</v>
       </c>
       <c r="K428" t="s">
+        <v>14</v>
+      </c>
+      <c r="L428" t="s">
         <v>16</v>
-      </c>
-      <c r="L428" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.7">
@@ -24004,10 +24033,10 @@
         <v>44</v>
       </c>
       <c r="K429" t="s">
+        <v>22</v>
+      </c>
+      <c r="L429" t="s">
         <v>16</v>
-      </c>
-      <c r="L429" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.7">
@@ -24042,10 +24071,10 @@
         <v>48</v>
       </c>
       <c r="K430" t="s">
+        <v>20</v>
+      </c>
+      <c r="L430" t="s">
         <v>16</v>
-      </c>
-      <c r="L430" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.7">
@@ -24080,10 +24109,10 @@
         <v>23</v>
       </c>
       <c r="K431" t="s">
+        <v>30</v>
+      </c>
+      <c r="L431" t="s">
         <v>16</v>
-      </c>
-      <c r="L431" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.7">
@@ -24118,10 +24147,10 @@
         <v>44</v>
       </c>
       <c r="K432" t="s">
+        <v>14</v>
+      </c>
+      <c r="L432" t="s">
         <v>16</v>
-      </c>
-      <c r="L432" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.7">
@@ -24156,10 +24185,10 @@
         <v>57</v>
       </c>
       <c r="K433" t="s">
+        <v>20</v>
+      </c>
+      <c r="L433" t="s">
         <v>16</v>
-      </c>
-      <c r="L433" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.7">
@@ -24194,10 +24223,10 @@
         <v>51</v>
       </c>
       <c r="K434" t="s">
+        <v>17</v>
+      </c>
+      <c r="L434" t="s">
         <v>16</v>
-      </c>
-      <c r="L434" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.7">
@@ -24232,10 +24261,10 @@
         <v>29</v>
       </c>
       <c r="K435" t="s">
+        <v>14</v>
+      </c>
+      <c r="L435" t="s">
         <v>16</v>
-      </c>
-      <c r="L435" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.7">
@@ -24270,10 +24299,10 @@
         <v>62</v>
       </c>
       <c r="K436" t="s">
+        <v>22</v>
+      </c>
+      <c r="L436" t="s">
         <v>13</v>
-      </c>
-      <c r="L436" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.7">
@@ -24308,10 +24337,10 @@
         <v>24</v>
       </c>
       <c r="K437" t="s">
+        <v>17</v>
+      </c>
+      <c r="L437" t="s">
         <v>13</v>
-      </c>
-      <c r="L437" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.7">
@@ -24346,10 +24375,10 @@
         <v>27</v>
       </c>
       <c r="K438" t="s">
+        <v>17</v>
+      </c>
+      <c r="L438" t="s">
         <v>13</v>
-      </c>
-      <c r="L438" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.7">
@@ -24384,10 +24413,10 @@
         <v>62</v>
       </c>
       <c r="K439" t="s">
+        <v>24</v>
+      </c>
+      <c r="L439" t="s">
         <v>16</v>
-      </c>
-      <c r="L439" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.7">
@@ -24422,10 +24451,10 @@
         <v>34</v>
       </c>
       <c r="K440" t="s">
+        <v>30</v>
+      </c>
+      <c r="L440" t="s">
         <v>13</v>
-      </c>
-      <c r="L440" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.7">
@@ -24460,10 +24489,10 @@
         <v>43</v>
       </c>
       <c r="K441" t="s">
+        <v>14</v>
+      </c>
+      <c r="L441" t="s">
         <v>13</v>
-      </c>
-      <c r="L441" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.7">
@@ -24498,10 +24527,10 @@
         <v>38</v>
       </c>
       <c r="K442" t="s">
+        <v>17</v>
+      </c>
+      <c r="L442" t="s">
         <v>13</v>
-      </c>
-      <c r="L442" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.7">
@@ -24536,10 +24565,10 @@
         <v>45</v>
       </c>
       <c r="K443" t="s">
+        <v>24</v>
+      </c>
+      <c r="L443" t="s">
         <v>16</v>
-      </c>
-      <c r="L443" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.7">
@@ -24574,10 +24603,10 @@
         <v>63</v>
       </c>
       <c r="K444" t="s">
+        <v>22</v>
+      </c>
+      <c r="L444" t="s">
         <v>16</v>
-      </c>
-      <c r="L444" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.7">
@@ -24612,10 +24641,10 @@
         <v>19</v>
       </c>
       <c r="K445" t="s">
+        <v>20</v>
+      </c>
+      <c r="L445" t="s">
         <v>16</v>
-      </c>
-      <c r="L445" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.7">
@@ -24650,10 +24679,10 @@
         <v>60</v>
       </c>
       <c r="K446" t="s">
+        <v>14</v>
+      </c>
+      <c r="L446" t="s">
         <v>16</v>
-      </c>
-      <c r="L446" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.7">
@@ -24688,10 +24717,10 @@
         <v>18</v>
       </c>
       <c r="K447" t="s">
+        <v>17</v>
+      </c>
+      <c r="L447" t="s">
         <v>13</v>
-      </c>
-      <c r="L447" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.7">
@@ -24726,10 +24755,10 @@
         <v>53</v>
       </c>
       <c r="K448" t="s">
+        <v>30</v>
+      </c>
+      <c r="L448" t="s">
         <v>13</v>
-      </c>
-      <c r="L448" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.7">
@@ -24764,10 +24793,10 @@
         <v>43</v>
       </c>
       <c r="K449" t="s">
+        <v>24</v>
+      </c>
+      <c r="L449" t="s">
         <v>13</v>
-      </c>
-      <c r="L449" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.7">
@@ -24802,10 +24831,10 @@
         <v>46</v>
       </c>
       <c r="K450" t="s">
+        <v>17</v>
+      </c>
+      <c r="L450" t="s">
         <v>13</v>
-      </c>
-      <c r="L450" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.7">
@@ -24840,10 +24869,10 @@
         <v>38</v>
       </c>
       <c r="K451" t="s">
+        <v>30</v>
+      </c>
+      <c r="L451" t="s">
         <v>16</v>
-      </c>
-      <c r="L451" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.7">
@@ -24878,10 +24907,10 @@
         <v>28</v>
       </c>
       <c r="K452" t="s">
+        <v>17</v>
+      </c>
+      <c r="L452" t="s">
         <v>16</v>
-      </c>
-      <c r="L452" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.7">
@@ -24916,10 +24945,10 @@
         <v>57</v>
       </c>
       <c r="K453" t="s">
+        <v>14</v>
+      </c>
+      <c r="L453" t="s">
         <v>16</v>
-      </c>
-      <c r="L453" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.7">
@@ -24954,10 +24983,10 @@
         <v>28</v>
       </c>
       <c r="K454" t="s">
+        <v>14</v>
+      </c>
+      <c r="L454" t="s">
         <v>13</v>
-      </c>
-      <c r="L454" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.7">
@@ -24992,10 +25021,10 @@
         <v>53</v>
       </c>
       <c r="K455" t="s">
+        <v>14</v>
+      </c>
+      <c r="L455" t="s">
         <v>16</v>
-      </c>
-      <c r="L455" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.7">
@@ -25030,10 +25059,10 @@
         <v>56</v>
       </c>
       <c r="K456" t="s">
+        <v>22</v>
+      </c>
+      <c r="L456" t="s">
         <v>16</v>
-      </c>
-      <c r="L456" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.7">
@@ -25068,10 +25097,10 @@
         <v>57</v>
       </c>
       <c r="K457" t="s">
+        <v>22</v>
+      </c>
+      <c r="L457" t="s">
         <v>13</v>
-      </c>
-      <c r="L457" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.7">
@@ -25106,10 +25135,10 @@
         <v>52</v>
       </c>
       <c r="K458" t="s">
+        <v>24</v>
+      </c>
+      <c r="L458" t="s">
         <v>13</v>
-      </c>
-      <c r="L458" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.7">
@@ -25144,10 +25173,10 @@
         <v>51</v>
       </c>
       <c r="K459" t="s">
+        <v>14</v>
+      </c>
+      <c r="L459" t="s">
         <v>16</v>
-      </c>
-      <c r="L459" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.7">
@@ -25182,10 +25211,10 @@
         <v>64</v>
       </c>
       <c r="K460" t="s">
+        <v>30</v>
+      </c>
+      <c r="L460" t="s">
         <v>16</v>
-      </c>
-      <c r="L460" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.7">
@@ -25220,10 +25249,10 @@
         <v>41</v>
       </c>
       <c r="K461" t="s">
+        <v>17</v>
+      </c>
+      <c r="L461" t="s">
         <v>16</v>
-      </c>
-      <c r="L461" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.7">
@@ -25258,10 +25287,10 @@
         <v>39</v>
       </c>
       <c r="K462" t="s">
+        <v>20</v>
+      </c>
+      <c r="L462" t="s">
         <v>16</v>
-      </c>
-      <c r="L462" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.7">
@@ -25296,10 +25325,10 @@
         <v>22</v>
       </c>
       <c r="K463" t="s">
+        <v>30</v>
+      </c>
+      <c r="L463" t="s">
         <v>16</v>
-      </c>
-      <c r="L463" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.7">
@@ -25334,10 +25363,10 @@
         <v>50</v>
       </c>
       <c r="K464" t="s">
+        <v>22</v>
+      </c>
+      <c r="L464" t="s">
         <v>16</v>
-      </c>
-      <c r="L464" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.7">
@@ -25372,10 +25401,10 @@
         <v>53</v>
       </c>
       <c r="K465" t="s">
+        <v>22</v>
+      </c>
+      <c r="L465" t="s">
         <v>13</v>
-      </c>
-      <c r="L465" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.7">
@@ -25410,10 +25439,10 @@
         <v>64</v>
       </c>
       <c r="K466" t="s">
+        <v>30</v>
+      </c>
+      <c r="L466" t="s">
         <v>13</v>
-      </c>
-      <c r="L466" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.7">
@@ -25448,10 +25477,10 @@
         <v>37</v>
       </c>
       <c r="K467" t="s">
+        <v>22</v>
+      </c>
+      <c r="L467" t="s">
         <v>13</v>
-      </c>
-      <c r="L467" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.7">
@@ -25486,10 +25515,10 @@
         <v>36</v>
       </c>
       <c r="K468" t="s">
+        <v>14</v>
+      </c>
+      <c r="L468" t="s">
         <v>16</v>
-      </c>
-      <c r="L468" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.7">
@@ -25524,10 +25553,10 @@
         <v>52</v>
       </c>
       <c r="K469" t="s">
+        <v>24</v>
+      </c>
+      <c r="L469" t="s">
         <v>13</v>
-      </c>
-      <c r="L469" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.7">
@@ -25562,10 +25591,10 @@
         <v>60</v>
       </c>
       <c r="K470" t="s">
+        <v>17</v>
+      </c>
+      <c r="L470" t="s">
         <v>16</v>
-      </c>
-      <c r="L470" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.7">
@@ -25600,10 +25629,10 @@
         <v>34</v>
       </c>
       <c r="K471" t="s">
+        <v>24</v>
+      </c>
+      <c r="L471" t="s">
         <v>16</v>
-      </c>
-      <c r="L471" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.7">
@@ -25638,10 +25667,10 @@
         <v>62</v>
       </c>
       <c r="K472" t="s">
+        <v>17</v>
+      </c>
+      <c r="L472" t="s">
         <v>13</v>
-      </c>
-      <c r="L472" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.7">
@@ -25676,10 +25705,10 @@
         <v>60</v>
       </c>
       <c r="K473" t="s">
+        <v>17</v>
+      </c>
+      <c r="L473" t="s">
         <v>16</v>
-      </c>
-      <c r="L473" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.7">
@@ -25714,10 +25743,10 @@
         <v>51</v>
       </c>
       <c r="K474" t="s">
+        <v>24</v>
+      </c>
+      <c r="L474" t="s">
         <v>16</v>
-      </c>
-      <c r="L474" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.7">
@@ -25752,10 +25781,10 @@
         <v>26</v>
       </c>
       <c r="K475" t="s">
+        <v>30</v>
+      </c>
+      <c r="L475" t="s">
         <v>13</v>
-      </c>
-      <c r="L475" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.7">
@@ -25790,10 +25819,10 @@
         <v>43</v>
       </c>
       <c r="K476" t="s">
+        <v>17</v>
+      </c>
+      <c r="L476" t="s">
         <v>13</v>
-      </c>
-      <c r="L476" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.7">
@@ -25828,10 +25857,10 @@
         <v>19</v>
       </c>
       <c r="K477" t="s">
+        <v>24</v>
+      </c>
+      <c r="L477" t="s">
         <v>13</v>
-      </c>
-      <c r="L477" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.7">
@@ -25866,10 +25895,10 @@
         <v>26</v>
       </c>
       <c r="K478" t="s">
+        <v>17</v>
+      </c>
+      <c r="L478" t="s">
         <v>16</v>
-      </c>
-      <c r="L478" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.7">
@@ -25904,10 +25933,10 @@
         <v>26</v>
       </c>
       <c r="K479" t="s">
+        <v>20</v>
+      </c>
+      <c r="L479" t="s">
         <v>13</v>
-      </c>
-      <c r="L479" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.7">
@@ -25942,10 +25971,10 @@
         <v>57</v>
       </c>
       <c r="K480" t="s">
+        <v>30</v>
+      </c>
+      <c r="L480" t="s">
         <v>13</v>
-      </c>
-      <c r="L480" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.7">
@@ -25980,10 +26009,10 @@
         <v>34</v>
       </c>
       <c r="K481" t="s">
+        <v>14</v>
+      </c>
+      <c r="L481" t="s">
         <v>16</v>
-      </c>
-      <c r="L481" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.7">
@@ -26018,10 +26047,10 @@
         <v>18</v>
       </c>
       <c r="K482" t="s">
+        <v>17</v>
+      </c>
+      <c r="L482" t="s">
         <v>13</v>
-      </c>
-      <c r="L482" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.7">
@@ -26056,10 +26085,10 @@
         <v>42</v>
       </c>
       <c r="K483" t="s">
+        <v>20</v>
+      </c>
+      <c r="L483" t="s">
         <v>13</v>
-      </c>
-      <c r="L483" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.7">
@@ -26094,10 +26123,10 @@
         <v>60</v>
       </c>
       <c r="K484" t="s">
+        <v>14</v>
+      </c>
+      <c r="L484" t="s">
         <v>13</v>
-      </c>
-      <c r="L484" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.7">
@@ -26132,10 +26161,10 @@
         <v>57</v>
       </c>
       <c r="K485" t="s">
+        <v>14</v>
+      </c>
+      <c r="L485" t="s">
         <v>16</v>
-      </c>
-      <c r="L485" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.7">
@@ -26170,10 +26199,10 @@
         <v>59</v>
       </c>
       <c r="K486" t="s">
+        <v>17</v>
+      </c>
+      <c r="L486" t="s">
         <v>16</v>
-      </c>
-      <c r="L486" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.7">
@@ -26208,10 +26237,10 @@
         <v>42</v>
       </c>
       <c r="K487" t="s">
+        <v>24</v>
+      </c>
+      <c r="L487" t="s">
         <v>16</v>
-      </c>
-      <c r="L487" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.7">
@@ -26246,10 +26275,10 @@
         <v>56</v>
       </c>
       <c r="K488" t="s">
+        <v>17</v>
+      </c>
+      <c r="L488" t="s">
         <v>16</v>
-      </c>
-      <c r="L488" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.7">
@@ -26284,10 +26313,10 @@
         <v>52</v>
       </c>
       <c r="K489" t="s">
+        <v>20</v>
+      </c>
+      <c r="L489" t="s">
         <v>13</v>
-      </c>
-      <c r="L489" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.7">
@@ -26322,10 +26351,10 @@
         <v>20</v>
       </c>
       <c r="K490" t="s">
+        <v>14</v>
+      </c>
+      <c r="L490" t="s">
         <v>16</v>
-      </c>
-      <c r="L490" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.7">
@@ -26360,10 +26389,10 @@
         <v>54</v>
       </c>
       <c r="K491" t="s">
+        <v>17</v>
+      </c>
+      <c r="L491" t="s">
         <v>16</v>
-      </c>
-      <c r="L491" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.7">
@@ -26398,10 +26427,10 @@
         <v>61</v>
       </c>
       <c r="K492" t="s">
+        <v>24</v>
+      </c>
+      <c r="L492" t="s">
         <v>13</v>
-      </c>
-      <c r="L492" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.7">
@@ -26436,10 +26465,10 @@
         <v>61</v>
       </c>
       <c r="K493" t="s">
+        <v>17</v>
+      </c>
+      <c r="L493" t="s">
         <v>13</v>
-      </c>
-      <c r="L493" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.7">
@@ -26474,10 +26503,10 @@
         <v>47</v>
       </c>
       <c r="K494" t="s">
+        <v>30</v>
+      </c>
+      <c r="L494" t="s">
         <v>13</v>
-      </c>
-      <c r="L494" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.7">
@@ -26512,10 +26541,10 @@
         <v>55</v>
       </c>
       <c r="K495" t="s">
+        <v>24</v>
+      </c>
+      <c r="L495" t="s">
         <v>16</v>
-      </c>
-      <c r="L495" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.7">
@@ -26550,10 +26579,10 @@
         <v>51</v>
       </c>
       <c r="K496" t="s">
+        <v>20</v>
+      </c>
+      <c r="L496" t="s">
         <v>16</v>
-      </c>
-      <c r="L496" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.7">
@@ -26588,10 +26617,10 @@
         <v>29</v>
       </c>
       <c r="K497" t="s">
+        <v>14</v>
+      </c>
+      <c r="L497" t="s">
         <v>16</v>
-      </c>
-      <c r="L497" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.7">
@@ -26626,10 +26655,10 @@
         <v>36</v>
       </c>
       <c r="K498" t="s">
+        <v>17</v>
+      </c>
+      <c r="L498" t="s">
         <v>13</v>
-      </c>
-      <c r="L498" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.7">
@@ -26664,10 +26693,10 @@
         <v>54</v>
       </c>
       <c r="K499" t="s">
+        <v>24</v>
+      </c>
+      <c r="L499" t="s">
         <v>13</v>
-      </c>
-      <c r="L499" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.7">
@@ -26702,10 +26731,10 @@
         <v>61</v>
       </c>
       <c r="K500" t="s">
+        <v>30</v>
+      </c>
+      <c r="L500" t="s">
         <v>16</v>
-      </c>
-      <c r="L500" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.7">
@@ -26740,10 +26769,10 @@
         <v>34</v>
       </c>
       <c r="K501" t="s">
+        <v>24</v>
+      </c>
+      <c r="L501" t="s">
         <v>13</v>
-      </c>
-      <c r="L501" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -26755,11 +26784,787 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473EED76-4FB4-4A56-BDD3-B1208FF8814E}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5390625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.45703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:J17">_xlfn.PIVOTBY(sales[[#All],[country]:[customer_gender]],
+sales[[#All],[category]],
+sales[[#All],[quantity]:[sales]],
+_xlfn.HSTACK(_xleta.AVERAGE, _xleta.SUM), 3)</f>
+        <v/>
+      </c>
+      <c r="B1" t="str">
+        <v/>
+      </c>
+      <c r="C1" t="str">
+        <v>category</v>
+      </c>
+      <c r="D1" t="str">
+        <v/>
+      </c>
+      <c r="E1" t="str">
+        <v/>
+      </c>
+      <c r="F1" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
+        <v/>
+      </c>
+      <c r="J1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Total</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="D3" t="str">
+        <v>SUM</v>
+      </c>
+      <c r="E3" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="F3" t="str">
+        <v>SUM</v>
+      </c>
+      <c r="G3" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="H3" t="str">
+        <v>SUM</v>
+      </c>
+      <c r="I3" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="J3" t="str">
+        <v>SUM</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A4" t="str">
+        <v>country</v>
+      </c>
+      <c r="B4" t="str">
+        <v>customer_gender</v>
+      </c>
+      <c r="C4" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="D4" t="str">
+        <v>sales</v>
+      </c>
+      <c r="E4" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="F4" t="str">
+        <v>sales</v>
+      </c>
+      <c r="G4" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="H4" t="str">
+        <v>sales</v>
+      </c>
+      <c r="I4" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="J4" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A5" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C5">
+        <v>2.0714285714285716</v>
+      </c>
+      <c r="D5">
+        <v>17701</v>
+      </c>
+      <c r="E5">
+        <v>2.75</v>
+      </c>
+      <c r="F5">
+        <v>16669</v>
+      </c>
+      <c r="G5">
+        <v>2.1875</v>
+      </c>
+      <c r="H5">
+        <v>20803</v>
+      </c>
+      <c r="I5">
+        <v>2.3095238095238093</v>
+      </c>
+      <c r="J5">
+        <v>55173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A6" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C6">
+        <v>2.2777777777777777</v>
+      </c>
+      <c r="D6">
+        <v>19683</v>
+      </c>
+      <c r="E6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6">
+        <v>14622</v>
+      </c>
+      <c r="G6">
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="H6">
+        <v>25189</v>
+      </c>
+      <c r="I6">
+        <v>2.4761904761904763</v>
+      </c>
+      <c r="J6">
+        <v>59494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A7" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C7">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="D7">
+        <v>31902</v>
+      </c>
+      <c r="E7">
+        <v>2.5555555555555554</v>
+      </c>
+      <c r="F7">
+        <v>28613</v>
+      </c>
+      <c r="G7">
+        <v>2.6</v>
+      </c>
+      <c r="H7">
+        <v>12630</v>
+      </c>
+      <c r="I7">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="J7">
+        <v>73145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A8" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C8">
+        <v>2.5625</v>
+      </c>
+      <c r="D8">
+        <v>24224</v>
+      </c>
+      <c r="E8">
+        <v>2.4</v>
+      </c>
+      <c r="F8">
+        <v>20895</v>
+      </c>
+      <c r="G8">
+        <v>2.6923076923076925</v>
+      </c>
+      <c r="H8">
+        <v>19964</v>
+      </c>
+      <c r="I8">
+        <v>2.5454545454545454</v>
+      </c>
+      <c r="J8">
+        <v>65083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A9" t="str">
+        <v>France</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C9">
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="D9">
+        <v>19316</v>
+      </c>
+      <c r="E9">
+        <v>2.6923076923076925</v>
+      </c>
+      <c r="F9">
+        <v>16285</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <v>22355</v>
+      </c>
+      <c r="I9">
+        <v>2.5319148936170213</v>
+      </c>
+      <c r="J9">
+        <v>57956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A10" t="str">
+        <v>France</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C10">
+        <v>2.75</v>
+      </c>
+      <c r="D10">
+        <v>19984</v>
+      </c>
+      <c r="E10">
+        <v>2.3636363636363638</v>
+      </c>
+      <c r="F10">
+        <v>13293</v>
+      </c>
+      <c r="G10">
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="H10">
+        <v>12557</v>
+      </c>
+      <c r="I10">
+        <v>2.6470588235294117</v>
+      </c>
+      <c r="J10">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A11" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C11">
+        <v>2.5789473684210527</v>
+      </c>
+      <c r="D11">
+        <v>27841</v>
+      </c>
+      <c r="E11">
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="F11">
+        <v>12362</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <v>14255</v>
+      </c>
+      <c r="I11">
+        <v>2.5263157894736841</v>
+      </c>
+      <c r="J11">
+        <v>54458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A12" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C12">
+        <v>2.625</v>
+      </c>
+      <c r="D12">
+        <v>21915</v>
+      </c>
+      <c r="E12">
+        <v>2.8235294117647061</v>
+      </c>
+      <c r="F12">
+        <v>20825</v>
+      </c>
+      <c r="G12">
+        <v>2.6</v>
+      </c>
+      <c r="H12">
+        <v>30797</v>
+      </c>
+      <c r="I12">
+        <v>2.6792452830188678</v>
+      </c>
+      <c r="J12">
+        <v>73537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A13" t="str">
+        <v>UK</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C13">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="D13">
+        <v>10185</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>13422</v>
+      </c>
+      <c r="G13">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="H13">
+        <v>11228</v>
+      </c>
+      <c r="I13">
+        <v>2.6818181818181817</v>
+      </c>
+      <c r="J13">
+        <v>34835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A14" t="str">
+        <v>UK</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C14">
+        <v>2.6190476190476191</v>
+      </c>
+      <c r="D14">
+        <v>37232</v>
+      </c>
+      <c r="E14">
+        <v>2.5</v>
+      </c>
+      <c r="F14">
+        <v>19784</v>
+      </c>
+      <c r="G14">
+        <v>2.8</v>
+      </c>
+      <c r="H14">
+        <v>16598</v>
+      </c>
+      <c r="I14">
+        <v>2.6279069767441858</v>
+      </c>
+      <c r="J14">
+        <v>73614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A15" t="str">
+        <v>USA</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C15">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="D15">
+        <v>19344</v>
+      </c>
+      <c r="E15">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="F15">
+        <v>22090</v>
+      </c>
+      <c r="G15">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="H15">
+        <v>23156</v>
+      </c>
+      <c r="I15">
+        <v>2.8</v>
+      </c>
+      <c r="J15">
+        <v>64590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A16" t="str">
+        <v>USA</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C16">
+        <v>2.7647058823529411</v>
+      </c>
+      <c r="D16">
+        <v>31248</v>
+      </c>
+      <c r="E16">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="F16">
+        <v>10276</v>
+      </c>
+      <c r="G16">
+        <v>2.5</v>
+      </c>
+      <c r="H16">
+        <v>32547</v>
+      </c>
+      <c r="I16">
+        <v>2.5434782608695654</v>
+      </c>
+      <c r="J16">
+        <v>74071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A17" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17">
+        <v>2.5527638190954773</v>
+      </c>
+      <c r="D17">
+        <v>280575</v>
+      </c>
+      <c r="E17">
+        <v>2.5547945205479454</v>
+      </c>
+      <c r="F17">
+        <v>209136</v>
+      </c>
+      <c r="G17">
+        <v>2.6193548387096772</v>
+      </c>
+      <c r="H17">
+        <v>242079</v>
+      </c>
+      <c r="I17">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="J17">
+        <v>731790</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:J170">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>C$4="sales"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>C$4="quantity"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045DAF5C-D537-4222-9D89-5CB67EEABD4B}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="3" max="3" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.70703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5390625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.70703125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:F11">_xlfn.PIVOTBY(sales[[#All],[country]],
+sales[[#All],[category]],
+sales[[#All],[sales]],
+_xleta.PERCENTOF, 3, , , , , , 1)</f>
+        <v/>
+      </c>
+      <c r="C2" s="5" t="str">
+        <v>category</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E2" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F2" s="5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B4" t="str">
+        <v>country</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B5" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.32602230807468585</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.27288583463420163</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.40109185729111252</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B6" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.40603929739271349</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.35816187747779032</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.23579882512949618</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B7" t="str">
+        <v>France</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.3786491954908951</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.28497928509490317</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.33637151941420174</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B8" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.38873393491933278</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.25928356576428768</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.35198249931637954</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B9" t="str">
+        <v>UK</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.43722855904618763</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.30619000636243765</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.25658143459137472</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B10" t="str">
+        <v>USA</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.36486106403386676</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.23341819257036947</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.40172074339576375</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B11" t="str">
+        <v>Total</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.38340917476325176</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.28578690607961299</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.33080391915713525</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE116CAA-77DD-4A0E-9CD0-22F0C9517DDE}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
@@ -26768,17 +27573,17 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="4"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -26786,21 +27591,30 @@
         <v>33</v>
       </c>
       <c r="D3" t="str" cm="1">
-        <f t="array" ref="D3:E7">_xlfn.GROUPBY(sales[category], sales[sales], _xleta.SUM, 2)</f>
-        <v>Row Field 1</v>
+        <f t="array" ref="D3:E7">_xlfn.PIVOTBY(sales[[#All],[category]], ,
+sales[[#All],[sales]],
+_xleta.SUM, 3)</f>
+        <v>category</v>
       </c>
       <c r="E3" s="4" t="str">
-        <v>Value 1</v>
-      </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3:O6">_xlfn.PIVOTBY(sales[category], , sales[sales], _xleta.SUM)</f>
+        <v>sales</v>
+      </c>
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3:J7">_xlfn.GROUPBY(sales[[#All],[category]], sales[[#All],[sales]], _xleta.SUM, 3)</f>
+        <v>category</v>
+      </c>
+      <c r="J3" t="str">
+        <v>sales</v>
+      </c>
+      <c r="P3" t="str" cm="1">
+        <f t="array" ref="P3:Q6">_xlfn.PIVOTBY(sales[category], , sales[sales], _xleta.SUM)</f>
         <v>Accessories</v>
       </c>
-      <c r="O3" s="4">
+      <c r="Q3" s="4">
         <v>280575</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -26813,14 +27627,20 @@
       <c r="E4" s="4">
         <v>280575</v>
       </c>
-      <c r="N4" t="str">
+      <c r="I4" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="J4">
+        <v>280575</v>
+      </c>
+      <c r="P4" t="str">
         <v>Clothing</v>
       </c>
-      <c r="O4" s="4">
+      <c r="Q4" s="4">
         <v>209136</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -26833,14 +27653,20 @@
       <c r="E5" s="4">
         <v>209136</v>
       </c>
-      <c r="N5" t="str">
+      <c r="I5" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="J5">
+        <v>209136</v>
+      </c>
+      <c r="P5" t="str">
         <v>Electronics</v>
       </c>
-      <c r="O5" s="4">
+      <c r="Q5" s="4">
         <v>242079</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -26853,14 +27679,20 @@
       <c r="E6" s="4">
         <v>242079</v>
       </c>
-      <c r="N6" t="str">
+      <c r="I6" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J6">
+        <v>242079</v>
+      </c>
+      <c r="P6" t="str">
         <v>Total</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="4">
         <v>731790</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -26873,57 +27705,770 @@
       <c r="E7" s="4">
         <v>731790</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="D10" t="str" cm="1">
-        <f t="array" ref="D10:E14">_xlfn.GROUPBY(sales[category], sales[sales], _xleta.SUM, 3)</f>
+      <c r="I7" t="str">
+        <v>Total</v>
+      </c>
+      <c r="J7">
+        <v>731790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="D15" t="str" cm="1">
+        <f t="array" ref="D15:E19">_xlfn.GROUPBY(sales[category], sales[sales], _xleta.SUM, 3)</f>
         <v>Electronics</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E15" s="4">
         <v>611</v>
       </c>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="D11" t="str">
+      <c r="I15" t="str" cm="1">
+        <f t="array" ref="I15:M22">_xlfn.PIVOTBY(sales[country], sales[category], sales[sales], _xleta.PERCENTOF)</f>
+        <v/>
+      </c>
+      <c r="J15" t="str">
         <v>Accessories</v>
       </c>
-      <c r="E11" s="4">
+      <c r="K15" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="L15" s="4" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Total</v>
+      </c>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="D16" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="E16" s="4">
         <v>280575</v>
       </c>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="D12" t="str">
+      <c r="I16" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="J16">
+        <v>0.1332406664884612</v>
+      </c>
+      <c r="K16">
+        <v>0.14962034274347794</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.18998756604249026</v>
+      </c>
+      <c r="M16">
+        <v>0.15669386026045723</v>
+      </c>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="D17" t="str">
         <v>Clothing</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E17" s="4">
         <v>209136</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="D13" t="str">
+      <c r="I17" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="J17">
+        <v>0.20003920520359975</v>
+      </c>
+      <c r="K17">
+        <v>0.23672634075434168</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.13464199703402607</v>
+      </c>
+      <c r="M17">
+        <v>0.18889025540113968</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="D18" t="str">
         <v>Electronics</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E18" s="4">
         <v>241468</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="D14" t="str">
+      <c r="I18" t="str">
+        <v>France</v>
+      </c>
+      <c r="J18">
+        <v>0.1400695001336541</v>
+      </c>
+      <c r="K18">
+        <v>0.14142950042077881</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.14421738358139286</v>
+      </c>
+      <c r="M18">
+        <v>0.14183030650869785</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="D19" t="str">
         <v>Total</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E19" s="4">
         <v>731179</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="J19">
+        <v>0.17733582820992605</v>
+      </c>
+      <c r="K19">
+        <v>0.15868621375564226</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.18610453612250547</v>
+      </c>
+      <c r="M19">
+        <v>0.17490673553888411</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="I20" t="str">
+        <v>UK</v>
+      </c>
+      <c r="J20">
+        <v>0.16899937628085182</v>
+      </c>
+      <c r="K20">
+        <v>0.15877706372886544</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.11494594739733724</v>
+      </c>
+      <c r="M20">
+        <v>0.14819688708509271</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="I21" t="str">
+        <v>USA</v>
+      </c>
+      <c r="J21">
+        <v>0.18031542368350709</v>
+      </c>
+      <c r="K21">
+        <v>0.1547605385968939</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.23010256982224811</v>
+      </c>
+      <c r="M21">
+        <v>0.18948195520572841</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="I22" t="str">
+        <v>Total</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="I24" t="str" cm="1">
+        <f t="array" ref="I24:Q31">_xlfn.PIVOTBY(sales[country], sales[category], sales[[quantity]:[sales]], _xleta.SUM)</f>
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="N24" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="O24" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="P24" t="str">
+        <v>Total</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="I25" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="J25">
+        <v>70</v>
+      </c>
+      <c r="K25">
+        <v>37384</v>
+      </c>
+      <c r="L25" s="4">
+        <v>56</v>
+      </c>
+      <c r="M25">
+        <v>31291</v>
+      </c>
+      <c r="N25">
+        <v>75</v>
+      </c>
+      <c r="O25">
+        <v>45992</v>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="I26" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="J26">
+        <v>95</v>
+      </c>
+      <c r="K26">
+        <v>56126</v>
+      </c>
+      <c r="L26" s="4">
+        <v>82</v>
+      </c>
+      <c r="M26">
+        <v>49508</v>
+      </c>
+      <c r="N26">
+        <v>61</v>
+      </c>
+      <c r="O26">
+        <v>32594</v>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="I27" t="str">
+        <v>France</v>
+      </c>
+      <c r="J27">
+        <v>88</v>
+      </c>
+      <c r="K27">
+        <v>39300</v>
+      </c>
+      <c r="L27" s="4">
+        <v>61</v>
+      </c>
+      <c r="M27">
+        <v>29578</v>
+      </c>
+      <c r="N27">
+        <v>60</v>
+      </c>
+      <c r="O27">
+        <v>34912</v>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="I28" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="J28">
+        <v>91</v>
+      </c>
+      <c r="K28">
+        <v>49756</v>
+      </c>
+      <c r="L28" s="4">
+        <v>70</v>
+      </c>
+      <c r="M28">
+        <v>33187</v>
+      </c>
+      <c r="N28">
+        <v>77</v>
+      </c>
+      <c r="O28">
+        <v>45052</v>
+      </c>
+      <c r="P28" t="str">
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="I29" t="str">
+        <v>UK</v>
+      </c>
+      <c r="J29">
+        <v>79</v>
+      </c>
+      <c r="K29">
+        <v>47417</v>
+      </c>
+      <c r="L29" s="4">
+        <v>48</v>
+      </c>
+      <c r="M29">
+        <v>33206</v>
+      </c>
+      <c r="N29">
+        <v>45</v>
+      </c>
+      <c r="O29">
+        <v>27826</v>
+      </c>
+      <c r="P29" t="str">
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="I30" t="str">
+        <v>USA</v>
+      </c>
+      <c r="J30">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>50592</v>
+      </c>
+      <c r="L30" s="4">
+        <v>56</v>
+      </c>
+      <c r="M30">
+        <v>32366</v>
+      </c>
+      <c r="N30">
+        <v>88</v>
+      </c>
+      <c r="O30">
+        <v>55703</v>
+      </c>
+      <c r="P30" t="str">
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.7">
+      <c r="I31" t="str">
+        <v>Total</v>
+      </c>
+      <c r="J31">
+        <v>508</v>
+      </c>
+      <c r="K31">
+        <v>280575</v>
+      </c>
+      <c r="L31" s="4">
+        <v>373</v>
+      </c>
+      <c r="M31">
+        <v>209136</v>
+      </c>
+      <c r="N31">
+        <v>406</v>
+      </c>
+      <c r="O31">
+        <v>242079</v>
+      </c>
+      <c r="P31" t="str">
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="9:17" x14ac:dyDescent="0.7">
+      <c r="I33" t="str" cm="1">
+        <f t="array" ref="I33:Q43">_xlfn.PIVOTBY(sales[[#All],[country]], sales[[#All],[category]], sales[[#All],[quantity]:[sales]], _xlfn.HSTACK(_xleta.AVERAGE, _xleta.SUM), 3)</f>
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v>category</v>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" s="4" t="str">
+        <v/>
+      </c>
+      <c r="M33" t="str">
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <v/>
+      </c>
+      <c r="Q33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="9:17" x14ac:dyDescent="0.7">
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="L34" s="4" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="M34" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="N34" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="O34" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="P34" t="str">
+        <v>Total</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="35" spans="9:17" x14ac:dyDescent="0.7">
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="K35" t="str">
+        <v>SUM</v>
+      </c>
+      <c r="L35" s="4" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="M35" t="str">
+        <v>SUM</v>
+      </c>
+      <c r="N35" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="O35" t="str">
+        <v>SUM</v>
+      </c>
+      <c r="P35" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>SUM</v>
+      </c>
+    </row>
+    <row r="36" spans="9:17" x14ac:dyDescent="0.7">
+      <c r="I36" t="str">
+        <v>country</v>
+      </c>
+      <c r="J36" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="K36" t="str">
+        <v>sales</v>
+      </c>
+      <c r="L36" s="4" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="M36" t="str">
+        <v>sales</v>
+      </c>
+      <c r="N36" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="O36" t="str">
+        <v>sales</v>
+      </c>
+      <c r="P36" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="37" spans="9:17" x14ac:dyDescent="0.7">
+      <c r="I37" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="J37">
+        <v>2.1875</v>
+      </c>
+      <c r="K37">
+        <v>37384</v>
+      </c>
+      <c r="L37" s="4">
+        <v>2.5454545454545454</v>
+      </c>
+      <c r="M37">
+        <v>31291</v>
+      </c>
+      <c r="N37">
+        <v>2.5</v>
+      </c>
+      <c r="O37">
+        <v>45992</v>
+      </c>
+      <c r="P37">
+        <v>2.3928571428571428</v>
+      </c>
+      <c r="Q37">
+        <v>114667</v>
+      </c>
+    </row>
+    <row r="38" spans="9:17" x14ac:dyDescent="0.7">
+      <c r="I38" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="J38">
+        <v>2.5675675675675675</v>
+      </c>
+      <c r="K38">
+        <v>56126</v>
+      </c>
+      <c r="L38" s="4">
+        <v>2.4848484848484849</v>
+      </c>
+      <c r="M38">
+        <v>49508</v>
+      </c>
+      <c r="N38">
+        <v>2.652173913043478</v>
+      </c>
+      <c r="O38">
+        <v>32594</v>
+      </c>
+      <c r="P38">
+        <v>2.5591397849462365</v>
+      </c>
+      <c r="Q38">
+        <v>138228</v>
+      </c>
+    </row>
+    <row r="39" spans="9:17" x14ac:dyDescent="0.7">
+      <c r="I39" t="str">
+        <v>France</v>
+      </c>
+      <c r="J39">
+        <v>2.5882352941176472</v>
+      </c>
+      <c r="K39">
+        <v>39300</v>
+      </c>
+      <c r="L39" s="4">
+        <v>2.5416666666666665</v>
+      </c>
+      <c r="M39">
+        <v>29578</v>
+      </c>
+      <c r="N39">
+        <v>2.6086956521739131</v>
+      </c>
+      <c r="O39">
+        <v>34912</v>
+      </c>
+      <c r="P39">
+        <v>2.5802469135802468</v>
+      </c>
+      <c r="Q39">
+        <v>103790</v>
+      </c>
+    </row>
+    <row r="40" spans="9:17" x14ac:dyDescent="0.7">
+      <c r="I40" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="J40">
+        <v>2.6</v>
+      </c>
+      <c r="K40">
+        <v>49756</v>
+      </c>
+      <c r="L40" s="4">
+        <v>2.6923076923076925</v>
+      </c>
+      <c r="M40">
+        <v>33187</v>
+      </c>
+      <c r="N40">
+        <v>2.5666666666666669</v>
+      </c>
+      <c r="O40">
+        <v>45052</v>
+      </c>
+      <c r="P40">
+        <v>2.6153846153846154</v>
+      </c>
+      <c r="Q40">
+        <v>127995</v>
+      </c>
+    </row>
+    <row r="41" spans="9:17" x14ac:dyDescent="0.7">
+      <c r="I41" t="str">
+        <v>UK</v>
+      </c>
+      <c r="J41">
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="K41">
+        <v>47417</v>
+      </c>
+      <c r="L41" s="4">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M41">
+        <v>33206</v>
+      </c>
+      <c r="N41">
+        <v>2.6470588235294117</v>
+      </c>
+      <c r="O41">
+        <v>27826</v>
+      </c>
+      <c r="P41">
+        <v>2.6461538461538461</v>
+      </c>
+      <c r="Q41">
+        <v>108449</v>
+      </c>
+    </row>
+    <row r="42" spans="9:17" x14ac:dyDescent="0.7">
+      <c r="I42" t="str">
+        <v>USA</v>
+      </c>
+      <c r="J42">
+        <v>2.7419354838709675</v>
+      </c>
+      <c r="K42">
+        <v>50592</v>
+      </c>
+      <c r="L42" s="4">
+        <v>2.4347826086956523</v>
+      </c>
+      <c r="M42">
+        <v>32366</v>
+      </c>
+      <c r="N42">
+        <v>2.75</v>
+      </c>
+      <c r="O42">
+        <v>55703</v>
+      </c>
+      <c r="P42">
+        <v>2.6627906976744184</v>
+      </c>
+      <c r="Q42">
+        <v>138661</v>
+      </c>
+    </row>
+    <row r="43" spans="9:17" x14ac:dyDescent="0.7">
+      <c r="I43" t="str">
+        <v>Total</v>
+      </c>
+      <c r="J43">
+        <v>2.5527638190954773</v>
+      </c>
+      <c r="K43">
+        <v>280575</v>
+      </c>
+      <c r="L43" s="4">
+        <v>2.5547945205479454</v>
+      </c>
+      <c r="M43">
+        <v>209136</v>
+      </c>
+      <c r="N43">
+        <v>2.6193548387096772</v>
+      </c>
+      <c r="O43">
+        <v>242079</v>
+      </c>
+      <c r="P43">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="Q43">
+        <v>731790</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971DC12F-04F3-4D59-BE51-46CA3043EEE0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel-pivotby-demo.xlsx
+++ b/excel-pivotby-demo.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF2E7C6-2253-4915-AB28-33179A004ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42F287-6128-4509-953D-1ED0152DCD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{9CD546EA-A036-42F8-B904-3ACF933C367C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{9CD546EA-A036-42F8-B904-3ACF933C367C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="example-sheet-1" sheetId="2" r:id="rId2"/>
+    <sheet name="example-sheet-2" sheetId="5" r:id="rId3"/>
+    <sheet name="example-sheet-3" sheetId="4" r:id="rId4"/>
+    <sheet name="example-sheet-4" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -224,7 +224,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -7380,8 +7386,8 @@
     <tableColumn id="5" xr3:uid="{A7991B6A-F299-4F62-B8A9-00AB8D7AA87F}" name="category"/>
     <tableColumn id="6" xr3:uid="{4A969527-2D2B-4914-86E4-F878432C968C}" name="unit_price"/>
     <tableColumn id="7" xr3:uid="{D5E7D4E1-3A74-477F-A860-D841F26CAA7F}" name="quantity"/>
-    <tableColumn id="12" xr3:uid="{2F44EDD5-910D-40F3-AB02-5F0667E1DA2D}" name="sales" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{8F235AA4-9C66-4548-826D-A41C4FA6E4E1}" name="order_date" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{2F44EDD5-910D-40F3-AB02-5F0667E1DA2D}" name="sales" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{8F235AA4-9C66-4548-826D-A41C4FA6E4E1}" name="order_date" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{0F74B8ED-48BE-4E67-9A42-2DC142D4639E}" name="customer_age"/>
     <tableColumn id="11" xr3:uid="{DCD9C988-ACF0-46ED-BB36-1F3B539A8A2C}" name="country"/>
     <tableColumn id="10" xr3:uid="{83D12B8A-8E3F-4B85-9AF4-F66023B01063}" name="customer_gender"/>
@@ -7709,35 +7715,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAB2E26-42FF-4AD5-85D6-4F60B137C7D0}">
   <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.2890625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.23046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.23046875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.5390625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.23046875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7775,7 +7779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7851,7 +7855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7889,7 +7893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7927,7 +7931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7965,7 +7969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8003,7 +8007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8079,7 +8083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8155,7 +8159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8193,7 +8197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8231,7 +8235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8307,7 +8311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8383,7 +8387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8421,7 +8425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8459,7 +8463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8497,7 +8501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8535,7 +8539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8573,7 +8577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8611,7 +8615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8649,7 +8653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8687,7 +8691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8725,7 +8729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8763,7 +8767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8839,7 +8843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8877,7 +8881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8915,7 +8919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8953,7 +8957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8991,7 +8995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9029,7 +9033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9067,7 +9071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9105,7 +9109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9143,7 +9147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9181,7 +9185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9219,7 +9223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9257,7 +9261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9295,7 +9299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9333,7 +9337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9371,7 +9375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9409,7 +9413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9447,7 +9451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9485,7 +9489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9523,7 +9527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9561,7 +9565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9599,7 +9603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9637,7 +9641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9675,7 +9679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9713,7 +9717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9751,7 +9755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9789,7 +9793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9827,7 +9831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9865,7 +9869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9903,7 +9907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9941,7 +9945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9979,7 +9983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10017,7 +10021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10055,7 +10059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10093,7 +10097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10131,7 +10135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10169,7 +10173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10207,7 +10211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10245,7 +10249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10283,7 +10287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A68">
         <v>67</v>
       </c>
@@ -10321,7 +10325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A69">
         <v>68</v>
       </c>
@@ -10359,7 +10363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A70">
         <v>69</v>
       </c>
@@ -10397,7 +10401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A71">
         <v>70</v>
       </c>
@@ -10435,7 +10439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A72">
         <v>71</v>
       </c>
@@ -10473,7 +10477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A73">
         <v>72</v>
       </c>
@@ -10511,7 +10515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A74">
         <v>73</v>
       </c>
@@ -10549,7 +10553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A75">
         <v>74</v>
       </c>
@@ -10587,7 +10591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A76">
         <v>75</v>
       </c>
@@ -10625,7 +10629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10663,7 +10667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10701,7 +10705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10739,7 +10743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10777,7 +10781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10815,7 +10819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10853,7 +10857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10891,7 +10895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10929,7 +10933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10967,7 +10971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A86">
         <v>85</v>
       </c>
@@ -11005,7 +11009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A87">
         <v>86</v>
       </c>
@@ -11043,7 +11047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A88">
         <v>87</v>
       </c>
@@ -11081,7 +11085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A89">
         <v>88</v>
       </c>
@@ -11119,7 +11123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A90">
         <v>89</v>
       </c>
@@ -11157,7 +11161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A91">
         <v>90</v>
       </c>
@@ -11195,7 +11199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A92">
         <v>91</v>
       </c>
@@ -11233,7 +11237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A93">
         <v>92</v>
       </c>
@@ -11271,7 +11275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A94">
         <v>93</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A95">
         <v>94</v>
       </c>
@@ -11347,7 +11351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A96">
         <v>95</v>
       </c>
@@ -11385,7 +11389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A97">
         <v>96</v>
       </c>
@@ -11423,7 +11427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A98">
         <v>97</v>
       </c>
@@ -11461,7 +11465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11499,7 +11503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A100">
         <v>99</v>
       </c>
@@ -11537,7 +11541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A101">
         <v>100</v>
       </c>
@@ -11575,7 +11579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A102">
         <v>101</v>
       </c>
@@ -11613,7 +11617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A103">
         <v>102</v>
       </c>
@@ -11651,7 +11655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A104">
         <v>103</v>
       </c>
@@ -11689,7 +11693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A105">
         <v>104</v>
       </c>
@@ -11727,7 +11731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11765,7 +11769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11803,7 +11807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11841,7 +11845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11879,7 +11883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11917,7 +11921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11955,7 +11959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11993,7 +11997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12031,7 +12035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12069,7 +12073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A115">
         <v>114</v>
       </c>
@@ -12107,7 +12111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A116">
         <v>115</v>
       </c>
@@ -12145,7 +12149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A117">
         <v>116</v>
       </c>
@@ -12183,7 +12187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A118">
         <v>117</v>
       </c>
@@ -12221,7 +12225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A119">
         <v>118</v>
       </c>
@@ -12259,7 +12263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A120">
         <v>119</v>
       </c>
@@ -12297,7 +12301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A122">
         <v>121</v>
       </c>
@@ -12373,7 +12377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A123">
         <v>122</v>
       </c>
@@ -12411,7 +12415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12449,7 +12453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A125">
         <v>124</v>
       </c>
@@ -12487,7 +12491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A126">
         <v>125</v>
       </c>
@@ -12525,7 +12529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A127">
         <v>126</v>
       </c>
@@ -12563,7 +12567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A128">
         <v>127</v>
       </c>
@@ -12601,7 +12605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A129">
         <v>128</v>
       </c>
@@ -12639,7 +12643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A130">
         <v>129</v>
       </c>
@@ -12677,7 +12681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A131">
         <v>130</v>
       </c>
@@ -12715,7 +12719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A132">
         <v>131</v>
       </c>
@@ -12753,7 +12757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A133">
         <v>132</v>
       </c>
@@ -12791,7 +12795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A134">
         <v>133</v>
       </c>
@@ -12829,7 +12833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A135">
         <v>134</v>
       </c>
@@ -12867,7 +12871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A136">
         <v>135</v>
       </c>
@@ -12905,7 +12909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A137">
         <v>136</v>
       </c>
@@ -12943,7 +12947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A138">
         <v>137</v>
       </c>
@@ -12981,7 +12985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A139">
         <v>138</v>
       </c>
@@ -13019,7 +13023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A140">
         <v>139</v>
       </c>
@@ -13057,7 +13061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A141">
         <v>140</v>
       </c>
@@ -13095,7 +13099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A142">
         <v>141</v>
       </c>
@@ -13133,7 +13137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A143">
         <v>142</v>
       </c>
@@ -13171,7 +13175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A144">
         <v>143</v>
       </c>
@@ -13209,7 +13213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A145">
         <v>144</v>
       </c>
@@ -13247,7 +13251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A146">
         <v>145</v>
       </c>
@@ -13285,7 +13289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A147">
         <v>146</v>
       </c>
@@ -13323,7 +13327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A148">
         <v>147</v>
       </c>
@@ -13361,7 +13365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A149">
         <v>148</v>
       </c>
@@ -13399,7 +13403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A150">
         <v>149</v>
       </c>
@@ -13437,7 +13441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13475,7 +13479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13513,7 +13517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13551,7 +13555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13589,7 +13593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A155">
         <v>154</v>
       </c>
@@ -13627,7 +13631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A156">
         <v>155</v>
       </c>
@@ -13665,7 +13669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A157">
         <v>156</v>
       </c>
@@ -13703,7 +13707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A158">
         <v>157</v>
       </c>
@@ -13741,7 +13745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A159">
         <v>158</v>
       </c>
@@ -13779,7 +13783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A160">
         <v>159</v>
       </c>
@@ -13817,7 +13821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A161">
         <v>160</v>
       </c>
@@ -13855,7 +13859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A162">
         <v>161</v>
       </c>
@@ -13893,7 +13897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A163">
         <v>162</v>
       </c>
@@ -13931,7 +13935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A164">
         <v>163</v>
       </c>
@@ -13969,7 +13973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A165">
         <v>164</v>
       </c>
@@ -14007,7 +14011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A166">
         <v>165</v>
       </c>
@@ -14045,7 +14049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A167">
         <v>166</v>
       </c>
@@ -14083,7 +14087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A168">
         <v>167</v>
       </c>
@@ -14121,7 +14125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14159,7 +14163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A170">
         <v>169</v>
       </c>
@@ -14197,7 +14201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A171">
         <v>170</v>
       </c>
@@ -14235,7 +14239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A172">
         <v>171</v>
       </c>
@@ -14273,7 +14277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A173">
         <v>172</v>
       </c>
@@ -14311,7 +14315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A174">
         <v>173</v>
       </c>
@@ -14349,7 +14353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A175">
         <v>174</v>
       </c>
@@ -14387,7 +14391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A176">
         <v>175</v>
       </c>
@@ -14425,7 +14429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A177">
         <v>176</v>
       </c>
@@ -14463,7 +14467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A178">
         <v>177</v>
       </c>
@@ -14501,7 +14505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A179">
         <v>178</v>
       </c>
@@ -14539,7 +14543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A180">
         <v>179</v>
       </c>
@@ -14577,7 +14581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A181">
         <v>180</v>
       </c>
@@ -14615,7 +14619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A182">
         <v>181</v>
       </c>
@@ -14653,7 +14657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A183">
         <v>182</v>
       </c>
@@ -14691,7 +14695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A184">
         <v>183</v>
       </c>
@@ -14729,7 +14733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A185">
         <v>184</v>
       </c>
@@ -14767,7 +14771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A186">
         <v>185</v>
       </c>
@@ -14805,7 +14809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A187">
         <v>186</v>
       </c>
@@ -14843,7 +14847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A188">
         <v>187</v>
       </c>
@@ -14881,7 +14885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14919,7 +14923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A190">
         <v>189</v>
       </c>
@@ -14957,7 +14961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A191">
         <v>190</v>
       </c>
@@ -14995,7 +14999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A192">
         <v>191</v>
       </c>
@@ -15033,7 +15037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A193">
         <v>192</v>
       </c>
@@ -15071,7 +15075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A194">
         <v>193</v>
       </c>
@@ -15109,7 +15113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A195">
         <v>194</v>
       </c>
@@ -15147,7 +15151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A196">
         <v>195</v>
       </c>
@@ -15185,7 +15189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A197">
         <v>196</v>
       </c>
@@ -15223,7 +15227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A198">
         <v>197</v>
       </c>
@@ -15261,7 +15265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A199">
         <v>198</v>
       </c>
@@ -15299,7 +15303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A200">
         <v>199</v>
       </c>
@@ -15337,7 +15341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A201">
         <v>200</v>
       </c>
@@ -15375,7 +15379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A202">
         <v>201</v>
       </c>
@@ -15413,7 +15417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A203">
         <v>202</v>
       </c>
@@ -15451,7 +15455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A204">
         <v>203</v>
       </c>
@@ -15489,7 +15493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A205">
         <v>204</v>
       </c>
@@ -15527,7 +15531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A206">
         <v>205</v>
       </c>
@@ -15565,7 +15569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A207">
         <v>206</v>
       </c>
@@ -15603,7 +15607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A208">
         <v>207</v>
       </c>
@@ -15641,7 +15645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A209">
         <v>208</v>
       </c>
@@ -15679,7 +15683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A210">
         <v>209</v>
       </c>
@@ -15717,7 +15721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A211">
         <v>210</v>
       </c>
@@ -15755,7 +15759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A212">
         <v>211</v>
       </c>
@@ -15793,7 +15797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A213">
         <v>212</v>
       </c>
@@ -15831,7 +15835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A214">
         <v>213</v>
       </c>
@@ -15869,7 +15873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A215">
         <v>214</v>
       </c>
@@ -15907,7 +15911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A216">
         <v>215</v>
       </c>
@@ -15945,7 +15949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A217">
         <v>216</v>
       </c>
@@ -15983,7 +15987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A218">
         <v>217</v>
       </c>
@@ -16021,7 +16025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A219">
         <v>218</v>
       </c>
@@ -16059,7 +16063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A220">
         <v>219</v>
       </c>
@@ -16097,7 +16101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A221">
         <v>220</v>
       </c>
@@ -16135,7 +16139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A222">
         <v>221</v>
       </c>
@@ -16173,7 +16177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A223">
         <v>222</v>
       </c>
@@ -16211,7 +16215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A224">
         <v>223</v>
       </c>
@@ -16249,7 +16253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A225">
         <v>224</v>
       </c>
@@ -16287,7 +16291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A226">
         <v>225</v>
       </c>
@@ -16325,7 +16329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A227">
         <v>226</v>
       </c>
@@ -16363,7 +16367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A228">
         <v>227</v>
       </c>
@@ -16401,7 +16405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A229">
         <v>228</v>
       </c>
@@ -16439,7 +16443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A230">
         <v>229</v>
       </c>
@@ -16477,7 +16481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A231">
         <v>230</v>
       </c>
@@ -16515,7 +16519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A232">
         <v>231</v>
       </c>
@@ -16553,7 +16557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A233">
         <v>232</v>
       </c>
@@ -16591,7 +16595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A234">
         <v>233</v>
       </c>
@@ -16629,7 +16633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A235">
         <v>234</v>
       </c>
@@ -16667,7 +16671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A236">
         <v>235</v>
       </c>
@@ -16705,7 +16709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A237">
         <v>236</v>
       </c>
@@ -16743,7 +16747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A238">
         <v>237</v>
       </c>
@@ -16781,7 +16785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A239">
         <v>238</v>
       </c>
@@ -16819,7 +16823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A240">
         <v>239</v>
       </c>
@@ -16857,7 +16861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A241">
         <v>240</v>
       </c>
@@ -16895,7 +16899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A242">
         <v>241</v>
       </c>
@@ -16933,7 +16937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A243">
         <v>242</v>
       </c>
@@ -16971,7 +16975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A244">
         <v>243</v>
       </c>
@@ -17009,7 +17013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A245">
         <v>244</v>
       </c>
@@ -17047,7 +17051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A246">
         <v>245</v>
       </c>
@@ -17085,7 +17089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A247">
         <v>246</v>
       </c>
@@ -17123,7 +17127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A248">
         <v>247</v>
       </c>
@@ -17161,7 +17165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A249">
         <v>248</v>
       </c>
@@ -17199,7 +17203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A250">
         <v>249</v>
       </c>
@@ -17237,7 +17241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A251">
         <v>250</v>
       </c>
@@ -17275,7 +17279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A252">
         <v>251</v>
       </c>
@@ -17313,7 +17317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A253">
         <v>252</v>
       </c>
@@ -17351,7 +17355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A254">
         <v>253</v>
       </c>
@@ -17389,7 +17393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A255">
         <v>254</v>
       </c>
@@ -17427,7 +17431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A256">
         <v>255</v>
       </c>
@@ -17465,7 +17469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A257">
         <v>256</v>
       </c>
@@ -17503,7 +17507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A258">
         <v>257</v>
       </c>
@@ -17541,7 +17545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A259">
         <v>258</v>
       </c>
@@ -17579,7 +17583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A260">
         <v>259</v>
       </c>
@@ -17617,7 +17621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A261">
         <v>260</v>
       </c>
@@ -17655,7 +17659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A262">
         <v>261</v>
       </c>
@@ -17693,7 +17697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A263">
         <v>262</v>
       </c>
@@ -17731,7 +17735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A264">
         <v>263</v>
       </c>
@@ -17769,7 +17773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A265">
         <v>264</v>
       </c>
@@ -17807,7 +17811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A266">
         <v>265</v>
       </c>
@@ -17845,7 +17849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A267">
         <v>266</v>
       </c>
@@ -17883,7 +17887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A268">
         <v>267</v>
       </c>
@@ -17921,7 +17925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A269">
         <v>268</v>
       </c>
@@ -17959,7 +17963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A270">
         <v>269</v>
       </c>
@@ -17997,7 +18001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A271">
         <v>270</v>
       </c>
@@ -18035,7 +18039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A272">
         <v>271</v>
       </c>
@@ -18073,7 +18077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A273">
         <v>272</v>
       </c>
@@ -18111,7 +18115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A274">
         <v>273</v>
       </c>
@@ -18149,7 +18153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A275">
         <v>274</v>
       </c>
@@ -18187,7 +18191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A276">
         <v>275</v>
       </c>
@@ -18225,7 +18229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A277">
         <v>276</v>
       </c>
@@ -18263,7 +18267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A278">
         <v>277</v>
       </c>
@@ -18301,7 +18305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A279">
         <v>278</v>
       </c>
@@ -18339,7 +18343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A280">
         <v>279</v>
       </c>
@@ -18377,7 +18381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A281">
         <v>280</v>
       </c>
@@ -18415,7 +18419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A282">
         <v>281</v>
       </c>
@@ -18453,7 +18457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A283">
         <v>282</v>
       </c>
@@ -18491,7 +18495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A284">
         <v>283</v>
       </c>
@@ -18529,7 +18533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A285">
         <v>284</v>
       </c>
@@ -18567,7 +18571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A286">
         <v>285</v>
       </c>
@@ -18605,7 +18609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A287">
         <v>286</v>
       </c>
@@ -18643,7 +18647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A288">
         <v>287</v>
       </c>
@@ -18681,7 +18685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A289">
         <v>288</v>
       </c>
@@ -18719,7 +18723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A290">
         <v>289</v>
       </c>
@@ -18757,7 +18761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A291">
         <v>290</v>
       </c>
@@ -18795,7 +18799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A292">
         <v>291</v>
       </c>
@@ -18833,7 +18837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A293">
         <v>292</v>
       </c>
@@ -18871,7 +18875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A294">
         <v>293</v>
       </c>
@@ -18909,7 +18913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A295">
         <v>294</v>
       </c>
@@ -18947,7 +18951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A296">
         <v>295</v>
       </c>
@@ -18985,7 +18989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A297">
         <v>296</v>
       </c>
@@ -19023,7 +19027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A298">
         <v>297</v>
       </c>
@@ -19061,7 +19065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A299">
         <v>298</v>
       </c>
@@ -19099,7 +19103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A300">
         <v>299</v>
       </c>
@@ -19137,7 +19141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A301">
         <v>300</v>
       </c>
@@ -19175,7 +19179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A302">
         <v>301</v>
       </c>
@@ -19213,7 +19217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A303">
         <v>302</v>
       </c>
@@ -19251,7 +19255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A304">
         <v>303</v>
       </c>
@@ -19289,7 +19293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A305">
         <v>304</v>
       </c>
@@ -19327,7 +19331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A306">
         <v>305</v>
       </c>
@@ -19365,7 +19369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A307">
         <v>306</v>
       </c>
@@ -19403,7 +19407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A308">
         <v>307</v>
       </c>
@@ -19441,7 +19445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A309">
         <v>308</v>
       </c>
@@ -19479,7 +19483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A310">
         <v>309</v>
       </c>
@@ -19517,7 +19521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A311">
         <v>310</v>
       </c>
@@ -19555,7 +19559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A312">
         <v>311</v>
       </c>
@@ -19593,7 +19597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A313">
         <v>312</v>
       </c>
@@ -19631,7 +19635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A314">
         <v>313</v>
       </c>
@@ -19669,7 +19673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A315">
         <v>314</v>
       </c>
@@ -19707,7 +19711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A316">
         <v>315</v>
       </c>
@@ -19745,7 +19749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A317">
         <v>316</v>
       </c>
@@ -19783,7 +19787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A318">
         <v>317</v>
       </c>
@@ -19821,7 +19825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A319">
         <v>318</v>
       </c>
@@ -19859,7 +19863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A320">
         <v>319</v>
       </c>
@@ -19897,7 +19901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A321">
         <v>320</v>
       </c>
@@ -19935,7 +19939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A322">
         <v>321</v>
       </c>
@@ -19973,7 +19977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A323">
         <v>322</v>
       </c>
@@ -20011,7 +20015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A324">
         <v>323</v>
       </c>
@@ -20049,7 +20053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A325">
         <v>324</v>
       </c>
@@ -20087,7 +20091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A326">
         <v>325</v>
       </c>
@@ -20125,7 +20129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A327">
         <v>326</v>
       </c>
@@ -20163,7 +20167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A328">
         <v>327</v>
       </c>
@@ -20201,7 +20205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A329">
         <v>328</v>
       </c>
@@ -20239,7 +20243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A330">
         <v>329</v>
       </c>
@@ -20277,7 +20281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A331">
         <v>330</v>
       </c>
@@ -20315,7 +20319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A332">
         <v>331</v>
       </c>
@@ -20353,7 +20357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A333">
         <v>332</v>
       </c>
@@ -20391,7 +20395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A334">
         <v>333</v>
       </c>
@@ -20429,7 +20433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A335">
         <v>334</v>
       </c>
@@ -20467,7 +20471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A336">
         <v>335</v>
       </c>
@@ -20505,7 +20509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A337">
         <v>336</v>
       </c>
@@ -20543,7 +20547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A338">
         <v>337</v>
       </c>
@@ -20581,7 +20585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A339">
         <v>338</v>
       </c>
@@ -20619,7 +20623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A340">
         <v>339</v>
       </c>
@@ -20657,7 +20661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A341">
         <v>340</v>
       </c>
@@ -20695,7 +20699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A342">
         <v>341</v>
       </c>
@@ -20733,7 +20737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A343">
         <v>342</v>
       </c>
@@ -20771,7 +20775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A344">
         <v>343</v>
       </c>
@@ -20809,7 +20813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A345">
         <v>344</v>
       </c>
@@ -20847,7 +20851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A346">
         <v>345</v>
       </c>
@@ -20885,7 +20889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A347">
         <v>346</v>
       </c>
@@ -20923,7 +20927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A348">
         <v>347</v>
       </c>
@@ -20961,7 +20965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A349">
         <v>348</v>
       </c>
@@ -20999,7 +21003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A350">
         <v>349</v>
       </c>
@@ -21037,7 +21041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A351">
         <v>350</v>
       </c>
@@ -21075,7 +21079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A352">
         <v>351</v>
       </c>
@@ -21113,7 +21117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A353">
         <v>352</v>
       </c>
@@ -21151,7 +21155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A354">
         <v>353</v>
       </c>
@@ -21189,7 +21193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A355">
         <v>354</v>
       </c>
@@ -21227,7 +21231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A356">
         <v>355</v>
       </c>
@@ -21265,7 +21269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A357">
         <v>356</v>
       </c>
@@ -21303,7 +21307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A358">
         <v>357</v>
       </c>
@@ -21341,7 +21345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A359">
         <v>358</v>
       </c>
@@ -21379,7 +21383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A360">
         <v>359</v>
       </c>
@@ -21417,7 +21421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A361">
         <v>360</v>
       </c>
@@ -21455,7 +21459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A362">
         <v>361</v>
       </c>
@@ -21493,7 +21497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A363">
         <v>362</v>
       </c>
@@ -21531,7 +21535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A364">
         <v>363</v>
       </c>
@@ -21569,7 +21573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A365">
         <v>364</v>
       </c>
@@ -21607,7 +21611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A366">
         <v>365</v>
       </c>
@@ -21645,7 +21649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A367">
         <v>366</v>
       </c>
@@ -21683,7 +21687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A368">
         <v>367</v>
       </c>
@@ -21721,7 +21725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A369">
         <v>368</v>
       </c>
@@ -21759,7 +21763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A370">
         <v>369</v>
       </c>
@@ -21797,7 +21801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A371">
         <v>370</v>
       </c>
@@ -21835,7 +21839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A372">
         <v>371</v>
       </c>
@@ -21873,7 +21877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A373">
         <v>372</v>
       </c>
@@ -21911,7 +21915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A374">
         <v>373</v>
       </c>
@@ -21949,7 +21953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A375">
         <v>374</v>
       </c>
@@ -21987,7 +21991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A376">
         <v>375</v>
       </c>
@@ -22025,7 +22029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A377">
         <v>376</v>
       </c>
@@ -22063,7 +22067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A378">
         <v>377</v>
       </c>
@@ -22101,7 +22105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A379">
         <v>378</v>
       </c>
@@ -22139,7 +22143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A380">
         <v>379</v>
       </c>
@@ -22177,7 +22181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A381">
         <v>380</v>
       </c>
@@ -22215,7 +22219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A382">
         <v>381</v>
       </c>
@@ -22253,7 +22257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A383">
         <v>382</v>
       </c>
@@ -22291,7 +22295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A384">
         <v>383</v>
       </c>
@@ -22329,7 +22333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A385">
         <v>384</v>
       </c>
@@ -22367,7 +22371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A386">
         <v>385</v>
       </c>
@@ -22405,7 +22409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A387">
         <v>386</v>
       </c>
@@ -22443,7 +22447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A388">
         <v>387</v>
       </c>
@@ -22481,7 +22485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A389">
         <v>388</v>
       </c>
@@ -22519,7 +22523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A390">
         <v>389</v>
       </c>
@@ -22557,7 +22561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A391">
         <v>390</v>
       </c>
@@ -22595,7 +22599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A392">
         <v>391</v>
       </c>
@@ -22633,7 +22637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A393">
         <v>392</v>
       </c>
@@ -22671,7 +22675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A394">
         <v>393</v>
       </c>
@@ -22709,7 +22713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A395">
         <v>394</v>
       </c>
@@ -22747,7 +22751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A396">
         <v>395</v>
       </c>
@@ -22785,7 +22789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A397">
         <v>396</v>
       </c>
@@ -22823,7 +22827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A398">
         <v>397</v>
       </c>
@@ -22861,7 +22865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A399">
         <v>398</v>
       </c>
@@ -22899,7 +22903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A400">
         <v>399</v>
       </c>
@@ -22937,7 +22941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A401">
         <v>400</v>
       </c>
@@ -22975,7 +22979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A402">
         <v>401</v>
       </c>
@@ -23013,7 +23017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A403">
         <v>402</v>
       </c>
@@ -23051,7 +23055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A404">
         <v>403</v>
       </c>
@@ -23089,7 +23093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A405">
         <v>404</v>
       </c>
@@ -23127,7 +23131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A406">
         <v>405</v>
       </c>
@@ -23165,7 +23169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A407">
         <v>406</v>
       </c>
@@ -23203,7 +23207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A408">
         <v>407</v>
       </c>
@@ -23241,7 +23245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A409">
         <v>408</v>
       </c>
@@ -23279,7 +23283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A410">
         <v>409</v>
       </c>
@@ -23317,7 +23321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A411">
         <v>410</v>
       </c>
@@ -23355,7 +23359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A412">
         <v>411</v>
       </c>
@@ -23393,7 +23397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A413">
         <v>412</v>
       </c>
@@ -23431,7 +23435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A414">
         <v>413</v>
       </c>
@@ -23469,7 +23473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A415">
         <v>414</v>
       </c>
@@ -23507,7 +23511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A416">
         <v>415</v>
       </c>
@@ -23545,7 +23549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A417">
         <v>416</v>
       </c>
@@ -23583,7 +23587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A418">
         <v>417</v>
       </c>
@@ -23621,7 +23625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A419">
         <v>418</v>
       </c>
@@ -23659,7 +23663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A420">
         <v>419</v>
       </c>
@@ -23697,7 +23701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A421">
         <v>420</v>
       </c>
@@ -23735,7 +23739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A422">
         <v>421</v>
       </c>
@@ -23773,7 +23777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A423">
         <v>422</v>
       </c>
@@ -23811,7 +23815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A424">
         <v>423</v>
       </c>
@@ -23849,7 +23853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A425">
         <v>424</v>
       </c>
@@ -23887,7 +23891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A426">
         <v>425</v>
       </c>
@@ -23925,7 +23929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A427">
         <v>426</v>
       </c>
@@ -23963,7 +23967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A428">
         <v>427</v>
       </c>
@@ -24001,7 +24005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A429">
         <v>428</v>
       </c>
@@ -24039,7 +24043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A430">
         <v>429</v>
       </c>
@@ -24077,7 +24081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A431">
         <v>430</v>
       </c>
@@ -24115,7 +24119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A432">
         <v>431</v>
       </c>
@@ -24153,7 +24157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A433">
         <v>432</v>
       </c>
@@ -24191,7 +24195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A434">
         <v>433</v>
       </c>
@@ -24229,7 +24233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A435">
         <v>434</v>
       </c>
@@ -24267,7 +24271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A436">
         <v>435</v>
       </c>
@@ -24305,7 +24309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A437">
         <v>436</v>
       </c>
@@ -24343,7 +24347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A438">
         <v>437</v>
       </c>
@@ -24381,7 +24385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A439">
         <v>438</v>
       </c>
@@ -24419,7 +24423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A440">
         <v>439</v>
       </c>
@@ -24457,7 +24461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A441">
         <v>440</v>
       </c>
@@ -24495,7 +24499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A442">
         <v>441</v>
       </c>
@@ -24533,7 +24537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A443">
         <v>442</v>
       </c>
@@ -24571,7 +24575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A444">
         <v>443</v>
       </c>
@@ -24609,7 +24613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A445">
         <v>444</v>
       </c>
@@ -24647,7 +24651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A446">
         <v>445</v>
       </c>
@@ -24685,7 +24689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A447">
         <v>446</v>
       </c>
@@ -24723,7 +24727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A448">
         <v>447</v>
       </c>
@@ -24761,7 +24765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A449">
         <v>448</v>
       </c>
@@ -24799,7 +24803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A450">
         <v>449</v>
       </c>
@@ -24837,7 +24841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A451">
         <v>450</v>
       </c>
@@ -24875,7 +24879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A452">
         <v>451</v>
       </c>
@@ -24913,7 +24917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A453">
         <v>452</v>
       </c>
@@ -24951,7 +24955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A454">
         <v>453</v>
       </c>
@@ -24989,7 +24993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A455">
         <v>454</v>
       </c>
@@ -25027,7 +25031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A456">
         <v>455</v>
       </c>
@@ -25065,7 +25069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A457">
         <v>456</v>
       </c>
@@ -25103,7 +25107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A458">
         <v>457</v>
       </c>
@@ -25141,7 +25145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A459">
         <v>458</v>
       </c>
@@ -25179,7 +25183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A460">
         <v>459</v>
       </c>
@@ -25217,7 +25221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A461">
         <v>460</v>
       </c>
@@ -25255,7 +25259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A462">
         <v>461</v>
       </c>
@@ -25293,7 +25297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A463">
         <v>462</v>
       </c>
@@ -25331,7 +25335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A464">
         <v>463</v>
       </c>
@@ -25369,7 +25373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A465">
         <v>464</v>
       </c>
@@ -25407,7 +25411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A466">
         <v>465</v>
       </c>
@@ -25445,7 +25449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A467">
         <v>466</v>
       </c>
@@ -25483,7 +25487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A468">
         <v>467</v>
       </c>
@@ -25521,7 +25525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A469">
         <v>468</v>
       </c>
@@ -25559,7 +25563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A470">
         <v>469</v>
       </c>
@@ -25597,7 +25601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A471">
         <v>470</v>
       </c>
@@ -25635,7 +25639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A472">
         <v>471</v>
       </c>
@@ -25673,7 +25677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A473">
         <v>472</v>
       </c>
@@ -25711,7 +25715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A474">
         <v>473</v>
       </c>
@@ -25749,7 +25753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A475">
         <v>474</v>
       </c>
@@ -25787,7 +25791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A476">
         <v>475</v>
       </c>
@@ -25825,7 +25829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A477">
         <v>476</v>
       </c>
@@ -25863,7 +25867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A478">
         <v>477</v>
       </c>
@@ -25901,7 +25905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A479">
         <v>478</v>
       </c>
@@ -25939,7 +25943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A480">
         <v>479</v>
       </c>
@@ -25977,7 +25981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A481">
         <v>480</v>
       </c>
@@ -26015,7 +26019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A482">
         <v>481</v>
       </c>
@@ -26053,7 +26057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A483">
         <v>482</v>
       </c>
@@ -26091,7 +26095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A484">
         <v>483</v>
       </c>
@@ -26129,7 +26133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A485">
         <v>484</v>
       </c>
@@ -26167,7 +26171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A486">
         <v>485</v>
       </c>
@@ -26205,7 +26209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A487">
         <v>486</v>
       </c>
@@ -26243,7 +26247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A488">
         <v>487</v>
       </c>
@@ -26281,7 +26285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A489">
         <v>488</v>
       </c>
@@ -26319,7 +26323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A490">
         <v>489</v>
       </c>
@@ -26357,7 +26361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A491">
         <v>490</v>
       </c>
@@ -26395,7 +26399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A492">
         <v>491</v>
       </c>
@@ -26433,7 +26437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A493">
         <v>492</v>
       </c>
@@ -26471,7 +26475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A494">
         <v>493</v>
       </c>
@@ -26509,7 +26513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A495">
         <v>494</v>
       </c>
@@ -26547,7 +26551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A496">
         <v>495</v>
       </c>
@@ -26585,7 +26589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A497">
         <v>496</v>
       </c>
@@ -26623,7 +26627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A498">
         <v>497</v>
       </c>
@@ -26661,7 +26665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A499">
         <v>498</v>
       </c>
@@ -26699,7 +26703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A500">
         <v>499</v>
       </c>
@@ -26737,7 +26741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.9">
       <c r="A501">
         <v>500</v>
       </c>
@@ -26784,38 +26788,258 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473EED76-4FB4-4A56-BDD3-B1208FF8814E}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE116CAA-77DD-4A0E-9CD0-22F0C9517DDE}">
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5390625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.45703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.23046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3:E7">_xlfn.GROUPBY(sales[[#All],[category]], sales[[#All],[sales]], _xleta.SUM, 3)</f>
+        <v>category</v>
+      </c>
+      <c r="E3" t="str">
+        <v>sales</v>
+      </c>
+      <c r="G3" t="str" cm="1">
+        <f t="array" ref="G3:H7">_xlfn.PIVOTBY(sales[[#All],[category]], ,
+sales[[#All],[sales]],
+_xleta.SUM, 3)</f>
+        <v>category</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <v>sales</v>
+      </c>
+      <c r="S3" t="str" cm="1">
+        <f t="array" ref="S3:T6">_xlfn.PIVOTBY(sales[category], , sales[sales], _xleta.SUM)</f>
+        <v>Accessories</v>
+      </c>
+      <c r="T3" s="4">
+        <v>280575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
+        <v>280575</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="E4">
+        <v>280575</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="H4" s="4">
+        <v>280575</v>
+      </c>
+      <c r="S4" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="T4" s="4">
+        <v>209136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4">
+        <v>209136</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="E5">
+        <v>209136</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="H5" s="4">
+        <v>209136</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="T5" s="4">
+        <v>242079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>242079</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="E6">
+        <v>242079</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="H6" s="4">
+        <v>242079</v>
+      </c>
+      <c r="S6" t="str">
+        <v>Total</v>
+      </c>
+      <c r="T6" s="4">
+        <v>731790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4">
+        <v>731790</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Total</v>
+      </c>
+      <c r="E7">
+        <v>731790</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Total</v>
+      </c>
+      <c r="H7" s="4">
+        <v>731790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="D9" t="str" cm="1">
+        <f t="array" ref="D9:G12">_xlfn.PIVOTBY( , sales[[#All],[category]],
+sales[[#All],[sales]],
+_xleta.SUM, 3)</f>
+        <v>category</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="D10" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Total</v>
+      </c>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="D11" t="str">
+        <v>sales</v>
+      </c>
+      <c r="E11" t="str">
+        <v>sales</v>
+      </c>
+      <c r="F11" t="str">
+        <v>sales</v>
+      </c>
+      <c r="G11" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.9">
+      <c r="D12">
+        <v>280575</v>
+      </c>
+      <c r="E12">
+        <v>209136</v>
+      </c>
+      <c r="F12">
+        <v>242079</v>
+      </c>
+      <c r="G12">
+        <v>731790</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473EED76-4FB4-4A56-BDD3-B1208FF8814E}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
+  <cols>
+    <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.9">
       <c r="A1" t="str" cm="1">
-        <f t="array" ref="A1:J17">_xlfn.PIVOTBY(sales[[#All],[country]:[customer_gender]],
+        <f t="array" ref="A1:E10">_xlfn.PIVOTBY( sales[[#All],[country]],
 sales[[#All],[category]],
-sales[[#All],[quantity]:[sales]],
-_xlfn.HSTACK(_xleta.AVERAGE, _xleta.SUM), 3)</f>
+sales[[#All],[sales]],
+_xleta.SUM, 3)</f>
         <v/>
       </c>
       <c r="B1" t="str">
+        <v>category</v>
+      </c>
+      <c r="C1" t="str">
         <v/>
-      </c>
-      <c r="C1" t="str">
-        <v>category</v>
       </c>
       <c r="D1" t="str">
         <v/>
@@ -26823,540 +27047,166 @@
       <c r="E1" t="str">
         <v/>
       </c>
-      <c r="F1" t="str">
-        <v/>
-      </c>
-      <c r="G1" t="str">
-        <v/>
-      </c>
-      <c r="H1" t="str">
-        <v/>
-      </c>
-      <c r="I1" t="str">
-        <v/>
-      </c>
-      <c r="J1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.9">
       <c r="A2" t="str">
         <v/>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>Accessories</v>
       </c>
       <c r="C2" t="str">
-        <v>Accessories</v>
+        <v>Clothing</v>
       </c>
       <c r="D2" t="str">
-        <v>Accessories</v>
+        <v>Electronics</v>
       </c>
       <c r="E2" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="I2" t="str">
         <v>Total</v>
       </c>
-      <c r="J2" t="str">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="A3" t="str">
+        <v>country</v>
+      </c>
+      <c r="B3" t="str">
+        <v>sales</v>
+      </c>
+      <c r="C3" t="str">
+        <v>sales</v>
+      </c>
+      <c r="D3" t="str">
+        <v>sales</v>
+      </c>
+      <c r="E3" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="A4" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="B4">
+        <v>37384</v>
+      </c>
+      <c r="C4">
+        <v>31291</v>
+      </c>
+      <c r="D4">
+        <v>45992</v>
+      </c>
+      <c r="E4">
+        <v>114667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="A5" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="B5">
+        <v>56126</v>
+      </c>
+      <c r="C5">
+        <v>49508</v>
+      </c>
+      <c r="D5">
+        <v>32594</v>
+      </c>
+      <c r="E5">
+        <v>138228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="A6" t="str">
+        <v>France</v>
+      </c>
+      <c r="B6">
+        <v>39300</v>
+      </c>
+      <c r="C6">
+        <v>29578</v>
+      </c>
+      <c r="D6">
+        <v>34912</v>
+      </c>
+      <c r="E6">
+        <v>103790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="A7" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="B7">
+        <v>49756</v>
+      </c>
+      <c r="C7">
+        <v>33187</v>
+      </c>
+      <c r="D7">
+        <v>45052</v>
+      </c>
+      <c r="E7">
+        <v>127995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="A8" t="str">
+        <v>UK</v>
+      </c>
+      <c r="B8">
+        <v>47417</v>
+      </c>
+      <c r="C8">
+        <v>33206</v>
+      </c>
+      <c r="D8">
+        <v>27826</v>
+      </c>
+      <c r="E8">
+        <v>108449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="A9" t="str">
+        <v>USA</v>
+      </c>
+      <c r="B9">
+        <v>50592</v>
+      </c>
+      <c r="C9">
+        <v>32366</v>
+      </c>
+      <c r="D9">
+        <v>55703</v>
+      </c>
+      <c r="E9">
+        <v>138661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="A10" t="str">
         <v>Total</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A3" t="str">
-        <v/>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="D3" t="str">
-        <v>SUM</v>
-      </c>
-      <c r="E3" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="F3" t="str">
-        <v>SUM</v>
-      </c>
-      <c r="G3" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="H3" t="str">
-        <v>SUM</v>
-      </c>
-      <c r="I3" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="J3" t="str">
-        <v>SUM</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A4" t="str">
-        <v>country</v>
-      </c>
-      <c r="B4" t="str">
-        <v>customer_gender</v>
-      </c>
-      <c r="C4" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="D4" t="str">
-        <v>sales</v>
-      </c>
-      <c r="E4" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="F4" t="str">
-        <v>sales</v>
-      </c>
-      <c r="G4" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="H4" t="str">
-        <v>sales</v>
-      </c>
-      <c r="I4" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="J4" t="str">
-        <v>sales</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A5" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C5">
-        <v>2.0714285714285716</v>
-      </c>
-      <c r="D5">
-        <v>17701</v>
-      </c>
-      <c r="E5">
-        <v>2.75</v>
-      </c>
-      <c r="F5">
-        <v>16669</v>
-      </c>
-      <c r="G5">
-        <v>2.1875</v>
-      </c>
-      <c r="H5">
-        <v>20803</v>
-      </c>
-      <c r="I5">
-        <v>2.3095238095238093</v>
-      </c>
-      <c r="J5">
-        <v>55173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A6" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Male</v>
-      </c>
-      <c r="C6">
-        <v>2.2777777777777777</v>
-      </c>
-      <c r="D6">
-        <v>19683</v>
-      </c>
-      <c r="E6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F6">
-        <v>14622</v>
-      </c>
-      <c r="G6">
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="H6">
-        <v>25189</v>
-      </c>
-      <c r="I6">
-        <v>2.4761904761904763</v>
-      </c>
-      <c r="J6">
-        <v>59494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A7" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C7">
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="D7">
-        <v>31902</v>
-      </c>
-      <c r="E7">
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="F7">
-        <v>28613</v>
-      </c>
-      <c r="G7">
-        <v>2.6</v>
-      </c>
-      <c r="H7">
-        <v>12630</v>
-      </c>
-      <c r="I7">
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="J7">
-        <v>73145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A8" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Male</v>
-      </c>
-      <c r="C8">
-        <v>2.5625</v>
-      </c>
-      <c r="D8">
-        <v>24224</v>
-      </c>
-      <c r="E8">
-        <v>2.4</v>
-      </c>
-      <c r="F8">
-        <v>20895</v>
-      </c>
-      <c r="G8">
-        <v>2.6923076923076925</v>
-      </c>
-      <c r="H8">
-        <v>19964</v>
-      </c>
-      <c r="I8">
-        <v>2.5454545454545454</v>
-      </c>
-      <c r="J8">
-        <v>65083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A9" t="str">
-        <v>France</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C9">
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="D9">
-        <v>19316</v>
-      </c>
-      <c r="E9">
-        <v>2.6923076923076925</v>
-      </c>
-      <c r="F9">
-        <v>16285</v>
-      </c>
-      <c r="G9">
-        <v>2.5</v>
-      </c>
-      <c r="H9">
-        <v>22355</v>
-      </c>
-      <c r="I9">
-        <v>2.5319148936170213</v>
-      </c>
-      <c r="J9">
-        <v>57956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A10" t="str">
-        <v>France</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Male</v>
+      <c r="B10">
+        <v>280575</v>
       </c>
       <c r="C10">
-        <v>2.75</v>
+        <v>209136</v>
       </c>
       <c r="D10">
-        <v>19984</v>
+        <v>242079</v>
       </c>
       <c r="E10">
-        <v>2.3636363636363638</v>
-      </c>
-      <c r="F10">
-        <v>13293</v>
-      </c>
-      <c r="G10">
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="H10">
-        <v>12557</v>
-      </c>
-      <c r="I10">
-        <v>2.6470588235294117</v>
-      </c>
-      <c r="J10">
-        <v>45834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A11" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C11">
-        <v>2.5789473684210527</v>
-      </c>
-      <c r="D11">
-        <v>27841</v>
-      </c>
-      <c r="E11">
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="F11">
-        <v>12362</v>
-      </c>
-      <c r="G11">
-        <v>2.5</v>
-      </c>
-      <c r="H11">
-        <v>14255</v>
-      </c>
-      <c r="I11">
-        <v>2.5263157894736841</v>
-      </c>
-      <c r="J11">
-        <v>54458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A12" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Male</v>
-      </c>
-      <c r="C12">
-        <v>2.625</v>
-      </c>
-      <c r="D12">
-        <v>21915</v>
-      </c>
-      <c r="E12">
-        <v>2.8235294117647061</v>
-      </c>
-      <c r="F12">
-        <v>20825</v>
-      </c>
-      <c r="G12">
-        <v>2.6</v>
-      </c>
-      <c r="H12">
-        <v>30797</v>
-      </c>
-      <c r="I12">
-        <v>2.6792452830188678</v>
-      </c>
-      <c r="J12">
-        <v>73537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A13" t="str">
-        <v>UK</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C13">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="D13">
-        <v>10185</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>13422</v>
-      </c>
-      <c r="G13">
-        <v>2.4285714285714284</v>
-      </c>
-      <c r="H13">
-        <v>11228</v>
-      </c>
-      <c r="I13">
-        <v>2.6818181818181817</v>
-      </c>
-      <c r="J13">
-        <v>34835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A14" t="str">
-        <v>UK</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Male</v>
-      </c>
-      <c r="C14">
-        <v>2.6190476190476191</v>
-      </c>
-      <c r="D14">
-        <v>37232</v>
-      </c>
-      <c r="E14">
-        <v>2.5</v>
-      </c>
-      <c r="F14">
-        <v>19784</v>
-      </c>
-      <c r="G14">
-        <v>2.8</v>
-      </c>
-      <c r="H14">
-        <v>16598</v>
-      </c>
-      <c r="I14">
-        <v>2.6279069767441858</v>
-      </c>
-      <c r="J14">
-        <v>73614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A15" t="str">
-        <v>USA</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Female</v>
-      </c>
-      <c r="C15">
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="D15">
-        <v>19344</v>
-      </c>
-      <c r="E15">
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="F15">
-        <v>22090</v>
-      </c>
-      <c r="G15">
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="H15">
-        <v>23156</v>
-      </c>
-      <c r="I15">
-        <v>2.8</v>
-      </c>
-      <c r="J15">
-        <v>64590</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A16" t="str">
-        <v>USA</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Male</v>
-      </c>
-      <c r="C16">
-        <v>2.7647058823529411</v>
-      </c>
-      <c r="D16">
-        <v>31248</v>
-      </c>
-      <c r="E16">
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="F16">
-        <v>10276</v>
-      </c>
-      <c r="G16">
-        <v>2.5</v>
-      </c>
-      <c r="H16">
-        <v>32547</v>
-      </c>
-      <c r="I16">
-        <v>2.5434782608695654</v>
-      </c>
-      <c r="J16">
-        <v>74071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A17" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B17" t="str">
-        <v/>
-      </c>
-      <c r="C17">
-        <v>2.5527638190954773</v>
-      </c>
-      <c r="D17">
-        <v>280575</v>
-      </c>
-      <c r="E17">
-        <v>2.5547945205479454</v>
-      </c>
-      <c r="F17">
-        <v>209136</v>
-      </c>
-      <c r="G17">
-        <v>2.6193548387096772</v>
-      </c>
-      <c r="H17">
-        <v>242079</v>
-      </c>
-      <c r="I17">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="J17">
         <v>731790</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:J170">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>C$4="sales"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>C$4="quantity"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27364,1111 +27214,940 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045DAF5C-D537-4222-9D89-5CB67EEABD4B}">
-  <dimension ref="B2:F11"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="3" max="3" width="10.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.70703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5390625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.70703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:F11">_xlfn.PIVOTBY(sales[[#All],[country]],
+    <row r="1" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:J17">_xlfn.PIVOTBY(sales[[#All],[country]:[customer_gender]],
 sales[[#All],[category]],
-sales[[#All],[sales]],
-_xleta.PERCENTOF, 3, , , , , , 1)</f>
+sales[[#All],[quantity]:[sales]],
+_xlfn.HSTACK(_xleta.AVERAGE, _xleta.SUM), 3)</f>
         <v/>
       </c>
+      <c r="B1" t="str">
+        <v/>
+      </c>
+      <c r="C1" s="5" t="str">
+        <v>category</v>
+      </c>
+      <c r="D1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
+        <v/>
+      </c>
+      <c r="J1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
       <c r="C2" s="5" t="str">
-        <v>category</v>
+        <v>Accessories</v>
       </c>
       <c r="D2" s="5" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Total</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A3" t="str">
         <v/>
       </c>
-      <c r="E2" s="5" t="str">
-        <v/>
-      </c>
-      <c r="F2" s="5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B3" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Accessories</v>
+        <v>AVERAGE</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Clothing</v>
+        <v>SUM</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>Electronics</v>
+        <v>AVERAGE</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.7">
+        <v>SUM</v>
+      </c>
+      <c r="G3" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="H3" t="str">
+        <v>SUM</v>
+      </c>
+      <c r="I3" t="str">
+        <v>AVERAGE</v>
+      </c>
+      <c r="J3" t="str">
+        <v>SUM</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A4" t="str">
+        <v>country</v>
+      </c>
       <c r="B4" t="str">
-        <v>country</v>
+        <v>customer_gender</v>
       </c>
       <c r="C4" s="5" t="str">
-        <v>sales</v>
+        <v>quantity</v>
       </c>
       <c r="D4" s="5" t="str">
         <v>sales</v>
       </c>
       <c r="E4" s="5" t="str">
-        <v>sales</v>
+        <v>quantity</v>
       </c>
       <c r="F4" s="5" t="str">
         <v>sales</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="G4" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="H4" t="str">
+        <v>sales</v>
+      </c>
+      <c r="I4" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="J4" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A5" t="str">
+        <v>Australia</v>
+      </c>
       <c r="B5" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.0714285714285716</v>
+      </c>
+      <c r="D5" s="5">
+        <v>17701</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F5" s="5">
+        <v>16669</v>
+      </c>
+      <c r="G5">
+        <v>2.1875</v>
+      </c>
+      <c r="H5">
+        <v>20803</v>
+      </c>
+      <c r="I5">
+        <v>2.3095238095238093</v>
+      </c>
+      <c r="J5">
+        <v>55173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A6" t="str">
         <v>Australia</v>
       </c>
-      <c r="C5" s="5">
-        <v>0.32602230807468585</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.27288583463420163</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.40109185729111252</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B6" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.2777777777777777</v>
+      </c>
+      <c r="D6" s="5">
+        <v>19683</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6" s="5">
+        <v>14622</v>
+      </c>
+      <c r="G6">
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="H6">
+        <v>25189</v>
+      </c>
+      <c r="I6">
+        <v>2.4761904761904763</v>
+      </c>
+      <c r="J6">
+        <v>59494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A7" t="str">
         <v>Canada</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.40603929739271349</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.35816187747779032</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.23579882512949618</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B7" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="D7" s="5">
+        <v>31902</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.5555555555555554</v>
+      </c>
+      <c r="F7" s="5">
+        <v>28613</v>
+      </c>
+      <c r="G7">
+        <v>2.6</v>
+      </c>
+      <c r="H7">
+        <v>12630</v>
+      </c>
+      <c r="I7">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="J7">
+        <v>73145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A8" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.5625</v>
+      </c>
+      <c r="D8" s="5">
+        <v>24224</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="F8" s="5">
+        <v>20895</v>
+      </c>
+      <c r="G8">
+        <v>2.6923076923076925</v>
+      </c>
+      <c r="H8">
+        <v>19964</v>
+      </c>
+      <c r="I8">
+        <v>2.5454545454545454</v>
+      </c>
+      <c r="J8">
+        <v>65083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A9" t="str">
         <v>France</v>
       </c>
-      <c r="C7" s="5">
-        <v>0.3786491954908951</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.28497928509490317</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.33637151941420174</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B8" t="str">
+      <c r="B9" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="D9" s="5">
+        <v>19316</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.6923076923076925</v>
+      </c>
+      <c r="F9" s="5">
+        <v>16285</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <v>22355</v>
+      </c>
+      <c r="I9">
+        <v>2.5319148936170213</v>
+      </c>
+      <c r="J9">
+        <v>57956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A10" t="str">
+        <v>France</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="D10" s="5">
+        <v>19984</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.3636363636363638</v>
+      </c>
+      <c r="F10" s="5">
+        <v>13293</v>
+      </c>
+      <c r="G10">
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="H10">
+        <v>12557</v>
+      </c>
+      <c r="I10">
+        <v>2.6470588235294117</v>
+      </c>
+      <c r="J10">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A11" t="str">
         <v>Germany</v>
       </c>
-      <c r="C8" s="5">
-        <v>0.38873393491933278</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.25928356576428768</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.35198249931637954</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B9" t="str">
+      <c r="B11" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.5789473684210527</v>
+      </c>
+      <c r="D11" s="5">
+        <v>27841</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="F11" s="5">
+        <v>12362</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <v>14255</v>
+      </c>
+      <c r="I11">
+        <v>2.5263157894736841</v>
+      </c>
+      <c r="J11">
+        <v>54458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A12" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.625</v>
+      </c>
+      <c r="D12" s="5">
+        <v>21915</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.8235294117647061</v>
+      </c>
+      <c r="F12" s="5">
+        <v>20825</v>
+      </c>
+      <c r="G12">
+        <v>2.6</v>
+      </c>
+      <c r="H12">
+        <v>30797</v>
+      </c>
+      <c r="I12">
+        <v>2.6792452830188678</v>
+      </c>
+      <c r="J12">
+        <v>73537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A13" t="str">
         <v>UK</v>
       </c>
-      <c r="C9" s="5">
-        <v>0.43722855904618763</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.30619000636243765</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.25658143459137472</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B10" t="str">
+      <c r="B13" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10185</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>13422</v>
+      </c>
+      <c r="G13">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="H13">
+        <v>11228</v>
+      </c>
+      <c r="I13">
+        <v>2.6818181818181817</v>
+      </c>
+      <c r="J13">
+        <v>34835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A14" t="str">
+        <v>UK</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.6190476190476191</v>
+      </c>
+      <c r="D14" s="5">
+        <v>37232</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>19784</v>
+      </c>
+      <c r="G14">
+        <v>2.8</v>
+      </c>
+      <c r="H14">
+        <v>16598</v>
+      </c>
+      <c r="I14">
+        <v>2.6279069767441858</v>
+      </c>
+      <c r="J14">
+        <v>73614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A15" t="str">
         <v>USA</v>
       </c>
-      <c r="C10" s="5">
-        <v>0.36486106403386676</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.23341819257036947</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.40172074339576375</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="B11" t="str">
+      <c r="B15" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="D15" s="5">
+        <v>19344</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="F15" s="5">
+        <v>22090</v>
+      </c>
+      <c r="G15">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="H15">
+        <v>23156</v>
+      </c>
+      <c r="I15">
+        <v>2.8</v>
+      </c>
+      <c r="J15">
+        <v>64590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A16" t="str">
+        <v>USA</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Male</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.7647058823529411</v>
+      </c>
+      <c r="D16" s="5">
+        <v>31248</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10276</v>
+      </c>
+      <c r="G16">
+        <v>2.5</v>
+      </c>
+      <c r="H16">
+        <v>32547</v>
+      </c>
+      <c r="I16">
+        <v>2.5434782608695654</v>
+      </c>
+      <c r="J16">
+        <v>74071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.9">
+      <c r="A17" t="str">
         <v>Total</v>
       </c>
-      <c r="C11" s="5">
-        <v>0.38340917476325176</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.28578690607961299</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.33080391915713525</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" s="5">
+        <v>2.5527638190954773</v>
+      </c>
+      <c r="D17" s="5">
+        <v>280575</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.5547945205479454</v>
+      </c>
+      <c r="F17" s="5">
+        <v>209136</v>
+      </c>
+      <c r="G17">
+        <v>2.6193548387096772</v>
+      </c>
+      <c r="H17">
+        <v>242079</v>
+      </c>
+      <c r="I17">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="J17">
+        <v>731790</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE116CAA-77DD-4A0E-9CD0-22F0C9517DDE}">
-  <dimension ref="A1:S43"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="1" max="1" width="11.2890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="str" cm="1">
-        <f t="array" ref="D3:E7">_xlfn.PIVOTBY(sales[[#All],[category]], ,
-sales[[#All],[sales]],
-_xleta.SUM, 3)</f>
-        <v>category</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <v>sales</v>
-      </c>
-      <c r="I3" t="str" cm="1">
-        <f t="array" ref="I3:J7">_xlfn.GROUPBY(sales[[#All],[category]], sales[[#All],[sales]], _xleta.SUM, 3)</f>
-        <v>category</v>
-      </c>
-      <c r="J3" t="str">
-        <v>sales</v>
-      </c>
-      <c r="P3" t="str" cm="1">
-        <f t="array" ref="P3:Q6">_xlfn.PIVOTBY(sales[category], , sales[sales], _xleta.SUM)</f>
-        <v>Accessories</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>280575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4">
-        <v>280575</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="E4" s="4">
-        <v>280575</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="J4">
-        <v>280575</v>
-      </c>
-      <c r="P4" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>209136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4">
-        <v>209136</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="E5" s="4">
-        <v>209136</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="J5">
-        <v>209136</v>
-      </c>
-      <c r="P5" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>242079</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
-        <v>242079</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="E6" s="4">
-        <v>242079</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="J6">
-        <v>242079</v>
-      </c>
-      <c r="P6" t="str">
-        <v>Total</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>731790</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="4">
-        <v>731790</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Total</v>
-      </c>
-      <c r="E7" s="4">
-        <v>731790</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Total</v>
-      </c>
-      <c r="J7">
-        <v>731790</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="D15" t="str" cm="1">
-        <f t="array" ref="D15:E19">_xlfn.GROUPBY(sales[category], sales[sales], _xleta.SUM, 3)</f>
-        <v>Electronics</v>
-      </c>
-      <c r="E15" s="4">
-        <v>611</v>
-      </c>
-      <c r="I15" t="str" cm="1">
-        <f t="array" ref="I15:M22">_xlfn.PIVOTBY(sales[country], sales[category], sales[sales], _xleta.PERCENTOF)</f>
-        <v/>
-      </c>
-      <c r="J15" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="K15" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="L15" s="4" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="M15" t="str">
-        <v>Total</v>
-      </c>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.7">
-      <c r="D16" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="E16" s="4">
-        <v>280575</v>
-      </c>
-      <c r="I16" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="J16">
-        <v>0.1332406664884612</v>
-      </c>
-      <c r="K16">
-        <v>0.14962034274347794</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.18998756604249026</v>
-      </c>
-      <c r="M16">
-        <v>0.15669386026045723</v>
-      </c>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="D17" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="E17" s="4">
-        <v>209136</v>
-      </c>
-      <c r="I17" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="J17">
-        <v>0.20003920520359975</v>
-      </c>
-      <c r="K17">
-        <v>0.23672634075434168</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0.13464199703402607</v>
-      </c>
-      <c r="M17">
-        <v>0.18889025540113968</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="D18" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="E18" s="4">
-        <v>241468</v>
-      </c>
-      <c r="I18" t="str">
-        <v>France</v>
-      </c>
-      <c r="J18">
-        <v>0.1400695001336541</v>
-      </c>
-      <c r="K18">
-        <v>0.14142950042077881</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0.14421738358139286</v>
-      </c>
-      <c r="M18">
-        <v>0.14183030650869785</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="D19" t="str">
-        <v>Total</v>
-      </c>
-      <c r="E19" s="4">
-        <v>731179</v>
-      </c>
-      <c r="I19" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="J19">
-        <v>0.17733582820992605</v>
-      </c>
-      <c r="K19">
-        <v>0.15868621375564226</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0.18610453612250547</v>
-      </c>
-      <c r="M19">
-        <v>0.17490673553888411</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="I20" t="str">
-        <v>UK</v>
-      </c>
-      <c r="J20">
-        <v>0.16899937628085182</v>
-      </c>
-      <c r="K20">
-        <v>0.15877706372886544</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.11494594739733724</v>
-      </c>
-      <c r="M20">
-        <v>0.14819688708509271</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="I21" t="str">
-        <v>USA</v>
-      </c>
-      <c r="J21">
-        <v>0.18031542368350709</v>
-      </c>
-      <c r="K21">
-        <v>0.1547605385968939</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0.23010256982224811</v>
-      </c>
-      <c r="M21">
-        <v>0.18948195520572841</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="I22" t="str">
-        <v>Total</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="I24" t="str" cm="1">
-        <f t="array" ref="I24:Q31">_xlfn.PIVOTBY(sales[country], sales[category], sales[[quantity]:[sales]], _xleta.SUM)</f>
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="K24" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="L24" s="4" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="M24" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="N24" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="O24" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="P24" t="str">
-        <v>Total</v>
-      </c>
-      <c r="Q24" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="I25" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="J25">
-        <v>70</v>
-      </c>
-      <c r="K25">
-        <v>37384</v>
-      </c>
-      <c r="L25" s="4">
-        <v>56</v>
-      </c>
-      <c r="M25">
-        <v>31291</v>
-      </c>
-      <c r="N25">
-        <v>75</v>
-      </c>
-      <c r="O25">
-        <v>45992</v>
-      </c>
-      <c r="P25" t="str">
-        <v/>
-      </c>
-      <c r="Q25" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="I26" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="J26">
-        <v>95</v>
-      </c>
-      <c r="K26">
-        <v>56126</v>
-      </c>
-      <c r="L26" s="4">
-        <v>82</v>
-      </c>
-      <c r="M26">
-        <v>49508</v>
-      </c>
-      <c r="N26">
-        <v>61</v>
-      </c>
-      <c r="O26">
-        <v>32594</v>
-      </c>
-      <c r="P26" t="str">
-        <v/>
-      </c>
-      <c r="Q26" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="I27" t="str">
-        <v>France</v>
-      </c>
-      <c r="J27">
-        <v>88</v>
-      </c>
-      <c r="K27">
-        <v>39300</v>
-      </c>
-      <c r="L27" s="4">
-        <v>61</v>
-      </c>
-      <c r="M27">
-        <v>29578</v>
-      </c>
-      <c r="N27">
-        <v>60</v>
-      </c>
-      <c r="O27">
-        <v>34912</v>
-      </c>
-      <c r="P27" t="str">
-        <v/>
-      </c>
-      <c r="Q27" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="I28" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="J28">
-        <v>91</v>
-      </c>
-      <c r="K28">
-        <v>49756</v>
-      </c>
-      <c r="L28" s="4">
-        <v>70</v>
-      </c>
-      <c r="M28">
-        <v>33187</v>
-      </c>
-      <c r="N28">
-        <v>77</v>
-      </c>
-      <c r="O28">
-        <v>45052</v>
-      </c>
-      <c r="P28" t="str">
-        <v/>
-      </c>
-      <c r="Q28" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="I29" t="str">
-        <v>UK</v>
-      </c>
-      <c r="J29">
-        <v>79</v>
-      </c>
-      <c r="K29">
-        <v>47417</v>
-      </c>
-      <c r="L29" s="4">
-        <v>48</v>
-      </c>
-      <c r="M29">
-        <v>33206</v>
-      </c>
-      <c r="N29">
-        <v>45</v>
-      </c>
-      <c r="O29">
-        <v>27826</v>
-      </c>
-      <c r="P29" t="str">
-        <v/>
-      </c>
-      <c r="Q29" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="I30" t="str">
-        <v>USA</v>
-      </c>
-      <c r="J30">
-        <v>85</v>
-      </c>
-      <c r="K30">
-        <v>50592</v>
-      </c>
-      <c r="L30" s="4">
-        <v>56</v>
-      </c>
-      <c r="M30">
-        <v>32366</v>
-      </c>
-      <c r="N30">
-        <v>88</v>
-      </c>
-      <c r="O30">
-        <v>55703</v>
-      </c>
-      <c r="P30" t="str">
-        <v/>
-      </c>
-      <c r="Q30" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.7">
-      <c r="I31" t="str">
-        <v>Total</v>
-      </c>
-      <c r="J31">
-        <v>508</v>
-      </c>
-      <c r="K31">
-        <v>280575</v>
-      </c>
-      <c r="L31" s="4">
-        <v>373</v>
-      </c>
-      <c r="M31">
-        <v>209136</v>
-      </c>
-      <c r="N31">
-        <v>406</v>
-      </c>
-      <c r="O31">
-        <v>242079</v>
-      </c>
-      <c r="P31" t="str">
-        <v/>
-      </c>
-      <c r="Q31" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="9:17" x14ac:dyDescent="0.7">
-      <c r="I33" t="str" cm="1">
-        <f t="array" ref="I33:Q43">_xlfn.PIVOTBY(sales[[#All],[country]], sales[[#All],[category]], sales[[#All],[quantity]:[sales]], _xlfn.HSTACK(_xleta.AVERAGE, _xleta.SUM), 3)</f>
-        <v/>
-      </c>
-      <c r="J33" t="str">
-        <v>category</v>
-      </c>
-      <c r="K33" t="str">
-        <v/>
-      </c>
-      <c r="L33" s="4" t="str">
-        <v/>
-      </c>
-      <c r="M33" t="str">
-        <v/>
-      </c>
-      <c r="N33" t="str">
-        <v/>
-      </c>
-      <c r="O33" t="str">
-        <v/>
-      </c>
-      <c r="P33" t="str">
-        <v/>
-      </c>
-      <c r="Q33" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="9:17" x14ac:dyDescent="0.7">
-      <c r="I34" t="str">
-        <v/>
-      </c>
-      <c r="J34" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="K34" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="L34" s="4" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="M34" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="N34" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="O34" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="P34" t="str">
-        <v>Total</v>
-      </c>
-      <c r="Q34" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="35" spans="9:17" x14ac:dyDescent="0.7">
-      <c r="I35" t="str">
-        <v/>
-      </c>
-      <c r="J35" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="K35" t="str">
-        <v>SUM</v>
-      </c>
-      <c r="L35" s="4" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="M35" t="str">
-        <v>SUM</v>
-      </c>
-      <c r="N35" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="O35" t="str">
-        <v>SUM</v>
-      </c>
-      <c r="P35" t="str">
-        <v>AVERAGE</v>
-      </c>
-      <c r="Q35" t="str">
-        <v>SUM</v>
-      </c>
-    </row>
-    <row r="36" spans="9:17" x14ac:dyDescent="0.7">
-      <c r="I36" t="str">
-        <v>country</v>
-      </c>
-      <c r="J36" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="K36" t="str">
-        <v>sales</v>
-      </c>
-      <c r="L36" s="4" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="M36" t="str">
-        <v>sales</v>
-      </c>
-      <c r="N36" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="O36" t="str">
-        <v>sales</v>
-      </c>
-      <c r="P36" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="Q36" t="str">
-        <v>sales</v>
-      </c>
-    </row>
-    <row r="37" spans="9:17" x14ac:dyDescent="0.7">
-      <c r="I37" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="J37">
-        <v>2.1875</v>
-      </c>
-      <c r="K37">
-        <v>37384</v>
-      </c>
-      <c r="L37" s="4">
-        <v>2.5454545454545454</v>
-      </c>
-      <c r="M37">
-        <v>31291</v>
-      </c>
-      <c r="N37">
-        <v>2.5</v>
-      </c>
-      <c r="O37">
-        <v>45992</v>
-      </c>
-      <c r="P37">
-        <v>2.3928571428571428</v>
-      </c>
-      <c r="Q37">
-        <v>114667</v>
-      </c>
-    </row>
-    <row r="38" spans="9:17" x14ac:dyDescent="0.7">
-      <c r="I38" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="J38">
-        <v>2.5675675675675675</v>
-      </c>
-      <c r="K38">
-        <v>56126</v>
-      </c>
-      <c r="L38" s="4">
-        <v>2.4848484848484849</v>
-      </c>
-      <c r="M38">
-        <v>49508</v>
-      </c>
-      <c r="N38">
-        <v>2.652173913043478</v>
-      </c>
-      <c r="O38">
-        <v>32594</v>
-      </c>
-      <c r="P38">
-        <v>2.5591397849462365</v>
-      </c>
-      <c r="Q38">
-        <v>138228</v>
-      </c>
-    </row>
-    <row r="39" spans="9:17" x14ac:dyDescent="0.7">
-      <c r="I39" t="str">
-        <v>France</v>
-      </c>
-      <c r="J39">
-        <v>2.5882352941176472</v>
-      </c>
-      <c r="K39">
-        <v>39300</v>
-      </c>
-      <c r="L39" s="4">
-        <v>2.5416666666666665</v>
-      </c>
-      <c r="M39">
-        <v>29578</v>
-      </c>
-      <c r="N39">
-        <v>2.6086956521739131</v>
-      </c>
-      <c r="O39">
-        <v>34912</v>
-      </c>
-      <c r="P39">
-        <v>2.5802469135802468</v>
-      </c>
-      <c r="Q39">
-        <v>103790</v>
-      </c>
-    </row>
-    <row r="40" spans="9:17" x14ac:dyDescent="0.7">
-      <c r="I40" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="J40">
-        <v>2.6</v>
-      </c>
-      <c r="K40">
-        <v>49756</v>
-      </c>
-      <c r="L40" s="4">
-        <v>2.6923076923076925</v>
-      </c>
-      <c r="M40">
-        <v>33187</v>
-      </c>
-      <c r="N40">
-        <v>2.5666666666666669</v>
-      </c>
-      <c r="O40">
-        <v>45052</v>
-      </c>
-      <c r="P40">
-        <v>2.6153846153846154</v>
-      </c>
-      <c r="Q40">
-        <v>127995</v>
-      </c>
-    </row>
-    <row r="41" spans="9:17" x14ac:dyDescent="0.7">
-      <c r="I41" t="str">
-        <v>UK</v>
-      </c>
-      <c r="J41">
-        <v>2.6333333333333333</v>
-      </c>
-      <c r="K41">
-        <v>47417</v>
-      </c>
-      <c r="L41" s="4">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="M41">
-        <v>33206</v>
-      </c>
-      <c r="N41">
-        <v>2.6470588235294117</v>
-      </c>
-      <c r="O41">
-        <v>27826</v>
-      </c>
-      <c r="P41">
-        <v>2.6461538461538461</v>
-      </c>
-      <c r="Q41">
-        <v>108449</v>
-      </c>
-    </row>
-    <row r="42" spans="9:17" x14ac:dyDescent="0.7">
-      <c r="I42" t="str">
-        <v>USA</v>
-      </c>
-      <c r="J42">
-        <v>2.7419354838709675</v>
-      </c>
-      <c r="K42">
-        <v>50592</v>
-      </c>
-      <c r="L42" s="4">
-        <v>2.4347826086956523</v>
-      </c>
-      <c r="M42">
-        <v>32366</v>
-      </c>
-      <c r="N42">
-        <v>2.75</v>
-      </c>
-      <c r="O42">
-        <v>55703</v>
-      </c>
-      <c r="P42">
-        <v>2.6627906976744184</v>
-      </c>
-      <c r="Q42">
-        <v>138661</v>
-      </c>
-    </row>
-    <row r="43" spans="9:17" x14ac:dyDescent="0.7">
-      <c r="I43" t="str">
-        <v>Total</v>
-      </c>
-      <c r="J43">
-        <v>2.5527638190954773</v>
-      </c>
-      <c r="K43">
-        <v>280575</v>
-      </c>
-      <c r="L43" s="4">
-        <v>2.5547945205479454</v>
-      </c>
-      <c r="M43">
-        <v>209136</v>
-      </c>
-      <c r="N43">
-        <v>2.6193548387096772</v>
-      </c>
-      <c r="O43">
-        <v>242079</v>
-      </c>
-      <c r="P43">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="Q43">
-        <v>731790</v>
-      </c>
-    </row>
-  </sheetData>
+  <conditionalFormatting sqref="C5:J17">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>C$4="quantity"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>C$4="sales"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971DC12F-04F3-4D59-BE51-46CA3043EEE0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="23.7" x14ac:dyDescent="0.9"/>
+  <cols>
+    <col min="1" max="1" width="7.8984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="5"/>
+    <col min="7" max="7" width="7.8984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A1" s="5" t="str" cm="1">
+        <f t="array" ref="A1:E10">_xlfn.PIVOTBY(sales[[#All],[country]],
+sales[[#All],[category]],
+sales[[#All],[sales]],
+_xleta.PERCENTOF, 3)</f>
+        <v/>
+      </c>
+      <c r="B1" s="5" t="str">
+        <v>category</v>
+      </c>
+      <c r="C1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G1" s="5" t="str" cm="1">
+        <f t="array" ref="G1:K10">_xlfn.PIVOTBY(sales[[#All],[country]],
+sales[[#All],[category]],
+sales[[#All],[sales]],
+_xleta.PERCENTOF, 3, , , , , , 1)</f>
+        <v/>
+      </c>
+      <c r="H1" s="5" t="str">
+        <v>category</v>
+      </c>
+      <c r="I1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="K1" s="5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A2" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B2" s="5" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <v>Total</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H2" s="5" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="J2" s="5" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="K2" s="5" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A3" s="5" t="str">
+        <v>country</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <v>country</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <v>sales</v>
+      </c>
+      <c r="K3" s="5" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A4" s="5" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.1332406664884612</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.14962034274347794</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.18998756604249026</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.15669386026045723</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.32602230807468585</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.27288583463420163</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.40109185729111252</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A5" s="5" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.20003920520359975</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.23672634075434168</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.13464199703402607</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.18889025540113968</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.40603929739271349</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.35816187747779032</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.23579882512949618</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A6" s="5" t="str">
+        <v>France</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1400695001336541</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.14142950042077881</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.14421738358139286</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.14183030650869785</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <v>France</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.3786491954908951</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.28497928509490317</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.33637151941420174</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A7" s="5" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.17733582820992605</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.15868621375564226</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.18610453612250547</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.17490673553888411</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.38873393491933278</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.25928356576428768</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.35198249931637954</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A8" s="5" t="str">
+        <v>UK</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.16899937628085182</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.15877706372886544</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.11494594739733724</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.14819688708509271</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <v>UK</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.43722855904618763</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.30619000636243765</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.25658143459137472</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A9" s="5" t="str">
+        <v>USA</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.18031542368350709</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.1547605385968939</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.23010256982224811</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.18948195520572841</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <v>USA</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.36486106403386676</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.23341819257036947</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.40172074339576375</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A10" s="5" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <v>Total</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.38340917476325176</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.28578690607961299</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.33080391915713525</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>